--- a/Sample_Bank_Data/MAR 2024.xlsx
+++ b/Sample_Bank_Data/MAR 2024.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28816"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28906"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91636\Downloads\OneDrive_2025-04-23\Sample Bank Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{30613E7B-9CF4-485C-AF65-7887FE4D1893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FBB82E3D-8866-4E94-B5E6-A68F24E14CAF}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{30613E7B-9CF4-485C-AF65-7887FE4D1893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7056B1BD-9DF9-441A-975B-5A2E912EF25F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="7" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collateral Types" sheetId="12" r:id="rId1"/>
     <sheet name="CUSTOMER" sheetId="6" r:id="rId2"/>
     <sheet name="fact risk" sheetId="1" r:id="rId3"/>
-    <sheet name="Fact writeen-off" sheetId="8" r:id="rId4"/>
-    <sheet name="fact restructred" sheetId="10" r:id="rId5"/>
-    <sheet name="rating" sheetId="5" r:id="rId6"/>
-    <sheet name="Rating and PDS&amp;P_x0009_Moody's_x0009_Fitch_x0009_" sheetId="11" r:id="rId7"/>
-    <sheet name="Risk Limit" sheetId="13" r:id="rId8"/>
-    <sheet name="STAGING" sheetId="7" r:id="rId9"/>
+    <sheet name="Provision" sheetId="14" r:id="rId4"/>
+    <sheet name="Fact writeen-off" sheetId="8" r:id="rId5"/>
+    <sheet name="fact restructred" sheetId="10" r:id="rId6"/>
+    <sheet name="rating" sheetId="5" r:id="rId7"/>
+    <sheet name="Rating and PDS&amp;P_x0009_Moody's_x0009_Fitch_x0009_" sheetId="11" r:id="rId8"/>
+    <sheet name="PD" sheetId="15" r:id="rId9"/>
+    <sheet name="Risk Limit" sheetId="13" r:id="rId10"/>
+    <sheet name="STAGING" sheetId="7" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'fact risk'!$B$1:$AD$51</definedName>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="218">
   <si>
     <t>Types of Collaterals</t>
   </si>
@@ -358,6 +360,12 @@
     <t>3E</t>
   </si>
   <si>
+    <t>Provision Stages</t>
+  </si>
+  <si>
+    <t>3F</t>
+  </si>
+  <si>
     <t>Company</t>
   </si>
   <si>
@@ -583,163 +591,103 @@
     <t>Internal Rating</t>
   </si>
   <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>Aaa</t>
+  </si>
+  <si>
+    <t>AA+</t>
+  </si>
+  <si>
+    <t>Aa1</t>
+  </si>
+  <si>
+    <t>Aa2</t>
+  </si>
+  <si>
+    <t>Baa1</t>
+  </si>
+  <si>
+    <t>Baa2</t>
+  </si>
+  <si>
+    <t>BBB-</t>
+  </si>
+  <si>
+    <t>Baa3</t>
+  </si>
+  <si>
+    <t>Ba1</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>Ba2</t>
+  </si>
+  <si>
+    <t>BB-</t>
+  </si>
+  <si>
+    <t>Ba3</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B-</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>CCC+</t>
+  </si>
+  <si>
+    <t>Caa1</t>
+  </si>
+  <si>
+    <t>CCC</t>
+  </si>
+  <si>
+    <t>Caa2</t>
+  </si>
+  <si>
+    <t>CCC-</t>
+  </si>
+  <si>
+    <t>Caa3</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>Ca</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>DDD</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>DD</t>
+  </si>
+  <si>
     <t>PD 2024</t>
-  </si>
-  <si>
-    <t>AAA</t>
-  </si>
-  <si>
-    <t>Aaa</t>
-  </si>
-  <si>
-    <t>0.0020%</t>
-  </si>
-  <si>
-    <t>AA+</t>
-  </si>
-  <si>
-    <t>Aa1</t>
-  </si>
-  <si>
-    <t>0.0232%</t>
-  </si>
-  <si>
-    <t>Aa2</t>
-  </si>
-  <si>
-    <t>0.0518%</t>
-  </si>
-  <si>
-    <t>0.1112%</t>
-  </si>
-  <si>
-    <t>0.2080%</t>
-  </si>
-  <si>
-    <t>0.3796%</t>
-  </si>
-  <si>
-    <t>0.5940%</t>
-  </si>
-  <si>
-    <t>Baa1</t>
-  </si>
-  <si>
-    <t>0.9130%</t>
-  </si>
-  <si>
-    <t>Baa2</t>
-  </si>
-  <si>
-    <t>1.3200%</t>
-  </si>
-  <si>
-    <t>BBB-</t>
-  </si>
-  <si>
-    <t>Baa3</t>
-  </si>
-  <si>
-    <t>2.6180%</t>
-  </si>
-  <si>
-    <t>Ba1</t>
-  </si>
-  <si>
-    <t>4.6200%</t>
-  </si>
-  <si>
-    <t>BB</t>
-  </si>
-  <si>
-    <t>Ba2</t>
-  </si>
-  <si>
-    <t>7.4800%</t>
-  </si>
-  <si>
-    <t>BB-</t>
-  </si>
-  <si>
-    <t>Ba3</t>
-  </si>
-  <si>
-    <t>10.7690%</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>15.2350%</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>19.9420%</t>
-  </si>
-  <si>
-    <t>B-</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>26.4440%</t>
-  </si>
-  <si>
-    <t>CCC+</t>
-  </si>
-  <si>
-    <t>Caa1</t>
-  </si>
-  <si>
-    <t>35.7268%</t>
-  </si>
-  <si>
-    <t>CCC</t>
-  </si>
-  <si>
-    <t>Caa2</t>
-  </si>
-  <si>
-    <t>48.2680%</t>
-  </si>
-  <si>
-    <t>CCC-</t>
-  </si>
-  <si>
-    <t>Caa3</t>
-  </si>
-  <si>
-    <t>72.8662%</t>
-  </si>
-  <si>
-    <t>CC</t>
-  </si>
-  <si>
-    <t>Ca</t>
-  </si>
-  <si>
-    <t>100.0000%</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>SD</t>
-  </si>
-  <si>
-    <t>DDD</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>DD</t>
   </si>
   <si>
     <t>Internal risk rating</t>
@@ -1324,6 +1272,593 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2929B48-8E52-4811-B3CB-8F28F30E96B8}">
+  <dimension ref="A1:J77"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5703125" customWidth="1"/>
+    <col min="10" max="10" width="22.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="31">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33">
+        <v>122400000</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:C18" si="0">B2*18</f>
+        <v>2203200000</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="33">
+        <v>100000000</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="33">
+        <v>540000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="31">
+        <v>2</v>
+      </c>
+      <c r="B3" s="33">
+        <v>109800000</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>1976400000</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="33">
+        <v>300000000</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3" s="33">
+        <v>500000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="31">
+        <v>3</v>
+      </c>
+      <c r="B4" s="33">
+        <v>126360000</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C18" si="1">B4*1.3</f>
+        <v>164268000</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="33">
+        <v>390000000</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4" s="33">
+        <v>800000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="31">
+        <v>4</v>
+      </c>
+      <c r="B5" s="33">
+        <v>109980000</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>142974000</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="33">
+        <v>180000000</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5" s="33">
+        <v>1050000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="31">
+        <v>5</v>
+      </c>
+      <c r="B6" s="33">
+        <v>93600000</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>121680000</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="33">
+        <v>270000000</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6" s="33">
+        <v>360000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="31">
+        <v>6</v>
+      </c>
+      <c r="B7" s="33">
+        <v>92280000</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:C18" si="2">B7*1.5</f>
+        <v>138420000</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="33">
+        <v>560000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="31">
+        <v>7</v>
+      </c>
+      <c r="B8" s="33">
+        <v>87220000</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="2"/>
+        <v>130830000</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="33">
+        <v>200000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="31">
+        <v>8</v>
+      </c>
+      <c r="B9" s="33">
+        <v>86200000</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="2"/>
+        <v>129300000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="31">
+        <v>9</v>
+      </c>
+      <c r="B10" s="33">
+        <v>82505000</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ref="C10:C18" si="3">B10*1.5</f>
+        <v>123757500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="31">
+        <v>10</v>
+      </c>
+      <c r="B11" s="33">
+        <v>73710000</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="3"/>
+        <v>110565000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="31">
+        <v>11</v>
+      </c>
+      <c r="B12" s="33">
+        <v>47385000</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="3"/>
+        <v>71077500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="31">
+        <v>12</v>
+      </c>
+      <c r="B13" s="33">
+        <v>36855000</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="3"/>
+        <v>55282500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="31">
+        <v>13</v>
+      </c>
+      <c r="B14" s="33">
+        <v>23692500</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="3"/>
+        <v>35538750</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="31">
+        <v>14</v>
+      </c>
+      <c r="B15" s="33">
+        <v>18427500</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="3"/>
+        <v>27641250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="31">
+        <v>15</v>
+      </c>
+      <c r="B16" s="33">
+        <v>13162500</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="3"/>
+        <v>19743750</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="31">
+        <v>16</v>
+      </c>
+      <c r="B17" s="33">
+        <v>7897500</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="3"/>
+        <v>11846250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="31">
+        <v>17</v>
+      </c>
+      <c r="B18" s="33">
+        <v>1579500</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="3"/>
+        <v>2369250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="E22" s="34"/>
+      <c r="G22" s="33"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="E23" s="34"/>
+      <c r="G23" s="33"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="E24" s="34"/>
+      <c r="G24" s="33"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="E25" s="34"/>
+      <c r="G25" s="33"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="34"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="30"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="D27" s="33"/>
+      <c r="E27" s="34"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="D28" s="33"/>
+      <c r="E28" s="34"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="D29" s="33"/>
+      <c r="E29" s="34"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="D30" s="33"/>
+      <c r="E30" s="34"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="D31" s="33"/>
+      <c r="E31" s="34"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="D32" s="33"/>
+      <c r="E32" s="34"/>
+      <c r="G32" s="33"/>
+    </row>
+    <row r="33" spans="4:7">
+      <c r="D33" s="33"/>
+      <c r="E33" s="34"/>
+      <c r="G33" s="33"/>
+    </row>
+    <row r="34" spans="4:7">
+      <c r="D34" s="33"/>
+      <c r="E34" s="34"/>
+      <c r="G34" s="33"/>
+    </row>
+    <row r="35" spans="4:7">
+      <c r="D35" s="33"/>
+      <c r="E35" s="34"/>
+      <c r="G35" s="33"/>
+    </row>
+    <row r="36" spans="4:7">
+      <c r="D36" s="33"/>
+      <c r="E36" s="34"/>
+      <c r="G36" s="33"/>
+    </row>
+    <row r="37" spans="4:7">
+      <c r="D37" s="33"/>
+      <c r="E37" s="34"/>
+      <c r="G37" s="33"/>
+    </row>
+    <row r="38" spans="4:7">
+      <c r="D38" s="33"/>
+      <c r="E38" s="34"/>
+      <c r="G38" s="33"/>
+    </row>
+    <row r="39" spans="4:7">
+      <c r="D39" s="33"/>
+      <c r="E39" s="34"/>
+      <c r="G39" s="33"/>
+    </row>
+    <row r="40" spans="4:7">
+      <c r="D40" s="33"/>
+      <c r="E40" s="34"/>
+      <c r="G40" s="33"/>
+    </row>
+    <row r="41" spans="4:7">
+      <c r="D41" s="33"/>
+      <c r="E41" s="34"/>
+      <c r="G41" s="33"/>
+    </row>
+    <row r="42" spans="4:7">
+      <c r="D42" s="33"/>
+      <c r="E42" s="34"/>
+      <c r="G42" s="33"/>
+    </row>
+    <row r="43" spans="4:7">
+      <c r="D43" s="33"/>
+      <c r="E43" s="34"/>
+      <c r="G43" s="33"/>
+    </row>
+    <row r="44" spans="4:7">
+      <c r="E44" s="34"/>
+      <c r="G44" s="33"/>
+    </row>
+    <row r="45" spans="4:7">
+      <c r="E45" s="34"/>
+      <c r="G45" s="33"/>
+    </row>
+    <row r="46" spans="4:7">
+      <c r="E46" s="34"/>
+      <c r="G46" s="33"/>
+    </row>
+    <row r="47" spans="4:7">
+      <c r="E47" s="34"/>
+      <c r="G47" s="33"/>
+    </row>
+    <row r="48" spans="4:7">
+      <c r="E48" s="34"/>
+      <c r="G48" s="33"/>
+    </row>
+    <row r="49" spans="5:7">
+      <c r="E49" s="34"/>
+      <c r="G49" s="33"/>
+    </row>
+    <row r="50" spans="5:7">
+      <c r="E50" s="34"/>
+      <c r="G50" s="33"/>
+    </row>
+    <row r="51" spans="5:7">
+      <c r="E51" s="34"/>
+      <c r="G51" s="33"/>
+    </row>
+    <row r="52" spans="5:7">
+      <c r="E52" s="34"/>
+      <c r="G52" s="33"/>
+    </row>
+    <row r="53" spans="5:7">
+      <c r="E53" s="34"/>
+      <c r="G53" s="33"/>
+    </row>
+    <row r="54" spans="5:7">
+      <c r="E54" s="34"/>
+      <c r="G54" s="33"/>
+    </row>
+    <row r="55" spans="5:7">
+      <c r="E55" s="34"/>
+      <c r="G55" s="33"/>
+    </row>
+    <row r="56" spans="5:7">
+      <c r="E56" s="34"/>
+      <c r="G56" s="33"/>
+    </row>
+    <row r="57" spans="5:7">
+      <c r="E57" s="34"/>
+      <c r="G57" s="33"/>
+    </row>
+    <row r="58" spans="5:7">
+      <c r="E58" s="34"/>
+      <c r="G58" s="33"/>
+    </row>
+    <row r="59" spans="5:7">
+      <c r="E59" s="34"/>
+      <c r="G59" s="33"/>
+    </row>
+    <row r="60" spans="5:7">
+      <c r="E60" s="34"/>
+      <c r="G60" s="33"/>
+    </row>
+    <row r="61" spans="5:7">
+      <c r="E61" s="34"/>
+      <c r="G61" s="33"/>
+    </row>
+    <row r="62" spans="5:7">
+      <c r="E62" s="34"/>
+      <c r="G62" s="33"/>
+    </row>
+    <row r="63" spans="5:7">
+      <c r="E63" s="34"/>
+      <c r="G63" s="33"/>
+    </row>
+    <row r="64" spans="5:7">
+      <c r="E64" s="34"/>
+      <c r="G64" s="33"/>
+    </row>
+    <row r="65" spans="5:7">
+      <c r="E65" s="34"/>
+      <c r="G65" s="33"/>
+    </row>
+    <row r="66" spans="5:7">
+      <c r="E66" s="34"/>
+      <c r="G66" s="33"/>
+    </row>
+    <row r="67" spans="5:7">
+      <c r="E67" s="34"/>
+      <c r="G67" s="33"/>
+    </row>
+    <row r="68" spans="5:7">
+      <c r="E68" s="34"/>
+      <c r="G68" s="33"/>
+    </row>
+    <row r="69" spans="5:7">
+      <c r="E69" s="34"/>
+      <c r="G69" s="33"/>
+    </row>
+    <row r="70" spans="5:7">
+      <c r="E70" s="34"/>
+      <c r="G70" s="33"/>
+    </row>
+    <row r="71" spans="5:7">
+      <c r="E71" s="34"/>
+      <c r="G71" s="33"/>
+    </row>
+    <row r="72" spans="5:7">
+      <c r="E72" s="34"/>
+      <c r="G72" s="33"/>
+    </row>
+    <row r="73" spans="5:7">
+      <c r="E73" s="34"/>
+      <c r="G73" s="33"/>
+    </row>
+    <row r="74" spans="5:7">
+      <c r="E74" s="34"/>
+      <c r="G74" s="33"/>
+    </row>
+    <row r="75" spans="5:7">
+      <c r="E75" s="34"/>
+      <c r="G75" s="33"/>
+    </row>
+    <row r="76" spans="5:7">
+      <c r="E76" s="34"/>
+      <c r="G76" s="33"/>
+    </row>
+    <row r="77" spans="5:7">
+      <c r="E77" s="34"/>
+      <c r="G77" s="33"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2FE4088-AF22-41A1-89D6-9412CB39B032}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6EAC753-FD4B-4174-9852-2B0C91699448}">
   <dimension ref="B1:F51"/>
@@ -2223,7 +2758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+    <sheetView topLeftCell="P1" workbookViewId="0">
       <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
@@ -7672,6 +8207,59 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F19E5B0-4E47-4A05-A5C1-84FF343BEEB3}">
+  <dimension ref="B1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0525FA23-3CAD-4855-B532-1A977B48E93A}">
   <dimension ref="B2:G42"/>
   <sheetViews>
@@ -7691,27 +8279,27 @@
   <sheetData>
     <row r="2" spans="2:7">
       <c r="B2" s="13" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="41.25" customHeight="1">
       <c r="B3" s="15" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C3" s="16">
         <v>26957145.599999998</v>
@@ -7720,20 +8308,20 @@
         <v>2024</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F3" s="17">
         <f t="shared" ref="F3:F42" ca="1" si="0">(C3*0.2) + RANDBETWEEN(0, 25000)</f>
-        <v>5405736.1200000001</v>
+        <v>5413858.1200000001</v>
       </c>
       <c r="G3" s="16">
         <f t="shared" ref="G3:G42" ca="1" si="1">C3-F3</f>
-        <v>21551409.479999997</v>
+        <v>21543287.479999997</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="15" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C4" s="16">
         <v>40426848</v>
@@ -7742,20 +8330,20 @@
         <v>2023</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F4" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>8094865.6000000006</v>
+        <v>8088839.6000000006</v>
       </c>
       <c r="G4" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>32331982.399999999</v>
+        <v>32338008.399999999</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="15" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C5" s="16">
         <v>53896550.399999999</v>
@@ -7764,20 +8352,20 @@
         <v>2022</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F5" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>10792716.08</v>
+        <v>10800818.08</v>
       </c>
       <c r="G5" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>43103834.32</v>
+        <v>43095732.32</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="30">
       <c r="B6" s="15" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C6" s="16">
         <v>67366252.799999997</v>
@@ -7786,20 +8374,20 @@
         <v>2019</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F6" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>13480971.560000001</v>
+        <v>13484381.560000001</v>
       </c>
       <c r="G6" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>53885281.239999995</v>
+        <v>53881871.239999995</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="30">
       <c r="B7" s="15" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C7" s="16">
         <v>80835955.199999988</v>
@@ -7808,20 +8396,20 @@
         <v>2024</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F7" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>16170994.039999999</v>
+        <v>16170020.039999999</v>
       </c>
       <c r="G7" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>64664961.159999989</v>
+        <v>64665935.159999989</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="15" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C8" s="16">
         <v>94305657.600000009</v>
@@ -7830,20 +8418,20 @@
         <v>2023</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F8" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>18878589.520000003</v>
+        <v>18883943.520000003</v>
       </c>
       <c r="G8" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>75427068.080000013</v>
+        <v>75421714.080000013</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="30">
       <c r="B9" s="15" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C9" s="16">
         <v>107760576</v>
@@ -7852,20 +8440,20 @@
         <v>2022</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F9" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>21552175.200000003</v>
+        <v>21558670.200000003</v>
       </c>
       <c r="G9" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>86208400.799999997</v>
+        <v>86201905.799999997</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="15" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C10" s="16">
         <v>121082438.39999999</v>
@@ -7874,20 +8462,20 @@
         <v>2019</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F10" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>24238758.68</v>
+        <v>24222541.68</v>
       </c>
       <c r="G10" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>96843679.719999999</v>
+        <v>96859896.719999999</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="30">
       <c r="B11" s="15" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C11" s="16">
         <v>133073740.8</v>
@@ -7896,20 +8484,20 @@
         <v>2024</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F11" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>26615463.16</v>
+        <v>26636405.16</v>
       </c>
       <c r="G11" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>106458277.64</v>
+        <v>106437335.64</v>
       </c>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="15" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C12" s="16">
         <v>146543443.19999999</v>
@@ -7918,20 +8506,20 @@
         <v>2023</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F12" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>29325012.640000001</v>
+        <v>29315426.640000001</v>
       </c>
       <c r="G12" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>117218430.55999999</v>
+        <v>117228016.55999999</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="15" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C13" s="16">
         <v>16608345.6</v>
@@ -7940,20 +8528,20 @@
         <v>2022</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F13" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>3327854.12</v>
+        <v>3332857.12</v>
       </c>
       <c r="G13" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>13280491.48</v>
+        <v>13275488.48</v>
       </c>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C14" s="16">
         <v>33034848</v>
@@ -7962,20 +8550,20 @@
         <v>2019</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F14" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>6623505.6000000006</v>
+        <v>6625778.6000000006</v>
       </c>
       <c r="G14" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>26411342.399999999</v>
+        <v>26409069.399999999</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="30">
       <c r="B15" s="15" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C15" s="16">
         <v>49461350.399999999</v>
@@ -7984,20 +8572,20 @@
         <v>2020</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F15" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>9911261.0800000001</v>
+        <v>9893448.0800000001</v>
       </c>
       <c r="G15" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>39550089.32</v>
+        <v>39567902.32</v>
       </c>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="15" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C16" s="16">
         <v>65887852.800000004</v>
@@ -8006,20 +8594,20 @@
         <v>2020</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F16" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>13190629.560000002</v>
+        <v>13197093.560000002</v>
       </c>
       <c r="G16" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>52697223.240000002</v>
+        <v>52690759.240000002</v>
       </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="15" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C17" s="16">
         <v>82314355.199999988</v>
@@ -8028,20 +8616,20 @@
         <v>2020</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F17" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>16467056.039999999</v>
+        <v>16474241.039999999</v>
       </c>
       <c r="G17" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>65847299.159999989</v>
+        <v>65840114.159999989</v>
       </c>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="15" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C18" s="16">
         <v>98740857.600000009</v>
@@ -8050,20 +8638,20 @@
         <v>2020</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F18" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>19769939.520000003</v>
+        <v>19763633.520000003</v>
       </c>
       <c r="G18" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>78970918.080000013</v>
+        <v>78977224.080000013</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="30">
       <c r="B19" s="15" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C19" s="16">
         <v>115152576</v>
@@ -8072,20 +8660,20 @@
         <v>2020</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F19" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>23032039.200000003</v>
+        <v>23046397.200000003</v>
       </c>
       <c r="G19" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>92120536.799999997</v>
+        <v>92106178.799999997</v>
       </c>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="15" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C20" s="16">
         <v>131431238.39999999</v>
@@ -8094,20 +8682,20 @@
         <v>2020</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F20" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>26305721.68</v>
+        <v>26292426.68</v>
       </c>
       <c r="G20" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>105125516.72</v>
+        <v>105138811.72</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="30">
       <c r="B21" s="15" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C21" s="16">
         <v>146379340.79999998</v>
@@ -8116,20 +8704,20 @@
         <v>2017</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F21" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>29284492.159999996</v>
+        <v>29282253.159999996</v>
       </c>
       <c r="G21" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>117094848.63999999</v>
+        <v>117097087.63999999</v>
       </c>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C22" s="16">
         <v>14965843.200000001</v>
@@ -8138,20 +8726,20 @@
         <v>2017</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F22" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>3011766.6400000006</v>
+        <v>3003580.6400000006</v>
       </c>
       <c r="G22" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>11954076.560000001</v>
+        <v>11962262.560000001</v>
       </c>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="15" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C23" s="16">
         <v>31392345.599999998</v>
@@ -8160,20 +8748,20 @@
         <v>2017</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F23" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>6297089.1200000001</v>
+        <v>6282800.1200000001</v>
       </c>
       <c r="G23" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>25095256.479999997</v>
+        <v>25109545.479999997</v>
       </c>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="15" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C24" s="16">
         <v>47818848</v>
@@ -8182,20 +8770,20 @@
         <v>2017</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F24" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>9583998.5999999996</v>
+        <v>9583058.5999999996</v>
       </c>
       <c r="G24" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>38234849.399999999</v>
+        <v>38235789.399999999</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="30">
       <c r="B25" s="15" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C25" s="16">
         <v>64245350.399999999</v>
@@ -8204,20 +8792,20 @@
         <v>2017</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F25" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>12869146.08</v>
+        <v>12866039.08</v>
       </c>
       <c r="G25" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>51376204.32</v>
+        <v>51379311.32</v>
       </c>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="15" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C26" s="16">
         <v>80671852.799999997</v>
@@ -8226,20 +8814,20 @@
         <v>2017</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F26" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>16144774.560000001</v>
+        <v>16139834.560000001</v>
       </c>
       <c r="G26" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>64527078.239999995</v>
+        <v>64532018.239999995</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="30">
       <c r="B27" s="15" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C27" s="16">
         <v>97098355.199999988</v>
@@ -8248,20 +8836,20 @@
         <v>2017</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F27" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>19429016.039999999</v>
+        <v>19425975.039999999</v>
       </c>
       <c r="G27" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>77669339.159999996</v>
+        <v>77672380.159999996</v>
       </c>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="15" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C28" s="16">
         <v>113524857.60000001</v>
@@ -8270,20 +8858,20 @@
         <v>2015</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F28" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>22720450.520000003</v>
+        <v>22717838.520000003</v>
       </c>
       <c r="G28" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>90804407.080000013</v>
+        <v>90807019.080000013</v>
       </c>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C29" s="16">
         <v>129936576</v>
@@ -8292,20 +8880,20 @@
         <v>2015</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F29" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>26008005.200000003</v>
+        <v>26002333.200000003</v>
       </c>
       <c r="G29" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>103928570.8</v>
+        <v>103934242.8</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="30">
       <c r="B30" s="15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C30" s="16">
         <v>146215238.40000001</v>
@@ -8314,20 +8902,20 @@
         <v>2015</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F30" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>29250700.680000003</v>
+        <v>29244717.680000003</v>
       </c>
       <c r="G30" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>116964537.72</v>
+        <v>116970520.72</v>
       </c>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="15" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C31" s="16">
         <v>28107340.799999997</v>
@@ -8336,20 +8924,20 @@
         <v>2015</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F31" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>5642450.1600000001</v>
+        <v>5638178.1600000001</v>
       </c>
       <c r="G31" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>22464890.639999997</v>
+        <v>22469162.639999997</v>
       </c>
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="15" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C32" s="16">
         <v>44533843.199999996</v>
@@ -8358,20 +8946,20 @@
         <v>2015</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F32" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>8910896.6399999987</v>
+        <v>8918679.6399999987</v>
       </c>
       <c r="G32" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>35622946.559999995</v>
+        <v>35615163.559999995</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="30">
       <c r="B33" s="15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C33" s="16">
         <v>60960345.599999994</v>
@@ -8380,20 +8968,20 @@
         <v>2015</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F33" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>12201605.119999999</v>
+        <v>12203299.119999999</v>
       </c>
       <c r="G33" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>48758740.479999997</v>
+        <v>48757046.479999997</v>
       </c>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="15" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C34" s="16">
         <v>77386848</v>
@@ -8402,20 +8990,20 @@
         <v>2015</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F34" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>15483283.600000001</v>
+        <v>15484397.600000001</v>
       </c>
       <c r="G34" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>61903564.399999999</v>
+        <v>61902450.399999999</v>
       </c>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="15" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C35" s="16">
         <v>93813350.399999991</v>
@@ -8424,20 +9012,20 @@
         <v>2015</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F35" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>18783709.079999998</v>
+        <v>18779280.079999998</v>
       </c>
       <c r="G35" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>75029641.319999993</v>
+        <v>75034070.319999993</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="30">
       <c r="B36" s="15" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C36" s="16">
         <v>110239852.8</v>
@@ -8446,20 +9034,20 @@
         <v>2015</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F36" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>22064861.560000002</v>
+        <v>22050243.560000002</v>
       </c>
       <c r="G36" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>88174991.239999995</v>
+        <v>88189609.239999995</v>
       </c>
     </row>
     <row r="37" spans="2:7">
       <c r="B37" s="15" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C37" s="16">
         <v>126666355.19999999</v>
@@ -8468,20 +9056,20 @@
         <v>2015</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F37" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>25335065.039999999</v>
+        <v>25356986.039999999</v>
       </c>
       <c r="G37" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>101331290.16</v>
+        <v>101309369.16</v>
       </c>
     </row>
     <row r="38" spans="2:7">
       <c r="B38" s="15" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C38" s="16">
         <v>143092857.59999999</v>
@@ -8490,20 +9078,20 @@
         <v>2015</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F38" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>28641688.52</v>
+        <v>28643540.52</v>
       </c>
       <c r="G38" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>114451169.08</v>
+        <v>114449317.08</v>
       </c>
     </row>
     <row r="39" spans="2:7" ht="30">
       <c r="B39" s="15" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C39" s="16">
         <v>26448576</v>
@@ -8512,20 +9100,20 @@
         <v>2015</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F39" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>5299677.2</v>
+        <v>5304198.2</v>
       </c>
       <c r="G39" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>21148898.800000001</v>
+        <v>21144377.800000001</v>
       </c>
     </row>
     <row r="40" spans="2:7">
       <c r="B40" s="15" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C40" s="16">
         <v>42727238.399999999</v>
@@ -8534,20 +9122,20 @@
         <v>2015</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F40" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>8564555.6799999997</v>
+        <v>8560118.6799999997</v>
       </c>
       <c r="G40" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>34162682.719999999</v>
+        <v>34167119.719999999</v>
       </c>
     </row>
     <row r="41" spans="2:7">
       <c r="B41" s="15" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C41" s="16">
         <v>57675340.800000004</v>
@@ -8556,20 +9144,20 @@
         <v>2015</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F41" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>11543530.160000002</v>
+        <v>11547908.160000002</v>
       </c>
       <c r="G41" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>46131810.640000001</v>
+        <v>46127432.640000001</v>
       </c>
     </row>
     <row r="42" spans="2:7">
       <c r="B42" s="15" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C42" s="16">
         <v>74101843.200000003</v>
@@ -8578,15 +9166,15 @@
         <v>2015</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F42" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>14844709.640000001</v>
+        <v>14840247.640000001</v>
       </c>
       <c r="G42" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>59257133.560000002</v>
+        <v>59261595.560000002</v>
       </c>
     </row>
   </sheetData>
@@ -8594,7 +9182,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F67618C1-C8A0-47B6-8B25-F487EA031E1F}">
   <dimension ref="B2:F42"/>
   <sheetViews>
@@ -8622,10 +9210,10 @@
         <v>75</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="2:6">
@@ -8696,7 +9284,7 @@
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="19" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C41" s="19">
         <v>6</v>
@@ -8714,7 +9302,7 @@
     </row>
     <row r="42" spans="2:6">
       <c r="B42" s="19" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C42" s="19">
         <v>7</v>
@@ -8735,7 +9323,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63958FAE-3AAE-44C0-9CCD-F6FFBDEF2641}">
   <dimension ref="A1:H51"/>
   <sheetViews>
@@ -8771,13 +9359,13 @@
         <v>80</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -8785,7 +9373,7 @@
         <v>98</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C2" s="8">
         <v>1</v>
@@ -8797,10 +9385,10 @@
         <v>2</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -8822,10 +9410,10 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -8846,10 +9434,10 @@
         <v>11</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -8870,10 +9458,10 @@
         <v>11</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -8894,10 +9482,10 @@
         <v>14</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -8919,10 +9507,10 @@
         <v>6</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -8944,10 +9532,10 @@
         <v>10</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H8" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -8969,10 +9557,10 @@
         <v>13</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H9" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -8994,10 +9582,10 @@
         <v>12</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H10" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -9019,10 +9607,10 @@
         <v>13</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H11" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -9044,7 +9632,7 @@
         <v>8</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -9066,10 +9654,10 @@
         <v>6</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H13" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -9091,7 +9679,7 @@
         <v>12</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -9114,7 +9702,7 @@
       </c>
       <c r="F15" s="3"/>
       <c r="G15" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -9136,7 +9724,7 @@
         <v>12</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -9158,10 +9746,10 @@
         <v>8</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H17" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -9183,7 +9771,7 @@
         <v>7</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -9205,7 +9793,7 @@
         <v>9</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -9227,7 +9815,7 @@
         <v>12</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -9250,7 +9838,7 @@
       </c>
       <c r="F21" s="3"/>
       <c r="G21" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -9272,7 +9860,7 @@
         <v>3</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -9294,7 +9882,7 @@
         <v>6</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -9316,7 +9904,7 @@
         <v>12</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -9338,7 +9926,7 @@
         <v>11</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -9360,7 +9948,7 @@
         <v>12</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -9382,7 +9970,7 @@
         <v>6</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -9404,10 +9992,10 @@
         <v>5</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H28" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -9429,10 +10017,10 @@
         <v>9</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H29" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -9454,7 +10042,7 @@
         <v>12</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -9476,7 +10064,7 @@
         <v>12</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -9499,7 +10087,7 @@
       </c>
       <c r="F32" s="3"/>
       <c r="G32" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -9521,10 +10109,10 @@
         <v>7</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H33" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -9546,10 +10134,10 @@
         <v>13</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H34" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -9571,10 +10159,10 @@
         <v>14</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H35" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -9596,10 +10184,10 @@
         <v>14</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H36" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -9621,7 +10209,7 @@
         <v>8</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -9643,7 +10231,7 @@
         <v>8</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -9665,7 +10253,7 @@
         <v>9</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -9687,10 +10275,10 @@
         <v>13</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H40" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -9712,10 +10300,10 @@
         <v>13</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H41" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -9737,7 +10325,7 @@
         <v>3</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -9759,7 +10347,7 @@
         <v>8</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -9781,7 +10369,7 @@
         <v>11</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -9803,7 +10391,7 @@
         <v>12</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -9825,7 +10413,7 @@
         <v>15</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -9847,7 +10435,7 @@
         <v>4</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -9869,7 +10457,7 @@
         <v>7</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -9891,7 +10479,7 @@
         <v>11</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -9913,7 +10501,7 @@
         <v>11</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -9935,552 +10523,7 @@
         <v>10</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ABFBA4B-6F4E-444D-93B2-E23E2D3BEB6D}">
-  <dimension ref="A1:I25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:9" ht="30">
-      <c r="A1" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D2">
-        <v>21</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>180</v>
-      </c>
-      <c r="I2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>182</v>
-      </c>
-      <c r="B3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D3">
-        <v>20</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="H3" t="s">
-        <v>183</v>
-      </c>
-      <c r="I3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>171</v>
-      </c>
-      <c r="B4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D4">
-        <v>19</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="H4" t="s">
-        <v>185</v>
-      </c>
-      <c r="I4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>161</v>
-      </c>
-      <c r="B5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C5" t="s">
-        <v>161</v>
-      </c>
-      <c r="D5">
-        <v>18</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="H5" t="s">
-        <v>162</v>
-      </c>
-      <c r="I5" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>164</v>
-      </c>
-      <c r="B6" t="s">
-        <v>163</v>
-      </c>
-      <c r="C6" t="s">
-        <v>164</v>
-      </c>
-      <c r="D6">
-        <v>17</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="H6" t="s">
-        <v>163</v>
-      </c>
-      <c r="I6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>159</v>
-      </c>
-      <c r="B7" t="s">
-        <v>160</v>
-      </c>
-      <c r="C7" t="s">
-        <v>159</v>
-      </c>
-      <c r="D7">
-        <v>16</v>
-      </c>
-      <c r="E7">
-        <v>6</v>
-      </c>
-      <c r="H7" t="s">
-        <v>160</v>
-      </c>
-      <c r="I7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>168</v>
-      </c>
-      <c r="B8" t="s">
-        <v>165</v>
-      </c>
-      <c r="C8" t="s">
-        <v>168</v>
-      </c>
-      <c r="D8">
-        <v>15</v>
-      </c>
-      <c r="E8">
-        <v>7</v>
-      </c>
-      <c r="H8" t="s">
-        <v>165</v>
-      </c>
-      <c r="I8" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>167</v>
-      </c>
-      <c r="B9" t="s">
-        <v>191</v>
-      </c>
-      <c r="C9" t="s">
-        <v>167</v>
-      </c>
-      <c r="D9">
-        <v>14</v>
-      </c>
-      <c r="E9">
-        <v>8</v>
-      </c>
-      <c r="H9" t="s">
-        <v>191</v>
-      </c>
-      <c r="I9" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>166</v>
-      </c>
-      <c r="B10" t="s">
-        <v>193</v>
-      </c>
-      <c r="C10" t="s">
-        <v>166</v>
-      </c>
-      <c r="D10">
-        <v>13</v>
-      </c>
-      <c r="E10">
-        <v>9</v>
-      </c>
-      <c r="H10" t="s">
-        <v>193</v>
-      </c>
-      <c r="I10" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>195</v>
-      </c>
-      <c r="B11" t="s">
-        <v>196</v>
-      </c>
-      <c r="C11" t="s">
-        <v>195</v>
-      </c>
-      <c r="D11">
-        <v>12</v>
-      </c>
-      <c r="E11">
-        <v>10</v>
-      </c>
-      <c r="H11" t="s">
-        <v>196</v>
-      </c>
-      <c r="I11" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>172</v>
-      </c>
-      <c r="B12" t="s">
-        <v>198</v>
-      </c>
-      <c r="C12" t="s">
-        <v>172</v>
-      </c>
-      <c r="D12">
-        <v>11</v>
-      </c>
-      <c r="E12">
-        <v>11</v>
-      </c>
-      <c r="H12" t="s">
-        <v>198</v>
-      </c>
-      <c r="I12" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>200</v>
-      </c>
-      <c r="B13" t="s">
-        <v>201</v>
-      </c>
-      <c r="C13" t="s">
-        <v>200</v>
-      </c>
-      <c r="D13">
-        <v>10</v>
-      </c>
-      <c r="E13">
-        <v>12</v>
-      </c>
-      <c r="H13" t="s">
-        <v>201</v>
-      </c>
-      <c r="I13" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B14" t="s">
-        <v>204</v>
-      </c>
-      <c r="C14" t="s">
-        <v>203</v>
-      </c>
-      <c r="D14">
-        <v>9</v>
-      </c>
-      <c r="E14">
-        <v>13</v>
-      </c>
-      <c r="H14" t="s">
-        <v>204</v>
-      </c>
-      <c r="I14" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>170</v>
-      </c>
-      <c r="B15" t="s">
-        <v>206</v>
-      </c>
-      <c r="C15" t="s">
-        <v>170</v>
-      </c>
-      <c r="D15">
-        <v>8</v>
-      </c>
-      <c r="E15">
-        <v>14</v>
-      </c>
-      <c r="H15" t="s">
-        <v>206</v>
-      </c>
-      <c r="I15" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>208</v>
-      </c>
-      <c r="B16" t="s">
-        <v>209</v>
-      </c>
-      <c r="C16" t="s">
-        <v>208</v>
-      </c>
-      <c r="D16">
-        <v>7</v>
-      </c>
-      <c r="E16">
-        <v>15</v>
-      </c>
-      <c r="H16" t="s">
-        <v>209</v>
-      </c>
-      <c r="I16" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" t="s">
-        <v>211</v>
-      </c>
-      <c r="B17" t="s">
-        <v>212</v>
-      </c>
-      <c r="C17" t="s">
-        <v>211</v>
-      </c>
-      <c r="D17">
-        <v>6</v>
-      </c>
-      <c r="E17">
-        <v>16</v>
-      </c>
-      <c r="H17" t="s">
-        <v>212</v>
-      </c>
-      <c r="I17" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" t="s">
-        <v>214</v>
-      </c>
-      <c r="B18" t="s">
-        <v>215</v>
-      </c>
-      <c r="C18" t="s">
-        <v>214</v>
-      </c>
-      <c r="D18">
-        <v>5</v>
-      </c>
-      <c r="E18">
-        <v>17</v>
-      </c>
-      <c r="H18" t="s">
-        <v>215</v>
-      </c>
-      <c r="I18" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" t="s">
-        <v>217</v>
-      </c>
-      <c r="B19" t="s">
-        <v>218</v>
-      </c>
-      <c r="C19" t="s">
-        <v>217</v>
-      </c>
-      <c r="D19">
-        <v>4</v>
-      </c>
-      <c r="E19">
-        <v>17</v>
-      </c>
-      <c r="H19" t="s">
-        <v>218</v>
-      </c>
-      <c r="I19" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" t="s">
-        <v>220</v>
-      </c>
-      <c r="B20" t="s">
-        <v>221</v>
-      </c>
-      <c r="C20" t="s">
-        <v>220</v>
-      </c>
-      <c r="D20">
-        <v>3</v>
-      </c>
-      <c r="E20">
-        <v>17</v>
-      </c>
-      <c r="H20" t="s">
-        <v>221</v>
-      </c>
-      <c r="I20" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" t="s">
-        <v>223</v>
-      </c>
-      <c r="B21" t="s">
-        <v>224</v>
-      </c>
-      <c r="C21" t="s">
-        <v>223</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21">
-        <v>17</v>
-      </c>
-      <c r="H21" t="s">
-        <v>224</v>
-      </c>
-      <c r="I21" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="C22" t="s">
-        <v>226</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22">
-        <v>17</v>
-      </c>
-      <c r="H22" t="s">
-        <v>226</v>
-      </c>
-      <c r="I22" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" t="s">
-        <v>227</v>
-      </c>
-      <c r="B23" t="s">
-        <v>226</v>
-      </c>
-      <c r="C23" t="s">
-        <v>228</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" t="s">
-        <v>229</v>
-      </c>
-      <c r="C24" t="s">
-        <v>230</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="C25" t="s">
-        <v>229</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -10489,574 +10532,415 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2929B48-8E52-4811-B3CB-8F28F30E96B8}">
-  <dimension ref="A1:J77"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ABFBA4B-6F4E-444D-93B2-E23E2D3BEB6D}">
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J22" sqref="H1:J22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" customWidth="1"/>
-    <col min="10" max="10" width="22.28515625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="28" t="s">
-        <v>231</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>232</v>
-      </c>
-      <c r="E1" s="29" t="s">
+    <row r="1" spans="1:5" ht="30.75">
+      <c r="A1" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D2">
+        <v>21</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6">
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D8">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9">
+        <v>14</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D10">
+        <v>13</v>
+      </c>
+      <c r="E10">
         <v>9</v>
       </c>
-      <c r="F1" s="29" t="s">
-        <v>233</v>
-      </c>
-      <c r="I1" s="30" t="s">
-        <v>234</v>
-      </c>
-      <c r="J1" s="30" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="31">
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11" t="s">
+        <v>187</v>
+      </c>
+      <c r="D11">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>174</v>
+      </c>
+      <c r="B12" t="s">
+        <v>189</v>
+      </c>
+      <c r="C12" t="s">
+        <v>174</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>190</v>
+      </c>
+      <c r="B13" t="s">
+        <v>191</v>
+      </c>
+      <c r="C13" t="s">
+        <v>190</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>192</v>
+      </c>
+      <c r="B14" t="s">
+        <v>193</v>
+      </c>
+      <c r="C14" t="s">
+        <v>192</v>
+      </c>
+      <c r="D14">
+        <v>9</v>
+      </c>
+      <c r="E14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B15" t="s">
+        <v>194</v>
+      </c>
+      <c r="C15" t="s">
+        <v>172</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>195</v>
+      </c>
+      <c r="B16" t="s">
+        <v>196</v>
+      </c>
+      <c r="C16" t="s">
+        <v>195</v>
+      </c>
+      <c r="D16">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>197</v>
+      </c>
+      <c r="B17" t="s">
+        <v>198</v>
+      </c>
+      <c r="C17" t="s">
+        <v>197</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>199</v>
+      </c>
+      <c r="B18" t="s">
+        <v>200</v>
+      </c>
+      <c r="C18" t="s">
+        <v>199</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>201</v>
+      </c>
+      <c r="B19" t="s">
+        <v>202</v>
+      </c>
+      <c r="C19" t="s">
+        <v>201</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B20" t="s">
+        <v>204</v>
+      </c>
+      <c r="C20" t="s">
+        <v>203</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>205</v>
+      </c>
+      <c r="B21" t="s">
+        <v>206</v>
+      </c>
+      <c r="C21" t="s">
+        <v>205</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="C22" t="s">
+        <v>207</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>208</v>
+      </c>
+      <c r="B23" t="s">
+        <v>207</v>
+      </c>
+      <c r="C23" t="s">
+        <v>209</v>
+      </c>
+      <c r="D23">
         <v>1</v>
       </c>
-      <c r="B2" s="33">
-        <v>122400000</v>
-      </c>
-      <c r="C2">
-        <f t="shared" ref="C2:C18" si="0">B2*18</f>
-        <v>2203200000</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="33">
-        <v>100000000</v>
-      </c>
-      <c r="I2">
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>210</v>
+      </c>
+      <c r="C24" t="s">
+        <v>211</v>
+      </c>
+      <c r="D24">
         <v>1</v>
       </c>
-      <c r="J2" s="33">
-        <v>540000000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="31">
-        <v>2</v>
-      </c>
-      <c r="B3" s="33">
-        <v>109800000</v>
-      </c>
-      <c r="C3">
-        <f t="shared" si="0"/>
-        <v>1976400000</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="33">
-        <v>300000000</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="J3" s="33">
-        <v>500000000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="31">
-        <v>3</v>
-      </c>
-      <c r="B4" s="33">
-        <v>126360000</v>
-      </c>
-      <c r="C4">
-        <f t="shared" ref="C4:C18" si="1">B4*1.3</f>
-        <v>164268000</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="33">
-        <v>390000000</v>
-      </c>
-      <c r="I4">
-        <v>3</v>
-      </c>
-      <c r="J4" s="33">
-        <v>800000000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="31">
-        <v>4</v>
-      </c>
-      <c r="B5" s="33">
-        <v>109980000</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="1"/>
-        <v>142974000</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="33">
-        <v>180000000</v>
-      </c>
-      <c r="I5">
-        <v>4</v>
-      </c>
-      <c r="J5" s="33">
-        <v>1050000000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="31">
-        <v>5</v>
-      </c>
-      <c r="B6" s="33">
-        <v>93600000</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="1"/>
-        <v>121680000</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="33">
-        <v>270000000</v>
-      </c>
-      <c r="I6">
-        <v>5</v>
-      </c>
-      <c r="J6" s="33">
-        <v>360000000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="31">
-        <v>6</v>
-      </c>
-      <c r="B7" s="33">
-        <v>92280000</v>
-      </c>
-      <c r="C7">
-        <f t="shared" ref="C7:C18" si="2">B7*1.5</f>
-        <v>138420000</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="33">
-        <v>560000000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="31">
-        <v>7</v>
-      </c>
-      <c r="B8" s="33">
-        <v>87220000</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="2"/>
-        <v>130830000</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="33">
-        <v>200000000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="31">
-        <v>8</v>
-      </c>
-      <c r="B9" s="33">
-        <v>86200000</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="2"/>
-        <v>129300000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="31">
-        <v>9</v>
-      </c>
-      <c r="B10" s="33">
-        <v>82505000</v>
-      </c>
-      <c r="C10">
-        <f t="shared" ref="C10:C18" si="3">B10*1.5</f>
-        <v>123757500</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="31">
-        <v>10</v>
-      </c>
-      <c r="B11" s="33">
-        <v>73710000</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="3"/>
-        <v>110565000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="31">
-        <v>11</v>
-      </c>
-      <c r="B12" s="33">
-        <v>47385000</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="3"/>
-        <v>71077500</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="31">
-        <v>12</v>
-      </c>
-      <c r="B13" s="33">
-        <v>36855000</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="3"/>
-        <v>55282500</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="31">
-        <v>13</v>
-      </c>
-      <c r="B14" s="33">
-        <v>23692500</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="3"/>
-        <v>35538750</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="31">
-        <v>14</v>
-      </c>
-      <c r="B15" s="33">
-        <v>18427500</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="3"/>
-        <v>27641250</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="31">
-        <v>15</v>
-      </c>
-      <c r="B16" s="33">
-        <v>13162500</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="3"/>
-        <v>19743750</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="31">
-        <v>16</v>
-      </c>
-      <c r="B17" s="33">
-        <v>7897500</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="3"/>
-        <v>11846250</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="31">
-        <v>17</v>
-      </c>
-      <c r="B18" s="33">
-        <v>1579500</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="3"/>
-        <v>2369250</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="E22" s="34"/>
-      <c r="G22" s="33"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="E23" s="34"/>
-      <c r="G23" s="33"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="E24" s="34"/>
-      <c r="G24" s="33"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="E25" s="34"/>
-      <c r="G25" s="33"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="34"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="30"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="D27" s="33"/>
-      <c r="E27" s="34"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="D28" s="33"/>
-      <c r="E28" s="34"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="D29" s="33"/>
-      <c r="E29" s="34"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="D30" s="33"/>
-      <c r="E30" s="34"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="D31" s="33"/>
-      <c r="E31" s="34"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="D32" s="33"/>
-      <c r="E32" s="34"/>
-      <c r="G32" s="33"/>
-    </row>
-    <row r="33" spans="4:7">
-      <c r="D33" s="33"/>
-      <c r="E33" s="34"/>
-      <c r="G33" s="33"/>
-    </row>
-    <row r="34" spans="4:7">
-      <c r="D34" s="33"/>
-      <c r="E34" s="34"/>
-      <c r="G34" s="33"/>
-    </row>
-    <row r="35" spans="4:7">
-      <c r="D35" s="33"/>
-      <c r="E35" s="34"/>
-      <c r="G35" s="33"/>
-    </row>
-    <row r="36" spans="4:7">
-      <c r="D36" s="33"/>
-      <c r="E36" s="34"/>
-      <c r="G36" s="33"/>
-    </row>
-    <row r="37" spans="4:7">
-      <c r="D37" s="33"/>
-      <c r="E37" s="34"/>
-      <c r="G37" s="33"/>
-    </row>
-    <row r="38" spans="4:7">
-      <c r="D38" s="33"/>
-      <c r="E38" s="34"/>
-      <c r="G38" s="33"/>
-    </row>
-    <row r="39" spans="4:7">
-      <c r="D39" s="33"/>
-      <c r="E39" s="34"/>
-      <c r="G39" s="33"/>
-    </row>
-    <row r="40" spans="4:7">
-      <c r="D40" s="33"/>
-      <c r="E40" s="34"/>
-      <c r="G40" s="33"/>
-    </row>
-    <row r="41" spans="4:7">
-      <c r="D41" s="33"/>
-      <c r="E41" s="34"/>
-      <c r="G41" s="33"/>
-    </row>
-    <row r="42" spans="4:7">
-      <c r="D42" s="33"/>
-      <c r="E42" s="34"/>
-      <c r="G42" s="33"/>
-    </row>
-    <row r="43" spans="4:7">
-      <c r="D43" s="33"/>
-      <c r="E43" s="34"/>
-      <c r="G43" s="33"/>
-    </row>
-    <row r="44" spans="4:7">
-      <c r="E44" s="34"/>
-      <c r="G44" s="33"/>
-    </row>
-    <row r="45" spans="4:7">
-      <c r="E45" s="34"/>
-      <c r="G45" s="33"/>
-    </row>
-    <row r="46" spans="4:7">
-      <c r="E46" s="34"/>
-      <c r="G46" s="33"/>
-    </row>
-    <row r="47" spans="4:7">
-      <c r="E47" s="34"/>
-      <c r="G47" s="33"/>
-    </row>
-    <row r="48" spans="4:7">
-      <c r="E48" s="34"/>
-      <c r="G48" s="33"/>
-    </row>
-    <row r="49" spans="5:7">
-      <c r="E49" s="34"/>
-      <c r="G49" s="33"/>
-    </row>
-    <row r="50" spans="5:7">
-      <c r="E50" s="34"/>
-      <c r="G50" s="33"/>
-    </row>
-    <row r="51" spans="5:7">
-      <c r="E51" s="34"/>
-      <c r="G51" s="33"/>
-    </row>
-    <row r="52" spans="5:7">
-      <c r="E52" s="34"/>
-      <c r="G52" s="33"/>
-    </row>
-    <row r="53" spans="5:7">
-      <c r="E53" s="34"/>
-      <c r="G53" s="33"/>
-    </row>
-    <row r="54" spans="5:7">
-      <c r="E54" s="34"/>
-      <c r="G54" s="33"/>
-    </row>
-    <row r="55" spans="5:7">
-      <c r="E55" s="34"/>
-      <c r="G55" s="33"/>
-    </row>
-    <row r="56" spans="5:7">
-      <c r="E56" s="34"/>
-      <c r="G56" s="33"/>
-    </row>
-    <row r="57" spans="5:7">
-      <c r="E57" s="34"/>
-      <c r="G57" s="33"/>
-    </row>
-    <row r="58" spans="5:7">
-      <c r="E58" s="34"/>
-      <c r="G58" s="33"/>
-    </row>
-    <row r="59" spans="5:7">
-      <c r="E59" s="34"/>
-      <c r="G59" s="33"/>
-    </row>
-    <row r="60" spans="5:7">
-      <c r="E60" s="34"/>
-      <c r="G60" s="33"/>
-    </row>
-    <row r="61" spans="5:7">
-      <c r="E61" s="34"/>
-      <c r="G61" s="33"/>
-    </row>
-    <row r="62" spans="5:7">
-      <c r="E62" s="34"/>
-      <c r="G62" s="33"/>
-    </row>
-    <row r="63" spans="5:7">
-      <c r="E63" s="34"/>
-      <c r="G63" s="33"/>
-    </row>
-    <row r="64" spans="5:7">
-      <c r="E64" s="34"/>
-      <c r="G64" s="33"/>
-    </row>
-    <row r="65" spans="5:7">
-      <c r="E65" s="34"/>
-      <c r="G65" s="33"/>
-    </row>
-    <row r="66" spans="5:7">
-      <c r="E66" s="34"/>
-      <c r="G66" s="33"/>
-    </row>
-    <row r="67" spans="5:7">
-      <c r="E67" s="34"/>
-      <c r="G67" s="33"/>
-    </row>
-    <row r="68" spans="5:7">
-      <c r="E68" s="34"/>
-      <c r="G68" s="33"/>
-    </row>
-    <row r="69" spans="5:7">
-      <c r="E69" s="34"/>
-      <c r="G69" s="33"/>
-    </row>
-    <row r="70" spans="5:7">
-      <c r="E70" s="34"/>
-      <c r="G70" s="33"/>
-    </row>
-    <row r="71" spans="5:7">
-      <c r="E71" s="34"/>
-      <c r="G71" s="33"/>
-    </row>
-    <row r="72" spans="5:7">
-      <c r="E72" s="34"/>
-      <c r="G72" s="33"/>
-    </row>
-    <row r="73" spans="5:7">
-      <c r="E73" s="34"/>
-      <c r="G73" s="33"/>
-    </row>
-    <row r="74" spans="5:7">
-      <c r="E74" s="34"/>
-      <c r="G74" s="33"/>
-    </row>
-    <row r="75" spans="5:7">
-      <c r="E75" s="34"/>
-      <c r="G75" s="33"/>
-    </row>
-    <row r="76" spans="5:7">
-      <c r="E76" s="34"/>
-      <c r="G76" s="33"/>
-    </row>
-    <row r="77" spans="5:7">
-      <c r="E77" s="34"/>
-      <c r="G77" s="33"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="C25" t="s">
+        <v>210</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11064,13 +10948,253 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2FE4088-AF22-41A1-89D6-9412CB39B032}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08AD1B01-27ED-4CFC-B96A-D83D93EF5B99}">
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="30.75">
+      <c r="A1" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2.3199999999999998E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>5.1799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>0.11119999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>0.20799999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>0.37959999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>0.59399999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>0.91300000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>2.6179999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>189</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>4.62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>191</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>7.48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>193</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>10.769</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>15.234999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>196</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>19.942</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>198</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>26.443999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>200</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>35.726799999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>202</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>48.268000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>204</v>
+      </c>
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="C20">
+        <v>72.866200000000006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>206</v>
+      </c>
+      <c r="B21">
+        <v>17</v>
+      </c>
+      <c r="C21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>207</v>
+      </c>
+      <c r="C22">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Sample_Bank_Data/MAR 2024.xlsx
+++ b/Sample_Bank_Data/MAR 2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28922"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91636\Downloads\data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{935129A4-0610-448D-A2D1-F9D6BF2E1EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F58DBB71-A203-4E7C-834B-CDA6FA46BE78}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{935129A4-0610-448D-A2D1-F9D6BF2E1EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0060B8A2-DA31-42D4-A491-96831C9C1A1D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collateral Types" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="309">
   <si>
     <t>Collateral Types</t>
   </si>
@@ -520,370 +520,115 @@
     <t>Shares6</t>
   </si>
   <si>
+    <t>Land6</t>
+  </si>
+  <si>
+    <t>Risk Free Assest2</t>
+  </si>
+  <si>
+    <t>Gold4</t>
+  </si>
+  <si>
+    <t>Others4</t>
+  </si>
+  <si>
+    <t>Land7</t>
+  </si>
+  <si>
+    <t>Land8</t>
+  </si>
+  <si>
+    <t>Shares7</t>
+  </si>
+  <si>
+    <t>Shares9</t>
+  </si>
+  <si>
+    <t>Others5</t>
+  </si>
+  <si>
+    <t>Others6</t>
+  </si>
+  <si>
+    <t>Building7</t>
+  </si>
+  <si>
+    <t>Land9</t>
+  </si>
+  <si>
+    <t>Cash3</t>
+  </si>
+  <si>
+    <t>Risk Free Assest3</t>
+  </si>
+  <si>
+    <t>Others7</t>
+  </si>
+  <si>
+    <t>Cash4</t>
+  </si>
+  <si>
+    <t>Risk Free Assest4</t>
+  </si>
+  <si>
+    <t>Others8</t>
+  </si>
+  <si>
+    <t>Others9</t>
+  </si>
+  <si>
+    <t>Building8</t>
+  </si>
+  <si>
+    <t>Building9</t>
+  </si>
+  <si>
+    <t>Cash5</t>
+  </si>
+  <si>
+    <t>Gold5</t>
+  </si>
+  <si>
+    <t>Gold6</t>
+  </si>
+  <si>
+    <t>Risk Free Assest5</t>
+  </si>
+  <si>
+    <t>Shares8</t>
+  </si>
+  <si>
+    <t>Cash6</t>
+  </si>
+  <si>
+    <t>Gold7</t>
+  </si>
+  <si>
+    <t>Risk Free Assest6</t>
+  </si>
+  <si>
+    <t>Risk Free Assest7</t>
+  </si>
+  <si>
+    <t>Risk Free Assest8</t>
+  </si>
+  <si>
+    <t>Risk Free Assest9</t>
+  </si>
+  <si>
+    <t>Cash7</t>
+  </si>
+  <si>
+    <t>Shares10</t>
+  </si>
+  <si>
+    <t>Shares11</t>
+  </si>
+  <si>
+    <t>Shares12</t>
+  </si>
+  <si>
     <t>Building6</t>
-  </si>
-  <si>
-    <t>Land6</t>
-  </si>
-  <si>
-    <t>Risk Free Assest2</t>
-  </si>
-  <si>
-    <t>Gold4</t>
-  </si>
-  <si>
-    <t>Others4</t>
-  </si>
-  <si>
-    <t>Land7</t>
-  </si>
-  <si>
-    <t>Land8</t>
-  </si>
-  <si>
-    <t>Shares7</t>
-  </si>
-  <si>
-    <t>Shares8</t>
-  </si>
-  <si>
-    <t>Others5</t>
-  </si>
-  <si>
-    <t>Shares9</t>
-  </si>
-  <si>
-    <t>Shares10</t>
-  </si>
-  <si>
-    <t>Others6</t>
-  </si>
-  <si>
-    <t>Building7</t>
-  </si>
-  <si>
-    <t>Land9</t>
-  </si>
-  <si>
-    <t>Cash3</t>
-  </si>
-  <si>
-    <t>Risk Free Assest3</t>
-  </si>
-  <si>
-    <t>Others7</t>
-  </si>
-  <si>
-    <t>Cash4</t>
-  </si>
-  <si>
-    <t>Risk Free Assest4</t>
-  </si>
-  <si>
-    <t>Others8</t>
-  </si>
-  <si>
-    <t>Land10</t>
-  </si>
-  <si>
-    <t>Land11</t>
-  </si>
-  <si>
-    <t>Others9</t>
-  </si>
-  <si>
-    <t>Shares11</t>
-  </si>
-  <si>
-    <t>Shares12</t>
-  </si>
-  <si>
-    <t>Others10</t>
-  </si>
-  <si>
-    <t>Land12</t>
-  </si>
-  <si>
-    <t>Building8</t>
-  </si>
-  <si>
-    <t>Others11</t>
-  </si>
-  <si>
-    <t>Shares13</t>
-  </si>
-  <si>
-    <t>Shares14</t>
-  </si>
-  <si>
-    <t>Others12</t>
-  </si>
-  <si>
-    <t>Building9</t>
-  </si>
-  <si>
-    <t>Building10</t>
-  </si>
-  <si>
-    <t>Others13</t>
-  </si>
-  <si>
-    <t>Cash5</t>
-  </si>
-  <si>
-    <t>Gold5</t>
-  </si>
-  <si>
-    <t>Others14</t>
-  </si>
-  <si>
-    <t>Shares15</t>
-  </si>
-  <si>
-    <t>Shares16</t>
-  </si>
-  <si>
-    <t>Others15</t>
-  </si>
-  <si>
-    <t>Building11</t>
-  </si>
-  <si>
-    <t>Building12</t>
-  </si>
-  <si>
-    <t>Shares17</t>
-  </si>
-  <si>
-    <t>Shares18</t>
-  </si>
-  <si>
-    <t>Others16</t>
-  </si>
-  <si>
-    <t>Others17</t>
-  </si>
-  <si>
-    <t>Others18</t>
-  </si>
-  <si>
-    <t>Land13</t>
-  </si>
-  <si>
-    <t>Building13</t>
-  </si>
-  <si>
-    <t>Gold6</t>
-  </si>
-  <si>
-    <t>Risk Free Assest5</t>
-  </si>
-  <si>
-    <t>Others19</t>
-  </si>
-  <si>
-    <t>Building14</t>
-  </si>
-  <si>
-    <t>Land14</t>
-  </si>
-  <si>
-    <t>Shares19</t>
-  </si>
-  <si>
-    <t>Shares20</t>
-  </si>
-  <si>
-    <t>Others20</t>
-  </si>
-  <si>
-    <t>Others21</t>
-  </si>
-  <si>
-    <t>Cash6</t>
-  </si>
-  <si>
-    <t>Gold7</t>
-  </si>
-  <si>
-    <t>Shares21</t>
-  </si>
-  <si>
-    <t>Shares22</t>
-  </si>
-  <si>
-    <t>Others22</t>
-  </si>
-  <si>
-    <t>Land15</t>
-  </si>
-  <si>
-    <t>Building15</t>
-  </si>
-  <si>
-    <t>Risk Free Assest6</t>
-  </si>
-  <si>
-    <t>Risk Free Assest7</t>
-  </si>
-  <si>
-    <t>Others23</t>
-  </si>
-  <si>
-    <t>Shares23</t>
-  </si>
-  <si>
-    <t>Shares24</t>
-  </si>
-  <si>
-    <t>Others24</t>
-  </si>
-  <si>
-    <t>Gold8</t>
-  </si>
-  <si>
-    <t>Risk Free Assest8</t>
-  </si>
-  <si>
-    <t>Others25</t>
-  </si>
-  <si>
-    <t>Risk Free Assest9</t>
-  </si>
-  <si>
-    <t>Risk Free Assest10</t>
-  </si>
-  <si>
-    <t>Shares25</t>
-  </si>
-  <si>
-    <t>Shares26</t>
-  </si>
-  <si>
-    <t>Others26</t>
-  </si>
-  <si>
-    <t>Land16</t>
-  </si>
-  <si>
-    <t>Building16</t>
-  </si>
-  <si>
-    <t>Land17</t>
-  </si>
-  <si>
-    <t>Building17</t>
-  </si>
-  <si>
-    <t>Shares27</t>
-  </si>
-  <si>
-    <t>Shares28</t>
-  </si>
-  <si>
-    <t>Others27</t>
-  </si>
-  <si>
-    <t>Building18</t>
-  </si>
-  <si>
-    <t>Building19</t>
-  </si>
-  <si>
-    <t>Cash7</t>
-  </si>
-  <si>
-    <t>Risk Free Assest11</t>
-  </si>
-  <si>
-    <t>Building20</t>
-  </si>
-  <si>
-    <t>Building21</t>
-  </si>
-  <si>
-    <t>Cash8</t>
-  </si>
-  <si>
-    <t>Risk Free Assest12</t>
-  </si>
-  <si>
-    <t>Shares29</t>
-  </si>
-  <si>
-    <t>Shares30</t>
-  </si>
-  <si>
-    <t>Building22</t>
-  </si>
-  <si>
-    <t>Building23</t>
-  </si>
-  <si>
-    <t>Others28</t>
-  </si>
-  <si>
-    <t>Building24</t>
-  </si>
-  <si>
-    <t>Land18</t>
-  </si>
-  <si>
-    <t>Cash9</t>
-  </si>
-  <si>
-    <t>Gold9</t>
-  </si>
-  <si>
-    <t>Shares31</t>
-  </si>
-  <si>
-    <t>Shares32</t>
-  </si>
-  <si>
-    <t>Others29</t>
-  </si>
-  <si>
-    <t>Cash10</t>
-  </si>
-  <si>
-    <t>Risk Free Assest13</t>
-  </si>
-  <si>
-    <t>Others30</t>
-  </si>
-  <si>
-    <t>Building25</t>
-  </si>
-  <si>
-    <t>Land19</t>
-  </si>
-  <si>
-    <t>Shares33</t>
-  </si>
-  <si>
-    <t>Shares34</t>
-  </si>
-  <si>
-    <t>Shares35</t>
-  </si>
-  <si>
-    <t>Shares36</t>
-  </si>
-  <si>
-    <t>Others31</t>
-  </si>
-  <si>
-    <t>Building26</t>
-  </si>
-  <si>
-    <t>Land20</t>
-  </si>
-  <si>
-    <t>Gold10</t>
-  </si>
-  <si>
-    <t>Risk Free Assest14</t>
   </si>
   <si>
     <t>Provision Stages</t>
@@ -1942,21 +1687,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30.75" customHeight="1">
       <c r="A1" s="34" t="s">
-        <v>351</v>
+        <v>266</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>354</v>
+        <v>269</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>387</v>
+        <v>302</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>388</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>356</v>
+        <v>271</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1970,7 +1715,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>358</v>
+        <v>273</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1984,7 +1729,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>359</v>
+        <v>274</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -1998,7 +1743,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>339</v>
+        <v>254</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -2012,7 +1757,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>340</v>
+        <v>255</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -2026,7 +1771,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>337</v>
+        <v>252</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -2040,7 +1785,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -2054,7 +1799,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>360</v>
+        <v>275</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -2068,7 +1813,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>361</v>
+        <v>276</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -2082,7 +1827,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>363</v>
+        <v>278</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -2096,7 +1841,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>364</v>
+        <v>279</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -2110,7 +1855,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>366</v>
+        <v>281</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -2124,7 +1869,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>368</v>
+        <v>283</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -2138,7 +1883,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>369</v>
+        <v>284</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -2152,7 +1897,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>371</v>
+        <v>286</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -2166,7 +1911,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>373</v>
+        <v>288</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -2180,7 +1925,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>375</v>
+        <v>290</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -2194,7 +1939,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>377</v>
+        <v>292</v>
       </c>
       <c r="B19">
         <v>17</v>
@@ -2208,7 +1953,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>379</v>
+        <v>294</v>
       </c>
       <c r="B20">
         <v>17</v>
@@ -2222,7 +1967,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>381</v>
+        <v>296</v>
       </c>
       <c r="B21">
         <v>17</v>
@@ -2236,7 +1981,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>382</v>
+        <v>297</v>
       </c>
       <c r="C22">
         <v>100</v>
@@ -2272,22 +2017,22 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="17" t="s">
-        <v>389</v>
+        <v>304</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>390</v>
+        <v>305</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>28</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>391</v>
+        <v>306</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>392</v>
+        <v>307</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>393</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -8883,8 +8628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:J148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A148"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="I127" sqref="I127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9747,7 +9492,7 @@
         <v>125</v>
       </c>
       <c r="I27" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="J27">
         <v>2</v>
@@ -9779,7 +9524,7 @@
         <v>125</v>
       </c>
       <c r="I28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J28">
         <v>5</v>
@@ -9811,7 +9556,7 @@
         <v>133</v>
       </c>
       <c r="I29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J29">
         <v>5</v>
@@ -9843,7 +9588,7 @@
         <v>133</v>
       </c>
       <c r="I30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J30">
         <v>2</v>
@@ -9875,7 +9620,7 @@
         <v>128</v>
       </c>
       <c r="I31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J31">
         <v>3</v>
@@ -9907,7 +9652,7 @@
         <v>125</v>
       </c>
       <c r="I32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J32">
         <v>5</v>
@@ -9939,7 +9684,7 @@
         <v>125</v>
       </c>
       <c r="I33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J33">
         <v>2</v>
@@ -9971,7 +9716,7 @@
         <v>140</v>
       </c>
       <c r="I34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J34">
         <v>2</v>
@@ -10003,7 +9748,7 @@
         <v>140</v>
       </c>
       <c r="I35" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J35">
         <v>2</v>
@@ -10035,7 +9780,7 @@
         <v>128</v>
       </c>
       <c r="I36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J36">
         <v>4</v>
@@ -10067,7 +9812,7 @@
         <v>140</v>
       </c>
       <c r="I37" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J37">
         <v>2</v>
@@ -10099,7 +9844,7 @@
         <v>140</v>
       </c>
       <c r="I38" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="J38">
         <v>2</v>
@@ -10131,7 +9876,7 @@
         <v>128</v>
       </c>
       <c r="I39" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J39">
         <v>5</v>
@@ -10163,7 +9908,7 @@
         <v>125</v>
       </c>
       <c r="I40" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J40">
         <v>4</v>
@@ -10195,7 +9940,7 @@
         <v>125</v>
       </c>
       <c r="I41" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J41">
         <v>4</v>
@@ -10227,7 +9972,7 @@
         <v>133</v>
       </c>
       <c r="I42" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J42">
         <v>5</v>
@@ -10259,7 +10004,7 @@
         <v>133</v>
       </c>
       <c r="I43" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J43">
         <v>3</v>
@@ -10291,7 +10036,7 @@
         <v>128</v>
       </c>
       <c r="I44" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J44">
         <v>5</v>
@@ -10323,7 +10068,7 @@
         <v>133</v>
       </c>
       <c r="I45" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J45">
         <v>2</v>
@@ -10355,7 +10100,7 @@
         <v>133</v>
       </c>
       <c r="I46" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J46">
         <v>4</v>
@@ -10387,7 +10132,7 @@
         <v>128</v>
       </c>
       <c r="I47" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J47">
         <v>3</v>
@@ -10419,7 +10164,7 @@
         <v>125</v>
       </c>
       <c r="I48" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="J48">
         <v>4</v>
@@ -10451,7 +10196,7 @@
         <v>125</v>
       </c>
       <c r="I49" t="s">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="J49">
         <v>4</v>
@@ -10483,7 +10228,7 @@
         <v>128</v>
       </c>
       <c r="I50" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="J50">
         <v>2</v>
@@ -10515,7 +10260,7 @@
         <v>140</v>
       </c>
       <c r="I51" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="J51">
         <v>2</v>
@@ -10547,7 +10292,7 @@
         <v>140</v>
       </c>
       <c r="I52" t="s">
-        <v>181</v>
+        <v>143</v>
       </c>
       <c r="J52">
         <v>3</v>
@@ -10579,7 +10324,7 @@
         <v>128</v>
       </c>
       <c r="I53" t="s">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="J53">
         <v>2</v>
@@ -10611,7 +10356,7 @@
         <v>125</v>
       </c>
       <c r="I54" t="s">
-        <v>183</v>
+        <v>130</v>
       </c>
       <c r="J54">
         <v>2</v>
@@ -10643,7 +10388,7 @@
         <v>125</v>
       </c>
       <c r="I55" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="J55">
         <v>5</v>
@@ -10675,7 +10420,7 @@
         <v>128</v>
       </c>
       <c r="I56" t="s">
-        <v>185</v>
+        <v>136</v>
       </c>
       <c r="J56">
         <v>3</v>
@@ -10707,7 +10452,7 @@
         <v>140</v>
       </c>
       <c r="I57" t="s">
-        <v>186</v>
+        <v>144</v>
       </c>
       <c r="J57">
         <v>3</v>
@@ -10739,7 +10484,7 @@
         <v>140</v>
       </c>
       <c r="I58" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="J58">
         <v>2</v>
@@ -10771,7 +10516,7 @@
         <v>128</v>
       </c>
       <c r="I59" t="s">
-        <v>188</v>
+        <v>145</v>
       </c>
       <c r="J59">
         <v>4</v>
@@ -10803,7 +10548,7 @@
         <v>125</v>
       </c>
       <c r="I60" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="J60">
         <v>5</v>
@@ -10835,7 +10580,7 @@
         <v>125</v>
       </c>
       <c r="I61" t="s">
-        <v>190</v>
+        <v>126</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -10867,7 +10612,7 @@
         <v>128</v>
       </c>
       <c r="I62" t="s">
-        <v>191</v>
+        <v>159</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -10899,7 +10644,7 @@
         <v>133</v>
       </c>
       <c r="I63" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="J63">
         <v>2</v>
@@ -10931,7 +10676,7 @@
         <v>133</v>
       </c>
       <c r="I64" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="J64">
         <v>2</v>
@@ -10963,7 +10708,7 @@
         <v>128</v>
       </c>
       <c r="I65" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="J65">
         <v>2</v>
@@ -10995,7 +10740,7 @@
         <v>140</v>
       </c>
       <c r="I66" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="J66">
         <v>5</v>
@@ -11027,7 +10772,7 @@
         <v>140</v>
       </c>
       <c r="I67" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
       <c r="J67">
         <v>4</v>
@@ -11059,7 +10804,7 @@
         <v>128</v>
       </c>
       <c r="I68" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="J68">
         <v>2</v>
@@ -11091,7 +10836,7 @@
         <v>125</v>
       </c>
       <c r="I69" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="J69">
         <v>4</v>
@@ -11123,7 +10868,7 @@
         <v>125</v>
       </c>
       <c r="I70" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="J70">
         <v>2</v>
@@ -11155,7 +10900,7 @@
         <v>140</v>
       </c>
       <c r="I71" t="s">
-        <v>200</v>
+        <v>142</v>
       </c>
       <c r="J71">
         <v>2</v>
@@ -11187,7 +10932,7 @@
         <v>140</v>
       </c>
       <c r="I72" t="s">
-        <v>201</v>
+        <v>162</v>
       </c>
       <c r="J72">
         <v>2</v>
@@ -11219,7 +10964,7 @@
         <v>128</v>
       </c>
       <c r="I73" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="J73">
         <v>4</v>
@@ -11251,7 +10996,7 @@
         <v>128</v>
       </c>
       <c r="I74" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="J74">
         <v>5</v>
@@ -11283,7 +11028,7 @@
         <v>128</v>
       </c>
       <c r="I75" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="J75">
         <v>5</v>
@@ -11315,7 +11060,7 @@
         <v>125</v>
       </c>
       <c r="I76" t="s">
-        <v>205</v>
+        <v>127</v>
       </c>
       <c r="J76">
         <v>3</v>
@@ -11347,7 +11092,7 @@
         <v>125</v>
       </c>
       <c r="I77" t="s">
-        <v>206</v>
+        <v>138</v>
       </c>
       <c r="J77">
         <v>1</v>
@@ -11379,7 +11124,7 @@
         <v>133</v>
       </c>
       <c r="I78" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="J78">
         <v>1</v>
@@ -11411,7 +11156,7 @@
         <v>133</v>
       </c>
       <c r="I79" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="J79">
         <v>5</v>
@@ -11443,7 +11188,7 @@
         <v>128</v>
       </c>
       <c r="I80" t="s">
-        <v>209</v>
+        <v>174</v>
       </c>
       <c r="J80">
         <v>1</v>
@@ -11475,7 +11220,7 @@
         <v>125</v>
       </c>
       <c r="I81" t="s">
-        <v>210</v>
+        <v>137</v>
       </c>
       <c r="J81">
         <v>2</v>
@@ -11507,7 +11252,7 @@
         <v>125</v>
       </c>
       <c r="I82" t="s">
-        <v>211</v>
+        <v>156</v>
       </c>
       <c r="J82">
         <v>3</v>
@@ -11539,7 +11284,7 @@
         <v>140</v>
       </c>
       <c r="I83" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="J83">
         <v>1</v>
@@ -11571,7 +11316,7 @@
         <v>140</v>
       </c>
       <c r="I84" t="s">
-        <v>213</v>
+        <v>144</v>
       </c>
       <c r="J84">
         <v>5</v>
@@ -11603,7 +11348,7 @@
         <v>128</v>
       </c>
       <c r="I85" t="s">
-        <v>214</v>
+        <v>170</v>
       </c>
       <c r="J85">
         <v>4</v>
@@ -11635,7 +11380,7 @@
         <v>128</v>
       </c>
       <c r="I86" t="s">
-        <v>215</v>
+        <v>145</v>
       </c>
       <c r="J86">
         <v>3</v>
@@ -11667,7 +11412,7 @@
         <v>133</v>
       </c>
       <c r="I87" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="J87">
         <v>4</v>
@@ -11699,7 +11444,7 @@
         <v>133</v>
       </c>
       <c r="I88" t="s">
-        <v>217</v>
+        <v>183</v>
       </c>
       <c r="J88">
         <v>3</v>
@@ -11731,7 +11476,7 @@
         <v>140</v>
       </c>
       <c r="I89" t="s">
-        <v>218</v>
+        <v>143</v>
       </c>
       <c r="J89">
         <v>2</v>
@@ -11763,7 +11508,7 @@
         <v>140</v>
       </c>
       <c r="I90" t="s">
-        <v>219</v>
+        <v>163</v>
       </c>
       <c r="J90">
         <v>5</v>
@@ -11795,7 +11540,7 @@
         <v>128</v>
       </c>
       <c r="I91" t="s">
-        <v>220</v>
+        <v>174</v>
       </c>
       <c r="J91">
         <v>2</v>
@@ -11827,7 +11572,7 @@
         <v>125</v>
       </c>
       <c r="I92" t="s">
-        <v>221</v>
+        <v>156</v>
       </c>
       <c r="J92">
         <v>3</v>
@@ -11859,7 +11604,7 @@
         <v>125</v>
       </c>
       <c r="I93" t="s">
-        <v>222</v>
+        <v>175</v>
       </c>
       <c r="J93">
         <v>4</v>
@@ -11891,7 +11636,7 @@
         <v>133</v>
       </c>
       <c r="I94" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="J94">
         <v>5</v>
@@ -11923,7 +11668,7 @@
         <v>133</v>
       </c>
       <c r="I95" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="J95">
         <v>1</v>
@@ -11955,7 +11700,7 @@
         <v>128</v>
       </c>
       <c r="I96" t="s">
-        <v>225</v>
+        <v>164</v>
       </c>
       <c r="J96">
         <v>5</v>
@@ -11987,7 +11732,7 @@
         <v>140</v>
       </c>
       <c r="I97" t="s">
-        <v>226</v>
+        <v>142</v>
       </c>
       <c r="J97">
         <v>2</v>
@@ -12019,7 +11764,7 @@
         <v>140</v>
       </c>
       <c r="I98" t="s">
-        <v>227</v>
+        <v>155</v>
       </c>
       <c r="J98">
         <v>2</v>
@@ -12051,7 +11796,7 @@
         <v>128</v>
       </c>
       <c r="I99" t="s">
-        <v>228</v>
+        <v>164</v>
       </c>
       <c r="J99">
         <v>3</v>
@@ -12083,7 +11828,7 @@
         <v>133</v>
       </c>
       <c r="I100" t="s">
-        <v>229</v>
+        <v>148</v>
       </c>
       <c r="J100">
         <v>2</v>
@@ -12115,7 +11860,7 @@
         <v>133</v>
       </c>
       <c r="I101" t="s">
-        <v>230</v>
+        <v>186</v>
       </c>
       <c r="J101">
         <v>3</v>
@@ -12147,7 +11892,7 @@
         <v>128</v>
       </c>
       <c r="I102" t="s">
-        <v>231</v>
+        <v>129</v>
       </c>
       <c r="J102">
         <v>4</v>
@@ -12179,7 +11924,7 @@
         <v>133</v>
       </c>
       <c r="I103" t="s">
-        <v>232</v>
+        <v>187</v>
       </c>
       <c r="J103">
         <v>3</v>
@@ -12211,7 +11956,7 @@
         <v>133</v>
       </c>
       <c r="I104" t="s">
-        <v>233</v>
+        <v>152</v>
       </c>
       <c r="J104">
         <v>3</v>
@@ -12243,7 +11988,7 @@
         <v>140</v>
       </c>
       <c r="I105" t="s">
-        <v>234</v>
+        <v>154</v>
       </c>
       <c r="J105">
         <v>1</v>
@@ -12275,7 +12020,7 @@
         <v>140</v>
       </c>
       <c r="I106" t="s">
-        <v>235</v>
+        <v>162</v>
       </c>
       <c r="J106">
         <v>4</v>
@@ -12307,7 +12052,7 @@
         <v>128</v>
       </c>
       <c r="I107" t="s">
-        <v>236</v>
+        <v>164</v>
       </c>
       <c r="J107">
         <v>5</v>
@@ -12339,7 +12084,7 @@
         <v>125</v>
       </c>
       <c r="I108" t="s">
-        <v>237</v>
+        <v>150</v>
       </c>
       <c r="J108">
         <v>1</v>
@@ -12371,7 +12116,7 @@
         <v>125</v>
       </c>
       <c r="I109" t="s">
-        <v>238</v>
+        <v>146</v>
       </c>
       <c r="J109">
         <v>5</v>
@@ -12403,7 +12148,7 @@
         <v>125</v>
       </c>
       <c r="I110" t="s">
-        <v>239</v>
+        <v>147</v>
       </c>
       <c r="J110">
         <v>3</v>
@@ -12435,7 +12180,7 @@
         <v>125</v>
       </c>
       <c r="I111" t="s">
-        <v>240</v>
+        <v>137</v>
       </c>
       <c r="J111">
         <v>1</v>
@@ -12467,7 +12212,7 @@
         <v>140</v>
       </c>
       <c r="I112" t="s">
-        <v>241</v>
+        <v>144</v>
       </c>
       <c r="J112">
         <v>4</v>
@@ -12499,7 +12244,7 @@
         <v>140</v>
       </c>
       <c r="I113" t="s">
-        <v>242</v>
+        <v>143</v>
       </c>
       <c r="J113">
         <v>3</v>
@@ -12531,7 +12276,7 @@
         <v>128</v>
       </c>
       <c r="I114" t="s">
-        <v>243</v>
+        <v>159</v>
       </c>
       <c r="J114">
         <v>2</v>
@@ -12563,7 +12308,7 @@
         <v>125</v>
       </c>
       <c r="I115" t="s">
-        <v>244</v>
+        <v>138</v>
       </c>
       <c r="J115">
         <v>1</v>
@@ -12595,7 +12340,7 @@
         <v>125</v>
       </c>
       <c r="I116" t="s">
-        <v>245</v>
+        <v>131</v>
       </c>
       <c r="J116">
         <v>4</v>
@@ -12627,7 +12372,7 @@
         <v>133</v>
       </c>
       <c r="I117" t="s">
-        <v>246</v>
+        <v>188</v>
       </c>
       <c r="J117">
         <v>1</v>
@@ -12659,7 +12404,7 @@
         <v>133</v>
       </c>
       <c r="I118" t="s">
-        <v>247</v>
+        <v>157</v>
       </c>
       <c r="J118">
         <v>4</v>
@@ -12691,7 +12436,7 @@
         <v>125</v>
       </c>
       <c r="I119" t="s">
-        <v>248</v>
+        <v>146</v>
       </c>
       <c r="J119">
         <v>1</v>
@@ -12723,7 +12468,7 @@
         <v>125</v>
       </c>
       <c r="I120" t="s">
-        <v>249</v>
+        <v>126</v>
       </c>
       <c r="J120">
         <v>5</v>
@@ -12755,7 +12500,7 @@
         <v>133</v>
       </c>
       <c r="I121" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="J121">
         <v>3</v>
@@ -12787,7 +12532,7 @@
         <v>133</v>
       </c>
       <c r="I122" t="s">
-        <v>251</v>
+        <v>157</v>
       </c>
       <c r="J122">
         <v>3</v>
@@ -12819,7 +12564,7 @@
         <v>140</v>
       </c>
       <c r="I123" t="s">
-        <v>252</v>
+        <v>142</v>
       </c>
       <c r="J123">
         <v>3</v>
@@ -12851,7 +12596,7 @@
         <v>140</v>
       </c>
       <c r="I124" t="s">
-        <v>253</v>
+        <v>189</v>
       </c>
       <c r="J124">
         <v>5</v>
@@ -12883,7 +12628,7 @@
         <v>125</v>
       </c>
       <c r="I125" t="s">
-        <v>254</v>
+        <v>176</v>
       </c>
       <c r="J125">
         <v>4</v>
@@ -12915,7 +12660,7 @@
         <v>125</v>
       </c>
       <c r="I126" t="s">
-        <v>255</v>
+        <v>166</v>
       </c>
       <c r="J126">
         <v>4</v>
@@ -12947,7 +12692,7 @@
         <v>128</v>
       </c>
       <c r="I127" t="s">
-        <v>256</v>
+        <v>174</v>
       </c>
       <c r="J127">
         <v>1</v>
@@ -12979,7 +12724,7 @@
         <v>125</v>
       </c>
       <c r="I128" t="s">
-        <v>257</v>
+        <v>175</v>
       </c>
       <c r="J128">
         <v>2</v>
@@ -13011,7 +12756,7 @@
         <v>125</v>
       </c>
       <c r="I129" t="s">
-        <v>258</v>
+        <v>151</v>
       </c>
       <c r="J129">
         <v>3</v>
@@ -13043,7 +12788,7 @@
         <v>133</v>
       </c>
       <c r="I130" t="s">
-        <v>259</v>
+        <v>134</v>
       </c>
       <c r="J130">
         <v>5</v>
@@ -13075,7 +12820,7 @@
         <v>133</v>
       </c>
       <c r="I131" t="s">
-        <v>260</v>
+        <v>153</v>
       </c>
       <c r="J131">
         <v>4</v>
@@ -13107,7 +12852,7 @@
         <v>140</v>
       </c>
       <c r="I132" t="s">
-        <v>261</v>
+        <v>141</v>
       </c>
       <c r="J132">
         <v>3</v>
@@ -13139,7 +12884,7 @@
         <v>140</v>
       </c>
       <c r="I133" t="s">
-        <v>262</v>
+        <v>190</v>
       </c>
       <c r="J133">
         <v>3</v>
@@ -13171,7 +12916,7 @@
         <v>128</v>
       </c>
       <c r="I134" t="s">
-        <v>263</v>
+        <v>170</v>
       </c>
       <c r="J134">
         <v>2</v>
@@ -13203,7 +12948,7 @@
         <v>133</v>
       </c>
       <c r="I135" t="s">
-        <v>264</v>
+        <v>149</v>
       </c>
       <c r="J135">
         <v>2</v>
@@ -13235,7 +12980,7 @@
         <v>133</v>
       </c>
       <c r="I136" t="s">
-        <v>265</v>
+        <v>172</v>
       </c>
       <c r="J136">
         <v>3</v>
@@ -13267,7 +13012,7 @@
         <v>128</v>
       </c>
       <c r="I137" t="s">
-        <v>266</v>
+        <v>145</v>
       </c>
       <c r="J137">
         <v>2</v>
@@ -13299,7 +13044,7 @@
         <v>125</v>
       </c>
       <c r="I138" t="s">
-        <v>267</v>
+        <v>137</v>
       </c>
       <c r="J138">
         <v>1</v>
@@ -13331,7 +13076,7 @@
         <v>125</v>
       </c>
       <c r="I139" t="s">
-        <v>268</v>
+        <v>130</v>
       </c>
       <c r="J139">
         <v>1</v>
@@ -13363,7 +13108,7 @@
         <v>140</v>
       </c>
       <c r="I140" t="s">
-        <v>269</v>
+        <v>155</v>
       </c>
       <c r="J140">
         <v>2</v>
@@ -13395,7 +13140,7 @@
         <v>140</v>
       </c>
       <c r="I141" t="s">
-        <v>270</v>
+        <v>141</v>
       </c>
       <c r="J141">
         <v>1</v>
@@ -13427,7 +13172,7 @@
         <v>140</v>
       </c>
       <c r="I142" t="s">
-        <v>271</v>
+        <v>181</v>
       </c>
       <c r="J142">
         <v>3</v>
@@ -13459,7 +13204,7 @@
         <v>140</v>
       </c>
       <c r="I143" t="s">
-        <v>272</v>
+        <v>191</v>
       </c>
       <c r="J143">
         <v>5</v>
@@ -13491,7 +13236,7 @@
         <v>128</v>
       </c>
       <c r="I144" t="s">
-        <v>273</v>
+        <v>173</v>
       </c>
       <c r="J144">
         <v>2</v>
@@ -13523,7 +13268,7 @@
         <v>125</v>
       </c>
       <c r="I145" t="s">
-        <v>274</v>
+        <v>192</v>
       </c>
       <c r="J145">
         <v>2</v>
@@ -13555,7 +13300,7 @@
         <v>125</v>
       </c>
       <c r="I146" t="s">
-        <v>275</v>
+        <v>151</v>
       </c>
       <c r="J146">
         <v>2</v>
@@ -13587,7 +13332,7 @@
         <v>133</v>
       </c>
       <c r="I147" t="s">
-        <v>276</v>
+        <v>135</v>
       </c>
       <c r="J147">
         <v>4</v>
@@ -13619,7 +13364,7 @@
         <v>133</v>
       </c>
       <c r="I148" t="s">
-        <v>277</v>
+        <v>169</v>
       </c>
       <c r="J148">
         <v>2</v>
@@ -13645,7 +13390,7 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>278</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -13675,7 +13420,7 @@
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>279</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -13703,27 +13448,27 @@
   <sheetData>
     <row r="2" spans="2:7">
       <c r="B2" s="25" t="s">
-        <v>280</v>
+        <v>195</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>281</v>
+        <v>196</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>282</v>
+        <v>197</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>283</v>
+        <v>198</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>284</v>
+        <v>199</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>285</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="41.25" customHeight="1">
       <c r="B3" s="28" t="s">
-        <v>286</v>
+        <v>201</v>
       </c>
       <c r="C3" s="29">
         <v>26957145.600000001</v>
@@ -13732,20 +13477,20 @@
         <v>2024</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F3" s="30">
         <f t="shared" ref="F3:F42" ca="1" si="0">(C3*0.2) + RANDBETWEEN(0, 25000)</f>
-        <v>5398455.120000001</v>
+        <v>5404089.120000001</v>
       </c>
       <c r="G3" s="29">
         <f t="shared" ref="G3:G42" ca="1" si="1">C3-F3</f>
-        <v>21558690.48</v>
+        <v>21553056.48</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="28" t="s">
-        <v>288</v>
+        <v>203</v>
       </c>
       <c r="C4" s="29">
         <v>40426848</v>
@@ -13754,20 +13499,20 @@
         <v>2023</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F4" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>8097104.6000000006</v>
+        <v>8095669.6000000006</v>
       </c>
       <c r="G4" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>32329743.399999999</v>
+        <v>32331178.399999999</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="28" t="s">
-        <v>289</v>
+        <v>204</v>
       </c>
       <c r="C5" s="29">
         <v>53896550.399999999</v>
@@ -13776,20 +13521,20 @@
         <v>2022</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F5" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>10795989.08</v>
+        <v>10799029.08</v>
       </c>
       <c r="G5" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>43100561.32</v>
+        <v>43097521.32</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="30" customHeight="1">
       <c r="B6" s="28" t="s">
-        <v>290</v>
+        <v>205</v>
       </c>
       <c r="C6" s="29">
         <v>67366252.799999997</v>
@@ -13798,20 +13543,20 @@
         <v>2019</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F6" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>13484311.560000001</v>
+        <v>13491867.560000001</v>
       </c>
       <c r="G6" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>53881941.239999995</v>
+        <v>53874385.239999995</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="30" customHeight="1">
       <c r="B7" s="28" t="s">
-        <v>291</v>
+        <v>206</v>
       </c>
       <c r="C7" s="29">
         <v>80835955.199999988</v>
@@ -13820,20 +13565,20 @@
         <v>2024</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F7" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>16180292.039999999</v>
+        <v>16187574.039999999</v>
       </c>
       <c r="G7" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>64655663.159999989</v>
+        <v>64648381.159999989</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="28" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="C8" s="29">
         <v>94305657.600000009</v>
@@ -13842,20 +13587,20 @@
         <v>2023</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F8" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>18870447.520000003</v>
+        <v>18881536.520000003</v>
       </c>
       <c r="G8" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>75435210.080000013</v>
+        <v>75424121.080000013</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="30" customHeight="1">
       <c r="B9" s="28" t="s">
-        <v>293</v>
+        <v>208</v>
       </c>
       <c r="C9" s="29">
         <v>107760576</v>
@@ -13864,20 +13609,20 @@
         <v>2022</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F9" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>21555395.200000003</v>
+        <v>21555904.200000003</v>
       </c>
       <c r="G9" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>86205180.799999997</v>
+        <v>86204671.799999997</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="28" t="s">
-        <v>294</v>
+        <v>209</v>
       </c>
       <c r="C10" s="29">
         <v>121082438.40000001</v>
@@ -13886,20 +13631,20 @@
         <v>2019</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F10" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>24219201.680000003</v>
+        <v>24231208.680000003</v>
       </c>
       <c r="G10" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>96863236.719999999</v>
+        <v>96851229.719999999</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="30" customHeight="1">
       <c r="B11" s="28" t="s">
-        <v>295</v>
+        <v>210</v>
       </c>
       <c r="C11" s="29">
         <v>133073740.8</v>
@@ -13908,20 +13653,20 @@
         <v>2024</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F11" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>26627995.16</v>
+        <v>26636186.16</v>
       </c>
       <c r="G11" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>106445745.64</v>
+        <v>106437554.64</v>
       </c>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="28" t="s">
-        <v>296</v>
+        <v>211</v>
       </c>
       <c r="C12" s="29">
         <v>146543443.19999999</v>
@@ -13930,20 +13675,20 @@
         <v>2023</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F12" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>29312177.640000001</v>
+        <v>29316905.640000001</v>
       </c>
       <c r="G12" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>117231265.55999999</v>
+        <v>117226537.55999999</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="28" t="s">
-        <v>297</v>
+        <v>212</v>
       </c>
       <c r="C13" s="29">
         <v>16608345.6</v>
@@ -13952,20 +13697,20 @@
         <v>2022</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F13" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>3323762.12</v>
+        <v>3327341.12</v>
       </c>
       <c r="G13" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>13284583.48</v>
+        <v>13281004.48</v>
       </c>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="28" t="s">
-        <v>298</v>
+        <v>213</v>
       </c>
       <c r="C14" s="29">
         <v>33034848</v>
@@ -13974,20 +13719,20 @@
         <v>2019</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F14" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>6627407.6000000006</v>
+        <v>6628059.6000000006</v>
       </c>
       <c r="G14" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>26407440.399999999</v>
+        <v>26406788.399999999</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="30" customHeight="1">
       <c r="B15" s="28" t="s">
-        <v>299</v>
+        <v>214</v>
       </c>
       <c r="C15" s="29">
         <v>49461350.399999999</v>
@@ -13996,20 +13741,20 @@
         <v>2020</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F15" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>9911685.0800000001</v>
+        <v>9899892.0800000001</v>
       </c>
       <c r="G15" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>39549665.32</v>
+        <v>39561458.32</v>
       </c>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="28" t="s">
-        <v>300</v>
+        <v>215</v>
       </c>
       <c r="C16" s="29">
         <v>65887852.799999997</v>
@@ -14018,20 +13763,20 @@
         <v>2020</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F16" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>13189122.560000001</v>
+        <v>13189715.560000001</v>
       </c>
       <c r="G16" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>52698730.239999995</v>
+        <v>52698137.239999995</v>
       </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="28" t="s">
-        <v>301</v>
+        <v>216</v>
       </c>
       <c r="C17" s="29">
         <v>82314355.199999988</v>
@@ -14040,20 +13785,20 @@
         <v>2020</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F17" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>16472355.039999999</v>
+        <v>16484598.039999999</v>
       </c>
       <c r="G17" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>65842000.159999989</v>
+        <v>65829757.159999989</v>
       </c>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="28" t="s">
-        <v>302</v>
+        <v>217</v>
       </c>
       <c r="C18" s="29">
         <v>98740857.600000009</v>
@@ -14062,20 +13807,20 @@
         <v>2020</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>303</v>
+        <v>218</v>
       </c>
       <c r="F18" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>19762759.520000003</v>
+        <v>19752562.520000003</v>
       </c>
       <c r="G18" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>78978098.080000013</v>
+        <v>78988295.080000013</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="30" customHeight="1">
       <c r="B19" s="28" t="s">
-        <v>304</v>
+        <v>219</v>
       </c>
       <c r="C19" s="29">
         <v>115152576</v>
@@ -14084,20 +13829,20 @@
         <v>2020</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F19" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>23031178.200000003</v>
+        <v>23035079.200000003</v>
       </c>
       <c r="G19" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>92121397.799999997</v>
+        <v>92117496.799999997</v>
       </c>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="28" t="s">
-        <v>305</v>
+        <v>220</v>
       </c>
       <c r="C20" s="29">
         <v>131431238.40000001</v>
@@ -14106,20 +13851,20 @@
         <v>2020</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F20" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>26297739.680000003</v>
+        <v>26292467.680000003</v>
       </c>
       <c r="G20" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>105133498.72</v>
+        <v>105138770.72</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="30" customHeight="1">
       <c r="B21" s="28" t="s">
-        <v>306</v>
+        <v>221</v>
       </c>
       <c r="C21" s="29">
         <v>146379340.80000001</v>
@@ -14128,20 +13873,20 @@
         <v>2017</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>303</v>
+        <v>218</v>
       </c>
       <c r="F21" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>29285458.160000004</v>
+        <v>29287686.160000004</v>
       </c>
       <c r="G21" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>117093882.64000002</v>
+        <v>117091654.64000002</v>
       </c>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="28" t="s">
-        <v>307</v>
+        <v>222</v>
       </c>
       <c r="C22" s="29">
         <v>14965843.199999999</v>
@@ -14150,20 +13895,20 @@
         <v>2017</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F22" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>3014648.64</v>
+        <v>2994501.64</v>
       </c>
       <c r="G22" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>11951194.559999999</v>
+        <v>11971341.559999999</v>
       </c>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="28" t="s">
-        <v>308</v>
+        <v>223</v>
       </c>
       <c r="C23" s="29">
         <v>31392345.600000001</v>
@@ -14172,20 +13917,20 @@
         <v>2017</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>303</v>
+        <v>218</v>
       </c>
       <c r="F23" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>6299002.120000001</v>
+        <v>6282105.120000001</v>
       </c>
       <c r="G23" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>25093343.48</v>
+        <v>25110240.48</v>
       </c>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="28" t="s">
-        <v>309</v>
+        <v>224</v>
       </c>
       <c r="C24" s="29">
         <v>47818848</v>
@@ -14194,20 +13939,20 @@
         <v>2017</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F24" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>9582668.5999999996</v>
+        <v>9567986.5999999996</v>
       </c>
       <c r="G24" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>38236179.399999999</v>
+        <v>38250861.399999999</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="30" customHeight="1">
       <c r="B25" s="28" t="s">
-        <v>310</v>
+        <v>225</v>
       </c>
       <c r="C25" s="29">
         <v>64245350.399999999</v>
@@ -14216,20 +13961,20 @@
         <v>2017</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F25" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>12855253.08</v>
+        <v>12856954.08</v>
       </c>
       <c r="G25" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>51390097.32</v>
+        <v>51388396.32</v>
       </c>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="28" t="s">
-        <v>311</v>
+        <v>226</v>
       </c>
       <c r="C26" s="29">
         <v>80671852.799999997</v>
@@ -14238,20 +13983,20 @@
         <v>2017</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F26" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>16141098.560000001</v>
+        <v>16153340.560000001</v>
       </c>
       <c r="G26" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>64530754.239999995</v>
+        <v>64518512.239999995</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="30" customHeight="1">
       <c r="B27" s="28" t="s">
-        <v>312</v>
+        <v>227</v>
       </c>
       <c r="C27" s="29">
         <v>97098355.199999988</v>
@@ -14260,20 +14005,20 @@
         <v>2017</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F27" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>19444374.039999999</v>
+        <v>19421123.039999999</v>
       </c>
       <c r="G27" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>77653981.159999996</v>
+        <v>77677232.159999996</v>
       </c>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="28" t="s">
-        <v>313</v>
+        <v>228</v>
       </c>
       <c r="C28" s="29">
         <v>113524857.59999999</v>
@@ -14282,20 +14027,20 @@
         <v>2015</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F28" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>22728421.52</v>
+        <v>22728032.52</v>
       </c>
       <c r="G28" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>90796436.079999998</v>
+        <v>90796825.079999998</v>
       </c>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="28" t="s">
-        <v>314</v>
+        <v>229</v>
       </c>
       <c r="C29" s="29">
         <v>129936576</v>
@@ -14304,20 +14049,20 @@
         <v>2015</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>303</v>
+        <v>218</v>
       </c>
       <c r="F29" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>25995424.200000003</v>
+        <v>26009817.200000003</v>
       </c>
       <c r="G29" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>103941151.8</v>
+        <v>103926758.8</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="30" customHeight="1">
       <c r="B30" s="28" t="s">
-        <v>315</v>
+        <v>230</v>
       </c>
       <c r="C30" s="29">
         <v>146215238.40000001</v>
@@ -14326,20 +14071,20 @@
         <v>2015</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>303</v>
+        <v>218</v>
       </c>
       <c r="F30" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>29250650.680000003</v>
+        <v>29263054.680000003</v>
       </c>
       <c r="G30" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>116964587.72</v>
+        <v>116952183.72</v>
       </c>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="28" t="s">
-        <v>316</v>
+        <v>231</v>
       </c>
       <c r="C31" s="29">
         <v>28107340.800000001</v>
@@ -14348,20 +14093,20 @@
         <v>2015</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>303</v>
+        <v>218</v>
       </c>
       <c r="F31" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>5640811.1600000001</v>
+        <v>5639296.1600000001</v>
       </c>
       <c r="G31" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>22466529.640000001</v>
+        <v>22468044.640000001</v>
       </c>
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="28" t="s">
-        <v>317</v>
+        <v>232</v>
       </c>
       <c r="C32" s="29">
         <v>44533843.200000003</v>
@@ -14370,20 +14115,20 @@
         <v>2015</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>303</v>
+        <v>218</v>
       </c>
       <c r="F32" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>8911394.6400000006</v>
+        <v>8921939.6400000006</v>
       </c>
       <c r="G32" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>35622448.560000002</v>
+        <v>35611903.560000002</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="30" customHeight="1">
       <c r="B33" s="28" t="s">
-        <v>318</v>
+        <v>233</v>
       </c>
       <c r="C33" s="29">
         <v>60960345.599999987</v>
@@ -14392,20 +14137,20 @@
         <v>2015</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F33" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>12216651.119999997</v>
+        <v>12203794.119999997</v>
       </c>
       <c r="G33" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>48743694.479999989</v>
+        <v>48756551.479999989</v>
       </c>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="28" t="s">
-        <v>319</v>
+        <v>234</v>
       </c>
       <c r="C34" s="29">
         <v>77386848</v>
@@ -14414,20 +14159,20 @@
         <v>2015</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F34" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>15484399.600000001</v>
+        <v>15501443.600000001</v>
       </c>
       <c r="G34" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>61902448.399999999</v>
+        <v>61885404.399999999</v>
       </c>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="28" t="s">
-        <v>320</v>
+        <v>235</v>
       </c>
       <c r="C35" s="29">
         <v>93813350.399999991</v>
@@ -14436,20 +14181,20 @@
         <v>2015</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F35" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>18780430.079999998</v>
+        <v>18783520.079999998</v>
       </c>
       <c r="G35" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>75032920.319999993</v>
+        <v>75029830.319999993</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="30" customHeight="1">
       <c r="B36" s="28" t="s">
-        <v>321</v>
+        <v>236</v>
       </c>
       <c r="C36" s="29">
         <v>110239852.8</v>
@@ -14458,20 +14203,20 @@
         <v>2015</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F36" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>22055351.560000002</v>
+        <v>22049630.560000002</v>
       </c>
       <c r="G36" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>88184501.239999995</v>
+        <v>88190222.239999995</v>
       </c>
     </row>
     <row r="37" spans="2:7">
       <c r="B37" s="28" t="s">
-        <v>322</v>
+        <v>237</v>
       </c>
       <c r="C37" s="29">
         <v>126666355.2</v>
@@ -14480,20 +14225,20 @@
         <v>2015</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F37" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>25344786.040000003</v>
+        <v>25351024.040000003</v>
       </c>
       <c r="G37" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>101321569.16</v>
+        <v>101315331.16</v>
       </c>
     </row>
     <row r="38" spans="2:7">
       <c r="B38" s="28" t="s">
-        <v>323</v>
+        <v>238</v>
       </c>
       <c r="C38" s="29">
         <v>143092857.59999999</v>
@@ -14502,20 +14247,20 @@
         <v>2015</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>303</v>
+        <v>218</v>
       </c>
       <c r="F38" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>28635793.52</v>
+        <v>28620712.52</v>
       </c>
       <c r="G38" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>114457064.08</v>
+        <v>114472145.08</v>
       </c>
     </row>
     <row r="39" spans="2:7" ht="30" customHeight="1">
       <c r="B39" s="28" t="s">
-        <v>324</v>
+        <v>239</v>
       </c>
       <c r="C39" s="29">
         <v>26448576</v>
@@ -14524,20 +14269,20 @@
         <v>2015</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>303</v>
+        <v>218</v>
       </c>
       <c r="F39" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>5307998.2</v>
+        <v>5291745.2</v>
       </c>
       <c r="G39" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>21140577.800000001</v>
+        <v>21156830.800000001</v>
       </c>
     </row>
     <row r="40" spans="2:7">
       <c r="B40" s="28" t="s">
-        <v>325</v>
+        <v>240</v>
       </c>
       <c r="C40" s="29">
         <v>42727238.399999999</v>
@@ -14546,20 +14291,20 @@
         <v>2015</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>303</v>
+        <v>218</v>
       </c>
       <c r="F40" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>8547906.6799999997</v>
+        <v>8550411.6799999997</v>
       </c>
       <c r="G40" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>34179331.719999999</v>
+        <v>34176826.719999999</v>
       </c>
     </row>
     <row r="41" spans="2:7">
       <c r="B41" s="28" t="s">
-        <v>326</v>
+        <v>241</v>
       </c>
       <c r="C41" s="29">
         <v>57675340.799999997</v>
@@ -14568,20 +14313,20 @@
         <v>2015</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>303</v>
+        <v>218</v>
       </c>
       <c r="F41" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>11557134.16</v>
+        <v>11558731.16</v>
       </c>
       <c r="G41" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>46118206.640000001</v>
+        <v>46116609.640000001</v>
       </c>
     </row>
     <row r="42" spans="2:7">
       <c r="B42" s="28" t="s">
-        <v>327</v>
+        <v>242</v>
       </c>
       <c r="C42" s="29">
         <v>74101843.200000003</v>
@@ -14590,15 +14335,15 @@
         <v>2015</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>303</v>
+        <v>218</v>
       </c>
       <c r="F42" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>14823501.640000001</v>
+        <v>14831530.640000001</v>
       </c>
       <c r="G42" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>59278341.560000002</v>
+        <v>59270312.560000002</v>
       </c>
     </row>
   </sheetData>
@@ -14634,10 +14379,10 @@
         <v>94</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>328</v>
+        <v>243</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>329</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="2:6">
@@ -14708,7 +14453,7 @@
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="31" t="s">
-        <v>330</v>
+        <v>245</v>
       </c>
       <c r="C41" s="31">
         <v>6</v>
@@ -14726,7 +14471,7 @@
     </row>
     <row r="42" spans="2:6">
       <c r="B42" s="31" t="s">
-        <v>331</v>
+        <v>246</v>
       </c>
       <c r="C42" s="31">
         <v>7</v>
@@ -14783,13 +14528,13 @@
         <v>99</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>332</v>
+        <v>247</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>333</v>
+        <v>248</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>334</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -14797,7 +14542,7 @@
         <v>114</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="C2" s="8">
         <v>1</v>
@@ -14809,10 +14554,10 @@
         <v>2</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
       <c r="H2" t="s">
-        <v>337</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -14834,10 +14579,10 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
       <c r="H3" t="s">
-        <v>337</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -14858,10 +14603,10 @@
         <v>11</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>338</v>
+        <v>253</v>
       </c>
       <c r="H4" t="s">
-        <v>339</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -14882,10 +14627,10 @@
         <v>11</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
       <c r="H5" t="s">
-        <v>340</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -14906,10 +14651,10 @@
         <v>14</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>338</v>
+        <v>253</v>
       </c>
       <c r="H6" t="s">
-        <v>339</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -14931,10 +14676,10 @@
         <v>6</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>341</v>
+        <v>256</v>
       </c>
       <c r="H7" t="s">
-        <v>340</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -14956,10 +14701,10 @@
         <v>10</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
       <c r="H8" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -14981,10 +14726,10 @@
         <v>13</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
       <c r="H9" t="s">
-        <v>340</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -15006,10 +14751,10 @@
         <v>12</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
       <c r="H10" t="s">
-        <v>340</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -15031,10 +14776,10 @@
         <v>13</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>341</v>
+        <v>256</v>
       </c>
       <c r="H11" t="s">
-        <v>340</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -15056,7 +14801,7 @@
         <v>8</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -15078,10 +14823,10 @@
         <v>6</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
       <c r="H13" t="s">
-        <v>337</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -15103,7 +14848,7 @@
         <v>12</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>344</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -15126,7 +14871,7 @@
       </c>
       <c r="F15" s="3"/>
       <c r="G15" t="s">
-        <v>344</v>
+        <v>259</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -15148,7 +14893,7 @@
         <v>12</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -15170,10 +14915,10 @@
         <v>8</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
       <c r="H17" t="s">
-        <v>337</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -15195,7 +14940,7 @@
         <v>7</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -15217,7 +14962,7 @@
         <v>9</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>345</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -15239,7 +14984,7 @@
         <v>12</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>346</v>
+        <v>261</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -15262,7 +15007,7 @@
       </c>
       <c r="F21" s="3"/>
       <c r="G21" t="s">
-        <v>347</v>
+        <v>262</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -15284,7 +15029,7 @@
         <v>3</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -15306,7 +15051,7 @@
         <v>6</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -15328,7 +15073,7 @@
         <v>12</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -15350,7 +15095,7 @@
         <v>11</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>348</v>
+        <v>263</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -15372,7 +15117,7 @@
         <v>12</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>344</v>
+        <v>259</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -15394,7 +15139,7 @@
         <v>6</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -15416,10 +15161,10 @@
         <v>5</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
       <c r="H28" t="s">
-        <v>340</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -15441,10 +15186,10 @@
         <v>9</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
       <c r="H29" t="s">
-        <v>340</v>
+        <v>255</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -15466,7 +15211,7 @@
         <v>12</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>344</v>
+        <v>259</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -15488,7 +15233,7 @@
         <v>12</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -15511,7 +15256,7 @@
       </c>
       <c r="F32" s="3"/>
       <c r="G32" t="s">
-        <v>344</v>
+        <v>259</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -15533,10 +15278,10 @@
         <v>7</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
       <c r="H33" t="s">
-        <v>337</v>
+        <v>252</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -15558,10 +15303,10 @@
         <v>13</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
       <c r="H34" t="s">
-        <v>337</v>
+        <v>252</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -15583,10 +15328,10 @@
         <v>14</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
       <c r="H35" t="s">
-        <v>337</v>
+        <v>252</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -15608,10 +15353,10 @@
         <v>14</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
       <c r="H36" t="s">
-        <v>340</v>
+        <v>255</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -15633,7 +15378,7 @@
         <v>8</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -15655,7 +15400,7 @@
         <v>8</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -15677,7 +15422,7 @@
         <v>9</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -15699,10 +15444,10 @@
         <v>13</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
       <c r="H40" t="s">
-        <v>340</v>
+        <v>255</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -15724,10 +15469,10 @@
         <v>13</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
       <c r="H41" t="s">
-        <v>340</v>
+        <v>255</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -15749,7 +15494,7 @@
         <v>3</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>344</v>
+        <v>259</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -15771,7 +15516,7 @@
         <v>8</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -15793,7 +15538,7 @@
         <v>11</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>346</v>
+        <v>261</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -15815,7 +15560,7 @@
         <v>12</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -15837,7 +15582,7 @@
         <v>15</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -15859,7 +15604,7 @@
         <v>4</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>346</v>
+        <v>261</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -15881,7 +15626,7 @@
         <v>7</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>349</v>
+        <v>264</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -15903,7 +15648,7 @@
         <v>11</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -15925,7 +15670,7 @@
         <v>11</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>345</v>
+        <v>260</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -15947,7 +15692,7 @@
         <v>10</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>344</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -15967,30 +15712,30 @@
   <sheetData>
     <row r="1" spans="1:5" ht="30.75" customHeight="1">
       <c r="A1" s="34" t="s">
-        <v>350</v>
+        <v>265</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>351</v>
+        <v>266</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>352</v>
+        <v>267</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>353</v>
+        <v>268</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>354</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>355</v>
+        <v>270</v>
       </c>
       <c r="B2" t="s">
-        <v>356</v>
+        <v>271</v>
       </c>
       <c r="C2" t="s">
-        <v>355</v>
+        <v>270</v>
       </c>
       <c r="D2">
         <v>21</v>
@@ -16001,13 +15746,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>357</v>
+        <v>272</v>
       </c>
       <c r="B3" t="s">
-        <v>358</v>
+        <v>273</v>
       </c>
       <c r="C3" t="s">
-        <v>357</v>
+        <v>272</v>
       </c>
       <c r="D3">
         <v>20</v>
@@ -16018,13 +15763,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>348</v>
+        <v>263</v>
       </c>
       <c r="B4" t="s">
-        <v>359</v>
+        <v>274</v>
       </c>
       <c r="C4" t="s">
-        <v>348</v>
+        <v>263</v>
       </c>
       <c r="D4">
         <v>19</v>
@@ -16035,13 +15780,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>338</v>
+        <v>253</v>
       </c>
       <c r="B5" t="s">
-        <v>339</v>
+        <v>254</v>
       </c>
       <c r="C5" t="s">
-        <v>338</v>
+        <v>253</v>
       </c>
       <c r="D5">
         <v>18</v>
@@ -16052,13 +15797,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>341</v>
+        <v>256</v>
       </c>
       <c r="B6" t="s">
-        <v>340</v>
+        <v>255</v>
       </c>
       <c r="C6" t="s">
-        <v>341</v>
+        <v>256</v>
       </c>
       <c r="D6">
         <v>17</v>
@@ -16069,13 +15814,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
       <c r="B7" t="s">
-        <v>337</v>
+        <v>252</v>
       </c>
       <c r="C7" t="s">
-        <v>336</v>
+        <v>251</v>
       </c>
       <c r="D7">
         <v>16</v>
@@ -16086,13 +15831,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>345</v>
+        <v>260</v>
       </c>
       <c r="B8" t="s">
-        <v>342</v>
+        <v>257</v>
       </c>
       <c r="C8" t="s">
-        <v>345</v>
+        <v>260</v>
       </c>
       <c r="D8">
         <v>15</v>
@@ -16103,13 +15848,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>344</v>
+        <v>259</v>
       </c>
       <c r="B9" t="s">
-        <v>360</v>
+        <v>275</v>
       </c>
       <c r="C9" t="s">
-        <v>344</v>
+        <v>259</v>
       </c>
       <c r="D9">
         <v>14</v>
@@ -16120,13 +15865,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
       <c r="B10" t="s">
-        <v>361</v>
+        <v>276</v>
       </c>
       <c r="C10" t="s">
-        <v>343</v>
+        <v>258</v>
       </c>
       <c r="D10">
         <v>13</v>
@@ -16137,13 +15882,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>362</v>
+        <v>277</v>
       </c>
       <c r="B11" t="s">
-        <v>363</v>
+        <v>278</v>
       </c>
       <c r="C11" t="s">
-        <v>362</v>
+        <v>277</v>
       </c>
       <c r="D11">
         <v>12</v>
@@ -16154,13 +15899,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>349</v>
+        <v>264</v>
       </c>
       <c r="B12" t="s">
-        <v>364</v>
+        <v>279</v>
       </c>
       <c r="C12" t="s">
-        <v>349</v>
+        <v>264</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -16171,13 +15916,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>365</v>
+        <v>280</v>
       </c>
       <c r="B13" t="s">
-        <v>366</v>
+        <v>281</v>
       </c>
       <c r="C13" t="s">
-        <v>365</v>
+        <v>280</v>
       </c>
       <c r="D13">
         <v>10</v>
@@ -16188,13 +15933,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>367</v>
+        <v>282</v>
       </c>
       <c r="B14" t="s">
-        <v>368</v>
+        <v>283</v>
       </c>
       <c r="C14" t="s">
-        <v>367</v>
+        <v>282</v>
       </c>
       <c r="D14">
         <v>9</v>
@@ -16205,13 +15950,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>347</v>
+        <v>262</v>
       </c>
       <c r="B15" t="s">
-        <v>369</v>
+        <v>284</v>
       </c>
       <c r="C15" t="s">
-        <v>347</v>
+        <v>262</v>
       </c>
       <c r="D15">
         <v>8</v>
@@ -16222,13 +15967,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>370</v>
+        <v>285</v>
       </c>
       <c r="B16" t="s">
-        <v>371</v>
+        <v>286</v>
       </c>
       <c r="C16" t="s">
-        <v>370</v>
+        <v>285</v>
       </c>
       <c r="D16">
         <v>7</v>
@@ -16239,13 +15984,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>372</v>
+        <v>287</v>
       </c>
       <c r="B17" t="s">
-        <v>373</v>
+        <v>288</v>
       </c>
       <c r="C17" t="s">
-        <v>372</v>
+        <v>287</v>
       </c>
       <c r="D17">
         <v>6</v>
@@ -16256,13 +16001,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>374</v>
+        <v>289</v>
       </c>
       <c r="B18" t="s">
-        <v>375</v>
+        <v>290</v>
       </c>
       <c r="C18" t="s">
-        <v>374</v>
+        <v>289</v>
       </c>
       <c r="D18">
         <v>5</v>
@@ -16273,13 +16018,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>376</v>
+        <v>291</v>
       </c>
       <c r="B19" t="s">
-        <v>377</v>
+        <v>292</v>
       </c>
       <c r="C19" t="s">
-        <v>376</v>
+        <v>291</v>
       </c>
       <c r="D19">
         <v>4</v>
@@ -16290,13 +16035,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>378</v>
+        <v>293</v>
       </c>
       <c r="B20" t="s">
-        <v>379</v>
+        <v>294</v>
       </c>
       <c r="C20" t="s">
-        <v>378</v>
+        <v>293</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -16307,13 +16052,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>380</v>
+        <v>295</v>
       </c>
       <c r="B21" t="s">
-        <v>381</v>
+        <v>296</v>
       </c>
       <c r="C21" t="s">
-        <v>380</v>
+        <v>295</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -16324,7 +16069,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="C22" t="s">
-        <v>382</v>
+        <v>297</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -16335,13 +16080,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>383</v>
+        <v>298</v>
       </c>
       <c r="B23" t="s">
-        <v>382</v>
+        <v>297</v>
       </c>
       <c r="C23" t="s">
-        <v>384</v>
+        <v>299</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -16349,10 +16094,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>385</v>
+        <v>300</v>
       </c>
       <c r="C24" t="s">
-        <v>386</v>
+        <v>301</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -16360,7 +16105,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="C25" t="s">
-        <v>385</v>
+        <v>300</v>
       </c>
       <c r="D25">
         <v>1</v>

--- a/Sample_Bank_Data/MAR 2024.xlsx
+++ b/Sample_Bank_Data/MAR 2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91636\Downloads\data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{935129A4-0610-448D-A2D1-F9D6BF2E1EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0060B8A2-DA31-42D4-A491-96831C9C1A1D}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{935129A4-0610-448D-A2D1-F9D6BF2E1EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D277F55-DA9A-4A53-8BD7-BE7679853EBB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="306">
   <si>
     <t>Collateral Types</t>
   </si>
@@ -424,9 +424,6 @@
     <t>Collateral Grade</t>
   </si>
   <si>
-    <t>Collatral Land &amp; Building</t>
-  </si>
-  <si>
     <t>50%</t>
   </si>
   <si>
@@ -448,9 +445,6 @@
     <t>Building2</t>
   </si>
   <si>
-    <t>Collatral Cash, Gold &amp; Other Riskfree Assests</t>
-  </si>
-  <si>
     <t>0%</t>
   </si>
   <si>
@@ -467,9 +461,6 @@
   </si>
   <si>
     <t>Building4</t>
-  </si>
-  <si>
-    <t>Collatral Shares &amp; Other Paper Assests</t>
   </si>
   <si>
     <t>75%</t>
@@ -1687,21 +1678,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30.75" customHeight="1">
       <c r="A1" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1" s="35" t="s">
         <v>266</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>269</v>
-      </c>
       <c r="C1" s="34" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1715,7 +1706,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1729,7 +1720,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -1743,7 +1734,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -1757,7 +1748,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -1771,7 +1762,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -1785,7 +1776,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -1799,7 +1790,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -1813,7 +1804,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -1827,7 +1818,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -1841,7 +1832,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -1855,7 +1846,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -1869,7 +1860,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -1883,7 +1874,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -1897,7 +1888,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -1911,7 +1902,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -1925,7 +1916,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -1939,7 +1930,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B19">
         <v>17</v>
@@ -1953,7 +1944,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B20">
         <v>17</v>
@@ -1967,7 +1958,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B21">
         <v>17</v>
@@ -1981,7 +1972,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C22">
         <v>100</v>
@@ -2017,22 +2008,22 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="17" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>28</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -8628,8 +8619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:J148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="I127" sqref="I127"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8680,7 +8671,7 @@
         <v>6343426</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
@@ -8689,10 +8680,10 @@
         <v>7</v>
       </c>
       <c r="H2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I2" t="s">
         <v>125</v>
-      </c>
-      <c r="I2" t="s">
-        <v>126</v>
       </c>
       <c r="J2">
         <v>4</v>
@@ -8712,7 +8703,7 @@
         <v>6343426</v>
       </c>
       <c r="E3" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -8721,10 +8712,10 @@
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -8753,10 +8744,10 @@
         <v>24</v>
       </c>
       <c r="H4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I4" t="s">
         <v>128</v>
-      </c>
-      <c r="I4" t="s">
-        <v>129</v>
       </c>
       <c r="J4">
         <v>5</v>
@@ -8776,7 +8767,7 @@
         <v>12473602</v>
       </c>
       <c r="E5" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -8785,10 +8776,10 @@
         <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -8808,7 +8799,7 @@
         <v>12473602</v>
       </c>
       <c r="E6" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
         <v>5</v>
@@ -8817,10 +8808,10 @@
         <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -8840,7 +8831,7 @@
         <v>49388166.5</v>
       </c>
       <c r="E7" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
@@ -8849,10 +8840,10 @@
         <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J7">
         <v>5</v>
@@ -8872,7 +8863,7 @@
         <v>49388166.5</v>
       </c>
       <c r="E8" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
@@ -8881,10 +8872,10 @@
         <v>14</v>
       </c>
       <c r="H8" t="s">
+        <v>131</v>
+      </c>
+      <c r="I8" t="s">
         <v>133</v>
-      </c>
-      <c r="I8" t="s">
-        <v>135</v>
       </c>
       <c r="J8">
         <v>2</v>
@@ -8913,10 +8904,10 @@
         <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J9">
         <v>2</v>
@@ -8936,7 +8927,7 @@
         <v>49401122</v>
       </c>
       <c r="E10" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F10" t="s">
         <v>5</v>
@@ -8945,10 +8936,10 @@
         <v>7</v>
       </c>
       <c r="H10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J10">
         <v>4</v>
@@ -8968,7 +8959,7 @@
         <v>49401122</v>
       </c>
       <c r="E11" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
         <v>5</v>
@@ -8977,10 +8968,10 @@
         <v>6</v>
       </c>
       <c r="H11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -9000,7 +8991,7 @@
         <v>11739850.5</v>
       </c>
       <c r="E12" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
         <v>20</v>
@@ -9009,10 +9000,10 @@
         <v>22</v>
       </c>
       <c r="H12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J12">
         <v>2</v>
@@ -9032,7 +9023,7 @@
         <v>11739850.5</v>
       </c>
       <c r="E13" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
@@ -9041,10 +9032,10 @@
         <v>21</v>
       </c>
       <c r="H13" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I13" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -9064,7 +9055,7 @@
         <v>38285949.5</v>
       </c>
       <c r="E14" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F14" t="s">
         <v>20</v>
@@ -9073,10 +9064,10 @@
         <v>21</v>
       </c>
       <c r="H14" t="s">
+        <v>137</v>
+      </c>
+      <c r="I14" t="s">
         <v>140</v>
-      </c>
-      <c r="I14" t="s">
-        <v>143</v>
       </c>
       <c r="J14">
         <v>2</v>
@@ -9096,7 +9087,7 @@
         <v>38285949.5</v>
       </c>
       <c r="E15" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F15" t="s">
         <v>20</v>
@@ -9105,10 +9096,10 @@
         <v>22</v>
       </c>
       <c r="H15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -9137,10 +9128,10 @@
         <v>24</v>
       </c>
       <c r="H16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -9160,7 +9151,7 @@
         <v>28397761</v>
       </c>
       <c r="E17" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
         <v>5</v>
@@ -9169,10 +9160,10 @@
         <v>6</v>
       </c>
       <c r="H17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I17" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J17">
         <v>3</v>
@@ -9192,7 +9183,7 @@
         <v>28397761</v>
       </c>
       <c r="E18" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
@@ -9201,10 +9192,10 @@
         <v>11</v>
       </c>
       <c r="H18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I18" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J18">
         <v>3</v>
@@ -9224,7 +9215,7 @@
         <v>43835560</v>
       </c>
       <c r="E19" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F19" t="s">
         <v>14</v>
@@ -9233,10 +9224,10 @@
         <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I19" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J19">
         <v>3</v>
@@ -9256,7 +9247,7 @@
         <v>43835560</v>
       </c>
       <c r="E20" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F20" t="s">
         <v>15</v>
@@ -9265,10 +9256,10 @@
         <v>15</v>
       </c>
       <c r="H20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I20" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -9288,7 +9279,7 @@
         <v>27160918.5</v>
       </c>
       <c r="E21" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -9297,10 +9288,10 @@
         <v>10</v>
       </c>
       <c r="H21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I21" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -9320,7 +9311,7 @@
         <v>27160918.5</v>
       </c>
       <c r="E22" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
@@ -9329,10 +9320,10 @@
         <v>12</v>
       </c>
       <c r="H22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I22" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J22">
         <v>5</v>
@@ -9352,7 +9343,7 @@
         <v>11725085</v>
       </c>
       <c r="E23" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F23" t="s">
         <v>16</v>
@@ -9361,10 +9352,10 @@
         <v>18</v>
       </c>
       <c r="H23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I23" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J23">
         <v>3</v>
@@ -9384,7 +9375,7 @@
         <v>11725085</v>
       </c>
       <c r="E24" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F24" t="s">
         <v>14</v>
@@ -9393,10 +9384,10 @@
         <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I24" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J24">
         <v>2</v>
@@ -9416,7 +9407,7 @@
         <v>33948595.5</v>
       </c>
       <c r="E25" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F25" t="s">
         <v>20</v>
@@ -9425,10 +9416,10 @@
         <v>21</v>
       </c>
       <c r="H25" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I25" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J25">
         <v>2</v>
@@ -9448,7 +9439,7 @@
         <v>33948595.5</v>
       </c>
       <c r="E26" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F26" t="s">
         <v>20</v>
@@ -9457,10 +9448,10 @@
         <v>22</v>
       </c>
       <c r="H26" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I26" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J26">
         <v>2</v>
@@ -9480,7 +9471,7 @@
         <v>16060913.5</v>
       </c>
       <c r="E27" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F27" t="s">
         <v>5</v>
@@ -9489,10 +9480,10 @@
         <v>6</v>
       </c>
       <c r="H27" t="s">
+        <v>124</v>
+      </c>
+      <c r="I27" t="s">
         <v>125</v>
-      </c>
-      <c r="I27" t="s">
-        <v>126</v>
       </c>
       <c r="J27">
         <v>2</v>
@@ -9512,7 +9503,7 @@
         <v>16060913.5</v>
       </c>
       <c r="E28" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
@@ -9521,10 +9512,10 @@
         <v>10</v>
       </c>
       <c r="H28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I28" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J28">
         <v>5</v>
@@ -9544,7 +9535,7 @@
         <v>38276113</v>
       </c>
       <c r="E29" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F29" t="s">
         <v>16</v>
@@ -9553,10 +9544,10 @@
         <v>18</v>
       </c>
       <c r="H29" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I29" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J29">
         <v>5</v>
@@ -9576,7 +9567,7 @@
         <v>38276113</v>
       </c>
       <c r="E30" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F30" t="s">
         <v>14</v>
@@ -9585,10 +9576,10 @@
         <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I30" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="J30">
         <v>2</v>
@@ -9617,10 +9608,10 @@
         <v>24</v>
       </c>
       <c r="H31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I31" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J31">
         <v>3</v>
@@ -9640,7 +9631,7 @@
         <v>10550509.5</v>
       </c>
       <c r="E32" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F32" t="s">
         <v>9</v>
@@ -9649,10 +9640,10 @@
         <v>11</v>
       </c>
       <c r="H32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I32" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J32">
         <v>5</v>
@@ -9672,7 +9663,7 @@
         <v>10550509.5</v>
       </c>
       <c r="E33" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F33" t="s">
         <v>9</v>
@@ -9681,10 +9672,10 @@
         <v>12</v>
       </c>
       <c r="H33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I33" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J33">
         <v>2</v>
@@ -9704,7 +9695,7 @@
         <v>45071687</v>
       </c>
       <c r="E34" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F34" t="s">
         <v>20</v>
@@ -9713,10 +9704,10 @@
         <v>21</v>
       </c>
       <c r="H34" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I34" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J34">
         <v>2</v>
@@ -9736,7 +9727,7 @@
         <v>45071687</v>
       </c>
       <c r="E35" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F35" t="s">
         <v>20</v>
@@ -9745,10 +9736,10 @@
         <v>22</v>
       </c>
       <c r="H35" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I35" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J35">
         <v>2</v>
@@ -9777,10 +9768,10 @@
         <v>24</v>
       </c>
       <c r="H36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I36" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J36">
         <v>4</v>
@@ -9800,7 +9791,7 @@
         <v>49380038</v>
       </c>
       <c r="E37" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F37" t="s">
         <v>20</v>
@@ -9809,10 +9800,10 @@
         <v>21</v>
       </c>
       <c r="H37" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I37" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J37">
         <v>2</v>
@@ -9832,7 +9823,7 @@
         <v>49380038</v>
       </c>
       <c r="E38" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F38" t="s">
         <v>20</v>
@@ -9841,10 +9832,10 @@
         <v>22</v>
       </c>
       <c r="H38" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I38" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J38">
         <v>2</v>
@@ -9873,10 +9864,10 @@
         <v>24</v>
       </c>
       <c r="H39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I39" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J39">
         <v>5</v>
@@ -9896,7 +9887,7 @@
         <v>11737273</v>
       </c>
       <c r="E40" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F40" t="s">
         <v>5</v>
@@ -9905,10 +9896,10 @@
         <v>8</v>
       </c>
       <c r="H40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I40" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J40">
         <v>4</v>
@@ -9928,7 +9919,7 @@
         <v>11737273</v>
       </c>
       <c r="E41" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F41" t="s">
         <v>9</v>
@@ -9937,10 +9928,10 @@
         <v>10</v>
       </c>
       <c r="H41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I41" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="J41">
         <v>4</v>
@@ -9960,7 +9951,7 @@
         <v>32716710</v>
       </c>
       <c r="E42" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F42" t="s">
         <v>15</v>
@@ -9969,10 +9960,10 @@
         <v>15</v>
       </c>
       <c r="H42" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I42" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J42">
         <v>5</v>
@@ -9992,7 +9983,7 @@
         <v>32716710</v>
       </c>
       <c r="E43" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F43" t="s">
         <v>16</v>
@@ -10001,10 +9992,10 @@
         <v>17</v>
       </c>
       <c r="H43" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I43" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J43">
         <v>3</v>
@@ -10033,10 +10024,10 @@
         <v>24</v>
       </c>
       <c r="H44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I44" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J44">
         <v>5</v>
@@ -10056,7 +10047,7 @@
         <v>39447333.5</v>
       </c>
       <c r="E45" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F45" t="s">
         <v>15</v>
@@ -10065,10 +10056,10 @@
         <v>15</v>
       </c>
       <c r="H45" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I45" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J45">
         <v>2</v>
@@ -10088,7 +10079,7 @@
         <v>39447333.5</v>
       </c>
       <c r="E46" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F46" t="s">
         <v>16</v>
@@ -10097,10 +10088,10 @@
         <v>18</v>
       </c>
       <c r="H46" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I46" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J46">
         <v>4</v>
@@ -10129,10 +10120,10 @@
         <v>24</v>
       </c>
       <c r="H47" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I47" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J47">
         <v>3</v>
@@ -10152,7 +10143,7 @@
         <v>22843750.5</v>
       </c>
       <c r="E48" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F48" t="s">
         <v>9</v>
@@ -10161,10 +10152,10 @@
         <v>11</v>
       </c>
       <c r="H48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I48" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J48">
         <v>4</v>
@@ -10184,7 +10175,7 @@
         <v>22843750.5</v>
       </c>
       <c r="E49" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F49" t="s">
         <v>9</v>
@@ -10193,10 +10184,10 @@
         <v>10</v>
       </c>
       <c r="H49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I49" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J49">
         <v>4</v>
@@ -10225,10 +10216,10 @@
         <v>24</v>
       </c>
       <c r="H50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I50" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J50">
         <v>2</v>
@@ -10248,7 +10239,7 @@
         <v>6187207</v>
       </c>
       <c r="E51" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F51" t="s">
         <v>20</v>
@@ -10257,10 +10248,10 @@
         <v>22</v>
       </c>
       <c r="H51" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I51" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J51">
         <v>2</v>
@@ -10280,7 +10271,7 @@
         <v>6187207</v>
       </c>
       <c r="E52" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F52" t="s">
         <v>20</v>
@@ -10289,10 +10280,10 @@
         <v>21</v>
       </c>
       <c r="H52" t="s">
+        <v>137</v>
+      </c>
+      <c r="I52" t="s">
         <v>140</v>
-      </c>
-      <c r="I52" t="s">
-        <v>143</v>
       </c>
       <c r="J52">
         <v>3</v>
@@ -10321,10 +10312,10 @@
         <v>24</v>
       </c>
       <c r="H53" t="s">
+        <v>127</v>
+      </c>
+      <c r="I53" t="s">
         <v>128</v>
-      </c>
-      <c r="I53" t="s">
-        <v>129</v>
       </c>
       <c r="J53">
         <v>2</v>
@@ -10344,7 +10335,7 @@
         <v>6189652</v>
       </c>
       <c r="E54" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F54" t="s">
         <v>9</v>
@@ -10353,10 +10344,10 @@
         <v>12</v>
       </c>
       <c r="H54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I54" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J54">
         <v>2</v>
@@ -10376,7 +10367,7 @@
         <v>6189652</v>
       </c>
       <c r="E55" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F55" t="s">
         <v>5</v>
@@ -10385,10 +10376,10 @@
         <v>8</v>
       </c>
       <c r="H55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I55" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J55">
         <v>5</v>
@@ -10417,10 +10408,10 @@
         <v>24</v>
       </c>
       <c r="H56" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I56" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J56">
         <v>3</v>
@@ -10440,7 +10431,7 @@
         <v>17279724.5</v>
       </c>
       <c r="E57" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F57" t="s">
         <v>20</v>
@@ -10449,10 +10440,10 @@
         <v>22</v>
       </c>
       <c r="H57" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I57" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J57">
         <v>3</v>
@@ -10472,7 +10463,7 @@
         <v>17279724.5</v>
       </c>
       <c r="E58" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F58" t="s">
         <v>20</v>
@@ -10481,10 +10472,10 @@
         <v>21</v>
       </c>
       <c r="H58" t="s">
+        <v>137</v>
+      </c>
+      <c r="I58" t="s">
         <v>140</v>
-      </c>
-      <c r="I58" t="s">
-        <v>143</v>
       </c>
       <c r="J58">
         <v>2</v>
@@ -10513,10 +10504,10 @@
         <v>24</v>
       </c>
       <c r="H59" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I59" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J59">
         <v>4</v>
@@ -10536,7 +10527,7 @@
         <v>38279841</v>
       </c>
       <c r="E60" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F60" t="s">
         <v>5</v>
@@ -10545,10 +10536,10 @@
         <v>8</v>
       </c>
       <c r="H60" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I60" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J60">
         <v>5</v>
@@ -10568,7 +10559,7 @@
         <v>38279841</v>
       </c>
       <c r="E61" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F61" t="s">
         <v>5</v>
@@ -10577,10 +10568,10 @@
         <v>7</v>
       </c>
       <c r="H61" t="s">
+        <v>124</v>
+      </c>
+      <c r="I61" t="s">
         <v>125</v>
-      </c>
-      <c r="I61" t="s">
-        <v>126</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -10609,10 +10600,10 @@
         <v>24</v>
       </c>
       <c r="H62" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I62" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -10632,7 +10623,7 @@
         <v>6184409.5</v>
       </c>
       <c r="E63" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F63" t="s">
         <v>15</v>
@@ -10641,10 +10632,10 @@
         <v>15</v>
       </c>
       <c r="H63" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I63" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J63">
         <v>2</v>
@@ -10664,7 +10655,7 @@
         <v>6184409.5</v>
       </c>
       <c r="E64" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F64" t="s">
         <v>14</v>
@@ -10673,10 +10664,10 @@
         <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I64" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J64">
         <v>2</v>
@@ -10705,10 +10696,10 @@
         <v>24</v>
       </c>
       <c r="H65" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I65" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J65">
         <v>2</v>
@@ -10728,7 +10719,7 @@
         <v>32716233.5</v>
       </c>
       <c r="E66" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F66" t="s">
         <v>20</v>
@@ -10737,10 +10728,10 @@
         <v>22</v>
       </c>
       <c r="H66" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I66" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J66">
         <v>5</v>
@@ -10760,7 +10751,7 @@
         <v>32716233.5</v>
       </c>
       <c r="E67" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F67" t="s">
         <v>20</v>
@@ -10769,10 +10760,10 @@
         <v>21</v>
       </c>
       <c r="H67" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I67" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J67">
         <v>4</v>
@@ -10801,10 +10792,10 @@
         <v>24</v>
       </c>
       <c r="H68" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I68" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J68">
         <v>2</v>
@@ -10824,7 +10815,7 @@
         <v>28403028</v>
       </c>
       <c r="E69" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F69" t="s">
         <v>5</v>
@@ -10833,10 +10824,10 @@
         <v>6</v>
       </c>
       <c r="H69" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I69" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J69">
         <v>4</v>
@@ -10856,7 +10847,7 @@
         <v>28403028</v>
       </c>
       <c r="E70" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F70" t="s">
         <v>5</v>
@@ -10865,10 +10856,10 @@
         <v>7</v>
       </c>
       <c r="H70" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J70">
         <v>2</v>
@@ -10888,7 +10879,7 @@
         <v>39464778.5</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F71" t="s">
         <v>20</v>
@@ -10897,10 +10888,10 @@
         <v>22</v>
       </c>
       <c r="H71" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I71" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J71">
         <v>2</v>
@@ -10920,7 +10911,7 @@
         <v>39464778.5</v>
       </c>
       <c r="E72" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F72" t="s">
         <v>20</v>
@@ -10929,10 +10920,10 @@
         <v>21</v>
       </c>
       <c r="H72" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I72" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J72">
         <v>2</v>
@@ -10961,10 +10952,10 @@
         <v>24</v>
       </c>
       <c r="H73" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I73" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J73">
         <v>4</v>
@@ -10993,10 +10984,10 @@
         <v>24</v>
       </c>
       <c r="H74" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I74" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J74">
         <v>5</v>
@@ -11025,10 +11016,10 @@
         <v>24</v>
       </c>
       <c r="H75" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I75" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J75">
         <v>5</v>
@@ -11048,7 +11039,7 @@
         <v>38278452</v>
       </c>
       <c r="E76" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F76" t="s">
         <v>9</v>
@@ -11057,10 +11048,10 @@
         <v>10</v>
       </c>
       <c r="H76" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I76" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J76">
         <v>3</v>
@@ -11080,7 +11071,7 @@
         <v>38278452</v>
       </c>
       <c r="E77" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F77" t="s">
         <v>5</v>
@@ -11089,10 +11080,10 @@
         <v>6</v>
       </c>
       <c r="H77" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I77" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J77">
         <v>1</v>
@@ -11112,7 +11103,7 @@
         <v>43840295</v>
       </c>
       <c r="E78" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F78" t="s">
         <v>14</v>
@@ -11121,10 +11112,10 @@
         <v>14</v>
       </c>
       <c r="H78" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I78" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J78">
         <v>1</v>
@@ -11144,7 +11135,7 @@
         <v>43840295</v>
       </c>
       <c r="E79" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F79" t="s">
         <v>16</v>
@@ -11153,10 +11144,10 @@
         <v>18</v>
       </c>
       <c r="H79" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I79" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="J79">
         <v>5</v>
@@ -11185,10 +11176,10 @@
         <v>24</v>
       </c>
       <c r="H80" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I80" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J80">
         <v>1</v>
@@ -11208,7 +11199,7 @@
         <v>22840979.5</v>
       </c>
       <c r="E81" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F81" t="s">
         <v>5</v>
@@ -11217,10 +11208,10 @@
         <v>8</v>
       </c>
       <c r="H81" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I81" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J81">
         <v>2</v>
@@ -11240,7 +11231,7 @@
         <v>22840979.5</v>
       </c>
       <c r="E82" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F82" t="s">
         <v>9</v>
@@ -11249,10 +11240,10 @@
         <v>10</v>
       </c>
       <c r="H82" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I82" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J82">
         <v>3</v>
@@ -11272,7 +11263,7 @@
         <v>11741196</v>
       </c>
       <c r="E83" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F83" t="s">
         <v>20</v>
@@ -11281,10 +11272,10 @@
         <v>21</v>
       </c>
       <c r="H83" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I83" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J83">
         <v>1</v>
@@ -11304,7 +11295,7 @@
         <v>11741196</v>
       </c>
       <c r="E84" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F84" t="s">
         <v>20</v>
@@ -11313,10 +11304,10 @@
         <v>22</v>
       </c>
       <c r="H84" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I84" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J84">
         <v>5</v>
@@ -11345,10 +11336,10 @@
         <v>24</v>
       </c>
       <c r="H85" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I85" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J85">
         <v>4</v>
@@ -11377,10 +11368,10 @@
         <v>24</v>
       </c>
       <c r="H86" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I86" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J86">
         <v>3</v>
@@ -11400,7 +11391,7 @@
         <v>28393599.5</v>
       </c>
       <c r="E87" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F87" t="s">
         <v>15</v>
@@ -11409,10 +11400,10 @@
         <v>15</v>
       </c>
       <c r="H87" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I87" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="J87">
         <v>4</v>
@@ -11432,7 +11423,7 @@
         <v>28393599.5</v>
       </c>
       <c r="E88" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F88" t="s">
         <v>14</v>
@@ -11441,10 +11432,10 @@
         <v>14</v>
       </c>
       <c r="H88" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I88" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="J88">
         <v>3</v>
@@ -11464,7 +11455,7 @@
         <v>33943605.5</v>
       </c>
       <c r="E89" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F89" t="s">
         <v>20</v>
@@ -11473,10 +11464,10 @@
         <v>21</v>
       </c>
       <c r="H89" t="s">
+        <v>137</v>
+      </c>
+      <c r="I89" t="s">
         <v>140</v>
-      </c>
-      <c r="I89" t="s">
-        <v>143</v>
       </c>
       <c r="J89">
         <v>2</v>
@@ -11496,7 +11487,7 @@
         <v>33943605.5</v>
       </c>
       <c r="E90" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F90" t="s">
         <v>20</v>
@@ -11505,10 +11496,10 @@
         <v>22</v>
       </c>
       <c r="H90" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I90" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J90">
         <v>5</v>
@@ -11537,10 +11528,10 @@
         <v>24</v>
       </c>
       <c r="H91" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I91" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J91">
         <v>2</v>
@@ -11560,7 +11551,7 @@
         <v>5484293</v>
       </c>
       <c r="E92" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F92" t="s">
         <v>9</v>
@@ -11569,10 +11560,10 @@
         <v>12</v>
       </c>
       <c r="H92" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I92" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J92">
         <v>3</v>
@@ -11592,7 +11583,7 @@
         <v>5484293</v>
       </c>
       <c r="E93" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F93" t="s">
         <v>5</v>
@@ -11601,10 +11592,10 @@
         <v>6</v>
       </c>
       <c r="H93" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I93" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J93">
         <v>4</v>
@@ -11624,7 +11615,7 @@
         <v>5500157.5</v>
       </c>
       <c r="E94" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F94" t="s">
         <v>16</v>
@@ -11633,10 +11624,10 @@
         <v>18</v>
       </c>
       <c r="H94" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I94" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J94">
         <v>5</v>
@@ -11656,7 +11647,7 @@
         <v>5500157.5</v>
       </c>
       <c r="E95" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F95" t="s">
         <v>16</v>
@@ -11665,10 +11656,10 @@
         <v>17</v>
       </c>
       <c r="H95" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I95" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J95">
         <v>1</v>
@@ -11697,10 +11688,10 @@
         <v>24</v>
       </c>
       <c r="H96" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I96" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J96">
         <v>5</v>
@@ -11720,7 +11711,7 @@
         <v>43833306</v>
       </c>
       <c r="E97" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F97" t="s">
         <v>20</v>
@@ -11729,10 +11720,10 @@
         <v>22</v>
       </c>
       <c r="H97" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I97" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J97">
         <v>2</v>
@@ -11752,7 +11743,7 @@
         <v>43833306</v>
       </c>
       <c r="E98" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F98" t="s">
         <v>20</v>
@@ -11761,10 +11752,10 @@
         <v>21</v>
       </c>
       <c r="H98" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I98" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J98">
         <v>2</v>
@@ -11793,10 +11784,10 @@
         <v>24</v>
       </c>
       <c r="H99" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I99" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J99">
         <v>3</v>
@@ -11816,7 +11807,7 @@
         <v>11728045</v>
       </c>
       <c r="E100" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F100" t="s">
         <v>14</v>
@@ -11825,10 +11816,10 @@
         <v>14</v>
       </c>
       <c r="H100" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I100" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J100">
         <v>2</v>
@@ -11848,7 +11839,7 @@
         <v>11728045</v>
       </c>
       <c r="E101" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F101" t="s">
         <v>16</v>
@@ -11857,10 +11848,10 @@
         <v>17</v>
       </c>
       <c r="H101" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I101" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J101">
         <v>3</v>
@@ -11889,10 +11880,10 @@
         <v>24</v>
       </c>
       <c r="H102" t="s">
+        <v>127</v>
+      </c>
+      <c r="I102" t="s">
         <v>128</v>
-      </c>
-      <c r="I102" t="s">
-        <v>129</v>
       </c>
       <c r="J102">
         <v>4</v>
@@ -11912,7 +11903,7 @@
         <v>49386151</v>
       </c>
       <c r="E103" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F103" t="s">
         <v>16</v>
@@ -11921,10 +11912,10 @@
         <v>17</v>
       </c>
       <c r="H103" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I103" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J103">
         <v>3</v>
@@ -11944,7 +11935,7 @@
         <v>49386151</v>
       </c>
       <c r="E104" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F104" t="s">
         <v>16</v>
@@ -11953,10 +11944,10 @@
         <v>18</v>
       </c>
       <c r="H104" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I104" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J104">
         <v>3</v>
@@ -11976,7 +11967,7 @@
         <v>11744841.5</v>
       </c>
       <c r="E105" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F105" t="s">
         <v>20</v>
@@ -11985,10 +11976,10 @@
         <v>21</v>
       </c>
       <c r="H105" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I105" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J105">
         <v>1</v>
@@ -12008,7 +11999,7 @@
         <v>11744841.5</v>
       </c>
       <c r="E106" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F106" t="s">
         <v>20</v>
@@ -12017,10 +12008,10 @@
         <v>22</v>
       </c>
       <c r="H106" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I106" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J106">
         <v>4</v>
@@ -12049,10 +12040,10 @@
         <v>24</v>
       </c>
       <c r="H107" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I107" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J107">
         <v>5</v>
@@ -12072,7 +12063,7 @@
         <v>6176702.5</v>
       </c>
       <c r="E108" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F108" t="s">
         <v>9</v>
@@ -12081,10 +12072,10 @@
         <v>12</v>
       </c>
       <c r="H108" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I108" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J108">
         <v>1</v>
@@ -12104,7 +12095,7 @@
         <v>6176702.5</v>
       </c>
       <c r="E109" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F109" t="s">
         <v>5</v>
@@ -12113,10 +12104,10 @@
         <v>8</v>
       </c>
       <c r="H109" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I109" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J109">
         <v>5</v>
@@ -12136,7 +12127,7 @@
         <v>17282878.5</v>
       </c>
       <c r="E110" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F110" t="s">
         <v>9</v>
@@ -12145,10 +12136,10 @@
         <v>12</v>
       </c>
       <c r="H110" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I110" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J110">
         <v>3</v>
@@ -12168,7 +12159,7 @@
         <v>17282878.5</v>
       </c>
       <c r="E111" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F111" t="s">
         <v>5</v>
@@ -12177,10 +12168,10 @@
         <v>7</v>
       </c>
       <c r="H111" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I111" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J111">
         <v>1</v>
@@ -12200,7 +12191,7 @@
         <v>32715435</v>
       </c>
       <c r="E112" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F112" t="s">
         <v>20</v>
@@ -12209,10 +12200,10 @@
         <v>22</v>
       </c>
       <c r="H112" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I112" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J112">
         <v>4</v>
@@ -12232,7 +12223,7 @@
         <v>32715435</v>
       </c>
       <c r="E113" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F113" t="s">
         <v>20</v>
@@ -12241,10 +12232,10 @@
         <v>21</v>
       </c>
       <c r="H113" t="s">
+        <v>137</v>
+      </c>
+      <c r="I113" t="s">
         <v>140</v>
-      </c>
-      <c r="I113" t="s">
-        <v>143</v>
       </c>
       <c r="J113">
         <v>3</v>
@@ -12273,10 +12264,10 @@
         <v>24</v>
       </c>
       <c r="H114" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I114" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J114">
         <v>2</v>
@@ -12296,7 +12287,7 @@
         <v>38279760.5</v>
       </c>
       <c r="E115" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F115" t="s">
         <v>5</v>
@@ -12305,10 +12296,10 @@
         <v>6</v>
       </c>
       <c r="H115" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I115" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J115">
         <v>1</v>
@@ -12328,7 +12319,7 @@
         <v>38279760.5</v>
       </c>
       <c r="E116" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F116" t="s">
         <v>5</v>
@@ -12337,10 +12328,10 @@
         <v>7</v>
       </c>
       <c r="H116" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I116" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J116">
         <v>4</v>
@@ -12360,7 +12351,7 @@
         <v>49390983</v>
       </c>
       <c r="E117" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F117" t="s">
         <v>15</v>
@@ -12369,10 +12360,10 @@
         <v>15</v>
       </c>
       <c r="H117" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I117" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J117">
         <v>1</v>
@@ -12392,7 +12383,7 @@
         <v>49390983</v>
       </c>
       <c r="E118" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F118" t="s">
         <v>16</v>
@@ -12401,10 +12392,10 @@
         <v>17</v>
       </c>
       <c r="H118" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I118" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J118">
         <v>4</v>
@@ -12424,7 +12415,7 @@
         <v>22843619.5</v>
       </c>
       <c r="E119" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F119" t="s">
         <v>5</v>
@@ -12433,10 +12424,10 @@
         <v>6</v>
       </c>
       <c r="H119" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I119" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J119">
         <v>1</v>
@@ -12456,7 +12447,7 @@
         <v>22843619.5</v>
       </c>
       <c r="E120" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F120" t="s">
         <v>5</v>
@@ -12465,10 +12456,10 @@
         <v>7</v>
       </c>
       <c r="H120" t="s">
+        <v>124</v>
+      </c>
+      <c r="I120" t="s">
         <v>125</v>
-      </c>
-      <c r="I120" t="s">
-        <v>126</v>
       </c>
       <c r="J120">
         <v>5</v>
@@ -12488,7 +12479,7 @@
         <v>22844365</v>
       </c>
       <c r="E121" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F121" t="s">
         <v>15</v>
@@ -12497,10 +12488,10 @@
         <v>15</v>
       </c>
       <c r="H121" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I121" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J121">
         <v>3</v>
@@ -12520,7 +12511,7 @@
         <v>22844365</v>
       </c>
       <c r="E122" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F122" t="s">
         <v>16</v>
@@ -12529,10 +12520,10 @@
         <v>18</v>
       </c>
       <c r="H122" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I122" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J122">
         <v>3</v>
@@ -12552,7 +12543,7 @@
         <v>11727990</v>
       </c>
       <c r="E123" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F123" t="s">
         <v>20</v>
@@ -12561,10 +12552,10 @@
         <v>22</v>
       </c>
       <c r="H123" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I123" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J123">
         <v>3</v>
@@ -12584,7 +12575,7 @@
         <v>11727990</v>
       </c>
       <c r="E124" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F124" t="s">
         <v>20</v>
@@ -12593,10 +12584,10 @@
         <v>21</v>
       </c>
       <c r="H124" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I124" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="J124">
         <v>5</v>
@@ -12616,7 +12607,7 @@
         <v>32712688.5</v>
       </c>
       <c r="E125" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F125" t="s">
         <v>5</v>
@@ -12625,10 +12616,10 @@
         <v>7</v>
       </c>
       <c r="H125" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I125" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J125">
         <v>4</v>
@@ -12648,7 +12639,7 @@
         <v>32712688.5</v>
       </c>
       <c r="E126" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F126" t="s">
         <v>5</v>
@@ -12657,10 +12648,10 @@
         <v>8</v>
       </c>
       <c r="H126" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I126" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J126">
         <v>4</v>
@@ -12689,10 +12680,10 @@
         <v>24</v>
       </c>
       <c r="H127" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I127" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J127">
         <v>1</v>
@@ -12712,7 +12703,7 @@
         <v>28386089.5</v>
       </c>
       <c r="E128" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F128" t="s">
         <v>5</v>
@@ -12721,10 +12712,10 @@
         <v>7</v>
       </c>
       <c r="H128" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I128" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J128">
         <v>2</v>
@@ -12744,7 +12735,7 @@
         <v>28386089.5</v>
       </c>
       <c r="E129" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F129" t="s">
         <v>9</v>
@@ -12753,10 +12744,10 @@
         <v>11</v>
       </c>
       <c r="H129" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I129" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J129">
         <v>3</v>
@@ -12776,7 +12767,7 @@
         <v>17280004</v>
       </c>
       <c r="E130" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F130" t="s">
         <v>15</v>
@@ -12785,10 +12776,10 @@
         <v>15</v>
       </c>
       <c r="H130" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I130" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J130">
         <v>5</v>
@@ -12808,7 +12799,7 @@
         <v>17280004</v>
       </c>
       <c r="E131" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F131" t="s">
         <v>14</v>
@@ -12817,10 +12808,10 @@
         <v>14</v>
       </c>
       <c r="H131" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I131" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J131">
         <v>4</v>
@@ -12840,7 +12831,7 @@
         <v>27152549.5</v>
       </c>
       <c r="E132" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F132" t="s">
         <v>20</v>
@@ -12849,10 +12840,10 @@
         <v>22</v>
       </c>
       <c r="H132" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I132" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J132">
         <v>3</v>
@@ -12872,7 +12863,7 @@
         <v>27152549.5</v>
       </c>
       <c r="E133" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F133" t="s">
         <v>20</v>
@@ -12881,10 +12872,10 @@
         <v>21</v>
       </c>
       <c r="H133" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I133" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="J133">
         <v>3</v>
@@ -12913,10 +12904,10 @@
         <v>24</v>
       </c>
       <c r="H134" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I134" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J134">
         <v>2</v>
@@ -12936,7 +12927,7 @@
         <v>33947779</v>
       </c>
       <c r="E135" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F135" t="s">
         <v>15</v>
@@ -12945,10 +12936,10 @@
         <v>15</v>
       </c>
       <c r="H135" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I135" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J135">
         <v>2</v>
@@ -12968,7 +12959,7 @@
         <v>33947779</v>
       </c>
       <c r="E136" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F136" t="s">
         <v>16</v>
@@ -12977,10 +12968,10 @@
         <v>17</v>
       </c>
       <c r="H136" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I136" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J136">
         <v>3</v>
@@ -13009,10 +13000,10 @@
         <v>24</v>
       </c>
       <c r="H137" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I137" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J137">
         <v>2</v>
@@ -13032,7 +13023,7 @@
         <v>21605431.5</v>
       </c>
       <c r="E138" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F138" t="s">
         <v>5</v>
@@ -13041,10 +13032,10 @@
         <v>6</v>
       </c>
       <c r="H138" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I138" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J138">
         <v>1</v>
@@ -13064,7 +13055,7 @@
         <v>21605431.5</v>
       </c>
       <c r="E139" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F139" t="s">
         <v>9</v>
@@ -13073,10 +13064,10 @@
         <v>11</v>
       </c>
       <c r="H139" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I139" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J139">
         <v>1</v>
@@ -13096,7 +13087,7 @@
         <v>32711530.5</v>
       </c>
       <c r="E140" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F140" t="s">
         <v>20</v>
@@ -13105,10 +13096,10 @@
         <v>21</v>
       </c>
       <c r="H140" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I140" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J140">
         <v>2</v>
@@ -13128,7 +13119,7 @@
         <v>32711530.5</v>
       </c>
       <c r="E141" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F141" t="s">
         <v>20</v>
@@ -13137,10 +13128,10 @@
         <v>22</v>
       </c>
       <c r="H141" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I141" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J141">
         <v>1</v>
@@ -13160,7 +13151,7 @@
         <v>39465208</v>
       </c>
       <c r="E142" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F142" t="s">
         <v>20</v>
@@ -13169,10 +13160,10 @@
         <v>21</v>
       </c>
       <c r="H142" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I142" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J142">
         <v>3</v>
@@ -13192,7 +13183,7 @@
         <v>39465208</v>
       </c>
       <c r="E143" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F143" t="s">
         <v>20</v>
@@ -13201,10 +13192,10 @@
         <v>22</v>
       </c>
       <c r="H143" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I143" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="J143">
         <v>5</v>
@@ -13233,10 +13224,10 @@
         <v>24</v>
       </c>
       <c r="H144" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I144" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J144">
         <v>2</v>
@@ -13256,7 +13247,7 @@
         <v>16059885</v>
       </c>
       <c r="E145" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F145" t="s">
         <v>5</v>
@@ -13265,10 +13256,10 @@
         <v>8</v>
       </c>
       <c r="H145" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I145" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="J145">
         <v>2</v>
@@ -13288,7 +13279,7 @@
         <v>16059885</v>
       </c>
       <c r="E146" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F146" t="s">
         <v>9</v>
@@ -13297,10 +13288,10 @@
         <v>10</v>
       </c>
       <c r="H146" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I146" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J146">
         <v>2</v>
@@ -13320,7 +13311,7 @@
         <v>27157858.5</v>
       </c>
       <c r="E147" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F147" t="s">
         <v>14</v>
@@ -13329,10 +13320,10 @@
         <v>14</v>
       </c>
       <c r="H147" t="s">
+        <v>131</v>
+      </c>
+      <c r="I147" t="s">
         <v>133</v>
-      </c>
-      <c r="I147" t="s">
-        <v>135</v>
       </c>
       <c r="J147">
         <v>4</v>
@@ -13352,7 +13343,7 @@
         <v>27157858.5</v>
       </c>
       <c r="E148" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F148" t="s">
         <v>16</v>
@@ -13361,10 +13352,10 @@
         <v>17</v>
       </c>
       <c r="H148" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I148" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J148">
         <v>2</v>
@@ -13390,7 +13381,7 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -13420,7 +13411,7 @@
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -13448,27 +13439,27 @@
   <sheetData>
     <row r="2" spans="2:7">
       <c r="B2" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="E2" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="F2" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="G2" s="26" t="s">
         <v>197</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="41.25" customHeight="1">
       <c r="B3" s="28" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C3" s="29">
         <v>26957145.600000001</v>
@@ -13477,20 +13468,20 @@
         <v>2024</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F3" s="30">
         <f t="shared" ref="F3:F42" ca="1" si="0">(C3*0.2) + RANDBETWEEN(0, 25000)</f>
-        <v>5404089.120000001</v>
+        <v>5409373.120000001</v>
       </c>
       <c r="G3" s="29">
         <f t="shared" ref="G3:G42" ca="1" si="1">C3-F3</f>
-        <v>21553056.48</v>
+        <v>21547772.48</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="28" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C4" s="29">
         <v>40426848</v>
@@ -13499,20 +13490,20 @@
         <v>2023</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F4" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>8095669.6000000006</v>
+        <v>8107187.6000000006</v>
       </c>
       <c r="G4" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>32331178.399999999</v>
+        <v>32319660.399999999</v>
       </c>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="28" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C5" s="29">
         <v>53896550.399999999</v>
@@ -13521,20 +13512,20 @@
         <v>2022</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F5" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>10799029.08</v>
+        <v>10799345.08</v>
       </c>
       <c r="G5" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>43097521.32</v>
+        <v>43097205.32</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="30" customHeight="1">
       <c r="B6" s="28" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C6" s="29">
         <v>67366252.799999997</v>
@@ -13543,20 +13534,20 @@
         <v>2019</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F6" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>13491867.560000001</v>
+        <v>13493868.560000001</v>
       </c>
       <c r="G6" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>53874385.239999995</v>
+        <v>53872384.239999995</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="30" customHeight="1">
       <c r="B7" s="28" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C7" s="29">
         <v>80835955.199999988</v>
@@ -13565,20 +13556,20 @@
         <v>2024</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F7" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>16187574.039999999</v>
+        <v>16181093.039999999</v>
       </c>
       <c r="G7" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>64648381.159999989</v>
+        <v>64654862.159999989</v>
       </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="28" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C8" s="29">
         <v>94305657.600000009</v>
@@ -13587,20 +13578,20 @@
         <v>2023</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F8" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>18881536.520000003</v>
+        <v>18867442.520000003</v>
       </c>
       <c r="G8" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>75424121.080000013</v>
+        <v>75438215.080000013</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="30" customHeight="1">
       <c r="B9" s="28" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C9" s="29">
         <v>107760576</v>
@@ -13609,20 +13600,20 @@
         <v>2022</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F9" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>21555904.200000003</v>
+        <v>21559430.200000003</v>
       </c>
       <c r="G9" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>86204671.799999997</v>
+        <v>86201145.799999997</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="28" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C10" s="29">
         <v>121082438.40000001</v>
@@ -13631,20 +13622,20 @@
         <v>2019</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F10" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>24231208.680000003</v>
+        <v>24237554.680000003</v>
       </c>
       <c r="G10" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>96851229.719999999</v>
+        <v>96844883.719999999</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="30" customHeight="1">
       <c r="B11" s="28" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C11" s="29">
         <v>133073740.8</v>
@@ -13653,20 +13644,20 @@
         <v>2024</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F11" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>26636186.16</v>
+        <v>26629565.16</v>
       </c>
       <c r="G11" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>106437554.64</v>
+        <v>106444175.64</v>
       </c>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="28" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C12" s="29">
         <v>146543443.19999999</v>
@@ -13675,20 +13666,20 @@
         <v>2023</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F12" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>29316905.640000001</v>
+        <v>29325892.640000001</v>
       </c>
       <c r="G12" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>117226537.55999999</v>
+        <v>117217550.55999999</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="28" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C13" s="29">
         <v>16608345.6</v>
@@ -13697,20 +13688,20 @@
         <v>2022</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F13" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>3327341.12</v>
+        <v>3326379.12</v>
       </c>
       <c r="G13" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>13281004.48</v>
+        <v>13281966.48</v>
       </c>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="28" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C14" s="29">
         <v>33034848</v>
@@ -13719,20 +13710,20 @@
         <v>2019</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F14" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>6628059.6000000006</v>
+        <v>6628213.6000000006</v>
       </c>
       <c r="G14" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>26406788.399999999</v>
+        <v>26406634.399999999</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="30" customHeight="1">
       <c r="B15" s="28" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C15" s="29">
         <v>49461350.399999999</v>
@@ -13741,20 +13732,20 @@
         <v>2020</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F15" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>9899892.0800000001</v>
+        <v>9914026.0800000001</v>
       </c>
       <c r="G15" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>39561458.32</v>
+        <v>39547324.32</v>
       </c>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="28" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C16" s="29">
         <v>65887852.799999997</v>
@@ -13763,20 +13754,20 @@
         <v>2020</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F16" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>13189715.560000001</v>
+        <v>13194535.560000001</v>
       </c>
       <c r="G16" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>52698137.239999995</v>
+        <v>52693317.239999995</v>
       </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="28" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C17" s="29">
         <v>82314355.199999988</v>
@@ -13785,20 +13776,20 @@
         <v>2020</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F17" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>16484598.039999999</v>
+        <v>16485566.039999999</v>
       </c>
       <c r="G17" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>65829757.159999989</v>
+        <v>65828789.159999989</v>
       </c>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="28" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C18" s="29">
         <v>98740857.600000009</v>
@@ -13807,20 +13798,20 @@
         <v>2020</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F18" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>19752562.520000003</v>
+        <v>19763152.520000003</v>
       </c>
       <c r="G18" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>78988295.080000013</v>
+        <v>78977705.080000013</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="30" customHeight="1">
       <c r="B19" s="28" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C19" s="29">
         <v>115152576</v>
@@ -13829,20 +13820,20 @@
         <v>2020</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F19" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>23035079.200000003</v>
+        <v>23050906.200000003</v>
       </c>
       <c r="G19" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>92117496.799999997</v>
+        <v>92101669.799999997</v>
       </c>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="28" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C20" s="29">
         <v>131431238.40000001</v>
@@ -13851,20 +13842,20 @@
         <v>2020</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F20" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>26292467.680000003</v>
+        <v>26289403.680000003</v>
       </c>
       <c r="G20" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>105138770.72</v>
+        <v>105141834.72</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="30" customHeight="1">
       <c r="B21" s="28" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C21" s="29">
         <v>146379340.80000001</v>
@@ -13873,20 +13864,20 @@
         <v>2017</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F21" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>29287686.160000004</v>
+        <v>29290290.160000004</v>
       </c>
       <c r="G21" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>117091654.64000002</v>
+        <v>117089050.64000002</v>
       </c>
     </row>
     <row r="22" spans="2:7">
       <c r="B22" s="28" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C22" s="29">
         <v>14965843.199999999</v>
@@ -13895,20 +13886,20 @@
         <v>2017</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F22" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>2994501.64</v>
+        <v>2999546.64</v>
       </c>
       <c r="G22" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>11971341.559999999</v>
+        <v>11966296.559999999</v>
       </c>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="28" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C23" s="29">
         <v>31392345.600000001</v>
@@ -13917,20 +13908,20 @@
         <v>2017</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F23" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>6282105.120000001</v>
+        <v>6285342.120000001</v>
       </c>
       <c r="G23" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>25110240.48</v>
+        <v>25107003.48</v>
       </c>
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="28" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C24" s="29">
         <v>47818848</v>
@@ -13939,20 +13930,20 @@
         <v>2017</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F24" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>9567986.5999999996</v>
+        <v>9580107.5999999996</v>
       </c>
       <c r="G24" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>38250861.399999999</v>
+        <v>38238740.399999999</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="30" customHeight="1">
       <c r="B25" s="28" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C25" s="29">
         <v>64245350.399999999</v>
@@ -13961,20 +13952,20 @@
         <v>2017</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F25" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>12856954.08</v>
+        <v>12873095.08</v>
       </c>
       <c r="G25" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>51388396.32</v>
+        <v>51372255.32</v>
       </c>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="28" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C26" s="29">
         <v>80671852.799999997</v>
@@ -13983,20 +13974,20 @@
         <v>2017</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F26" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>16153340.560000001</v>
+        <v>16150608.560000001</v>
       </c>
       <c r="G26" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>64518512.239999995</v>
+        <v>64521244.239999995</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="30" customHeight="1">
       <c r="B27" s="28" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C27" s="29">
         <v>97098355.199999988</v>
@@ -14005,20 +13996,20 @@
         <v>2017</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F27" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>19421123.039999999</v>
+        <v>19442762.039999999</v>
       </c>
       <c r="G27" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>77677232.159999996</v>
+        <v>77655593.159999996</v>
       </c>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="28" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C28" s="29">
         <v>113524857.59999999</v>
@@ -14027,20 +14018,20 @@
         <v>2015</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F28" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>22728032.52</v>
+        <v>22725261.52</v>
       </c>
       <c r="G28" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>90796825.079999998</v>
+        <v>90799596.079999998</v>
       </c>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="28" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C29" s="29">
         <v>129936576</v>
@@ -14049,20 +14040,20 @@
         <v>2015</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F29" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>26009817.200000003</v>
+        <v>25987964.200000003</v>
       </c>
       <c r="G29" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>103926758.8</v>
+        <v>103948611.8</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="30" customHeight="1">
       <c r="B30" s="28" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C30" s="29">
         <v>146215238.40000001</v>
@@ -14071,20 +14062,20 @@
         <v>2015</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F30" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>29263054.680000003</v>
+        <v>29252628.680000003</v>
       </c>
       <c r="G30" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>116952183.72</v>
+        <v>116962609.72</v>
       </c>
     </row>
     <row r="31" spans="2:7">
       <c r="B31" s="28" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C31" s="29">
         <v>28107340.800000001</v>
@@ -14093,20 +14084,20 @@
         <v>2015</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F31" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>5639296.1600000001</v>
+        <v>5643197.1600000001</v>
       </c>
       <c r="G31" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>22468044.640000001</v>
+        <v>22464143.640000001</v>
       </c>
     </row>
     <row r="32" spans="2:7">
       <c r="B32" s="28" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C32" s="29">
         <v>44533843.200000003</v>
@@ -14115,20 +14106,20 @@
         <v>2015</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F32" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>8921939.6400000006</v>
+        <v>8915597.6400000006</v>
       </c>
       <c r="G32" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>35611903.560000002</v>
+        <v>35618245.560000002</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="30" customHeight="1">
       <c r="B33" s="28" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C33" s="29">
         <v>60960345.599999987</v>
@@ -14137,20 +14128,20 @@
         <v>2015</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F33" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>12203794.119999997</v>
+        <v>12216261.119999997</v>
       </c>
       <c r="G33" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>48756551.479999989</v>
+        <v>48744084.479999989</v>
       </c>
     </row>
     <row r="34" spans="2:7">
       <c r="B34" s="28" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C34" s="29">
         <v>77386848</v>
@@ -14159,20 +14150,20 @@
         <v>2015</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F34" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>15501443.600000001</v>
+        <v>15491432.600000001</v>
       </c>
       <c r="G34" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>61885404.399999999</v>
+        <v>61895415.399999999</v>
       </c>
     </row>
     <row r="35" spans="2:7">
       <c r="B35" s="28" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C35" s="29">
         <v>93813350.399999991</v>
@@ -14181,20 +14172,20 @@
         <v>2015</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F35" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>18783520.079999998</v>
+        <v>18776520.079999998</v>
       </c>
       <c r="G35" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>75029830.319999993</v>
+        <v>75036830.319999993</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="30" customHeight="1">
       <c r="B36" s="28" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C36" s="29">
         <v>110239852.8</v>
@@ -14203,20 +14194,20 @@
         <v>2015</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F36" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>22049630.560000002</v>
+        <v>22066103.560000002</v>
       </c>
       <c r="G36" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>88190222.239999995</v>
+        <v>88173749.239999995</v>
       </c>
     </row>
     <row r="37" spans="2:7">
       <c r="B37" s="28" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C37" s="29">
         <v>126666355.2</v>
@@ -14225,20 +14216,20 @@
         <v>2015</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F37" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>25351024.040000003</v>
+        <v>25354069.040000003</v>
       </c>
       <c r="G37" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>101315331.16</v>
+        <v>101312286.16</v>
       </c>
     </row>
     <row r="38" spans="2:7">
       <c r="B38" s="28" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C38" s="29">
         <v>143092857.59999999</v>
@@ -14247,20 +14238,20 @@
         <v>2015</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F38" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>28620712.52</v>
+        <v>28625650.52</v>
       </c>
       <c r="G38" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>114472145.08</v>
+        <v>114467207.08</v>
       </c>
     </row>
     <row r="39" spans="2:7" ht="30" customHeight="1">
       <c r="B39" s="28" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C39" s="29">
         <v>26448576</v>
@@ -14269,20 +14260,20 @@
         <v>2015</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F39" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>5291745.2</v>
+        <v>5297750.2</v>
       </c>
       <c r="G39" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>21156830.800000001</v>
+        <v>21150825.800000001</v>
       </c>
     </row>
     <row r="40" spans="2:7">
       <c r="B40" s="28" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C40" s="29">
         <v>42727238.399999999</v>
@@ -14291,20 +14282,20 @@
         <v>2015</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F40" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>8550411.6799999997</v>
+        <v>8560994.6799999997</v>
       </c>
       <c r="G40" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>34176826.719999999</v>
+        <v>34166243.719999999</v>
       </c>
     </row>
     <row r="41" spans="2:7">
       <c r="B41" s="28" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C41" s="29">
         <v>57675340.799999997</v>
@@ -14313,20 +14304,20 @@
         <v>2015</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F41" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>11558731.16</v>
+        <v>11548357.16</v>
       </c>
       <c r="G41" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>46116609.640000001</v>
+        <v>46126983.640000001</v>
       </c>
     </row>
     <row r="42" spans="2:7">
       <c r="B42" s="28" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C42" s="29">
         <v>74101843.200000003</v>
@@ -14335,15 +14326,15 @@
         <v>2015</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F42" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>14831530.640000001</v>
+        <v>14830998.640000001</v>
       </c>
       <c r="G42" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>59270312.560000002</v>
+        <v>59270844.560000002</v>
       </c>
     </row>
   </sheetData>
@@ -14379,10 +14370,10 @@
         <v>94</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="2:6">
@@ -14453,7 +14444,7 @@
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="31" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C41" s="31">
         <v>6</v>
@@ -14471,7 +14462,7 @@
     </row>
     <row r="42" spans="2:6">
       <c r="B42" s="31" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C42" s="31">
         <v>7</v>
@@ -14528,13 +14519,13 @@
         <v>99</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -14542,7 +14533,7 @@
         <v>114</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C2" s="8">
         <v>1</v>
@@ -14554,10 +14545,10 @@
         <v>2</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -14579,10 +14570,10 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -14603,10 +14594,10 @@
         <v>11</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -14627,10 +14618,10 @@
         <v>11</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -14651,10 +14642,10 @@
         <v>14</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -14676,10 +14667,10 @@
         <v>6</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -14701,10 +14692,10 @@
         <v>10</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H8" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -14726,10 +14717,10 @@
         <v>13</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -14751,10 +14742,10 @@
         <v>12</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H10" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -14776,10 +14767,10 @@
         <v>13</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H11" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -14801,7 +14792,7 @@
         <v>8</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -14823,10 +14814,10 @@
         <v>6</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H13" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -14848,7 +14839,7 @@
         <v>12</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -14871,7 +14862,7 @@
       </c>
       <c r="F15" s="3"/>
       <c r="G15" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -14893,7 +14884,7 @@
         <v>12</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -14915,10 +14906,10 @@
         <v>8</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H17" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -14940,7 +14931,7 @@
         <v>7</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -14962,7 +14953,7 @@
         <v>9</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -14984,7 +14975,7 @@
         <v>12</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -15007,7 +14998,7 @@
       </c>
       <c r="F21" s="3"/>
       <c r="G21" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -15029,7 +15020,7 @@
         <v>3</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -15051,7 +15042,7 @@
         <v>6</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -15073,7 +15064,7 @@
         <v>12</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -15095,7 +15086,7 @@
         <v>11</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -15117,7 +15108,7 @@
         <v>12</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -15139,7 +15130,7 @@
         <v>6</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -15161,10 +15152,10 @@
         <v>5</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H28" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -15186,10 +15177,10 @@
         <v>9</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H29" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -15211,7 +15202,7 @@
         <v>12</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -15233,7 +15224,7 @@
         <v>12</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -15256,7 +15247,7 @@
       </c>
       <c r="F32" s="3"/>
       <c r="G32" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -15278,10 +15269,10 @@
         <v>7</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H33" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -15303,10 +15294,10 @@
         <v>13</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H34" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -15328,10 +15319,10 @@
         <v>14</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H35" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -15353,10 +15344,10 @@
         <v>14</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H36" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -15378,7 +15369,7 @@
         <v>8</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -15400,7 +15391,7 @@
         <v>8</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -15422,7 +15413,7 @@
         <v>9</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -15444,10 +15435,10 @@
         <v>13</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H40" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -15469,10 +15460,10 @@
         <v>13</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H41" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -15494,7 +15485,7 @@
         <v>3</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -15516,7 +15507,7 @@
         <v>8</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -15538,7 +15529,7 @@
         <v>11</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -15560,7 +15551,7 @@
         <v>12</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -15582,7 +15573,7 @@
         <v>15</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -15604,7 +15595,7 @@
         <v>4</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -15626,7 +15617,7 @@
         <v>7</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -15648,7 +15639,7 @@
         <v>11</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -15670,7 +15661,7 @@
         <v>11</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -15692,7 +15683,7 @@
         <v>10</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -15712,30 +15703,30 @@
   <sheetData>
     <row r="1" spans="1:5" ht="30.75" customHeight="1">
       <c r="A1" s="34" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1" s="34" t="s">
         <v>265</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="E1" s="35" t="s">
         <v>266</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>267</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>268</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D2">
         <v>21</v>
@@ -15746,13 +15737,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D3">
         <v>20</v>
@@ -15763,13 +15754,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D4">
         <v>19</v>
@@ -15780,13 +15771,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D5">
         <v>18</v>
@@ -15797,13 +15788,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D6">
         <v>17</v>
@@ -15814,13 +15805,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D7">
         <v>16</v>
@@ -15831,13 +15822,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C8" t="s">
         <v>257</v>
-      </c>
-      <c r="C8" t="s">
-        <v>260</v>
       </c>
       <c r="D8">
         <v>15</v>
@@ -15848,13 +15839,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B9" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C9" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D9">
         <v>14</v>
@@ -15865,13 +15856,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B10" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C10" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D10">
         <v>13</v>
@@ -15882,13 +15873,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B11" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C11" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D11">
         <v>12</v>
@@ -15899,13 +15890,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B12" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C12" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -15916,13 +15907,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B13" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C13" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D13">
         <v>10</v>
@@ -15933,13 +15924,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B14" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C14" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D14">
         <v>9</v>
@@ -15950,13 +15941,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B15" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C15" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D15">
         <v>8</v>
@@ -15967,13 +15958,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B16" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C16" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D16">
         <v>7</v>
@@ -15984,13 +15975,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B17" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C17" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D17">
         <v>6</v>
@@ -16001,13 +15992,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B18" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C18" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D18">
         <v>5</v>
@@ -16018,13 +16009,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B19" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C19" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D19">
         <v>4</v>
@@ -16035,13 +16026,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B20" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C20" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -16052,13 +16043,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B21" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C21" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -16069,7 +16060,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="C22" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -16080,13 +16071,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B23" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C23" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -16094,10 +16085,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C24" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -16105,7 +16096,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="C25" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D25">
         <v>1</v>

--- a/Sample_Bank_Data/MAR 2024.xlsx
+++ b/Sample_Bank_Data/MAR 2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91636\Downloads\data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{935129A4-0610-448D-A2D1-F9D6BF2E1EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D277F55-DA9A-4A53-8BD7-BE7679853EBB}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{935129A4-0610-448D-A2D1-F9D6BF2E1EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{898F0793-188D-4F66-97F8-7D67E1BAC682}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collateral Types" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1825" uniqueCount="306">
   <si>
     <t>Collateral Types</t>
   </si>
@@ -3472,8 +3472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AD52"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection sqref="A1:A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8619,7 +8619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:J148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -13421,10 +13421,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B2:G42"/>
+  <dimension ref="A2:G42"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13437,7 +13437,10 @@
     <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
       <c r="B2" s="25" t="s">
         <v>192</v>
       </c>
@@ -13457,7 +13460,10 @@
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="41.25" customHeight="1">
+    <row r="3" spans="1:7" ht="41.25" customHeight="1">
+      <c r="A3" t="s">
+        <v>114</v>
+      </c>
       <c r="B3" s="28" t="s">
         <v>198</v>
       </c>
@@ -13472,14 +13478,17 @@
       </c>
       <c r="F3" s="30">
         <f t="shared" ref="F3:F42" ca="1" si="0">(C3*0.2) + RANDBETWEEN(0, 25000)</f>
-        <v>5409373.120000001</v>
+        <v>5415788.120000001</v>
       </c>
       <c r="G3" s="29">
         <f t="shared" ref="G3:G42" ca="1" si="1">C3-F3</f>
-        <v>21547772.48</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7">
+        <v>21541357.48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
       <c r="B4" s="28" t="s">
         <v>200</v>
       </c>
@@ -13494,14 +13503,17 @@
       </c>
       <c r="F4" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>8107187.6000000006</v>
+        <v>8090959.6000000006</v>
       </c>
       <c r="G4" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>32319660.399999999</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7">
+        <v>32335888.399999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
       <c r="B5" s="28" t="s">
         <v>201</v>
       </c>
@@ -13516,14 +13528,17 @@
       </c>
       <c r="F5" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>10799345.08</v>
+        <v>10802193.08</v>
       </c>
       <c r="G5" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>43097205.32</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="30" customHeight="1">
+        <v>43094357.32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" customHeight="1">
+      <c r="A6" t="s">
+        <v>114</v>
+      </c>
       <c r="B6" s="28" t="s">
         <v>202</v>
       </c>
@@ -13538,14 +13553,17 @@
       </c>
       <c r="F6" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>13493868.560000001</v>
+        <v>13489122.560000001</v>
       </c>
       <c r="G6" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>53872384.239999995</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="30" customHeight="1">
+        <v>53877130.239999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" customHeight="1">
+      <c r="A7" t="s">
+        <v>114</v>
+      </c>
       <c r="B7" s="28" t="s">
         <v>203</v>
       </c>
@@ -13560,14 +13578,17 @@
       </c>
       <c r="F7" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>16181093.039999999</v>
+        <v>16177873.039999999</v>
       </c>
       <c r="G7" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>64654862.159999989</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
+        <v>64658082.159999989</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>114</v>
+      </c>
       <c r="B8" s="28" t="s">
         <v>204</v>
       </c>
@@ -13582,14 +13603,17 @@
       </c>
       <c r="F8" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>18867442.520000003</v>
+        <v>18867369.520000003</v>
       </c>
       <c r="G8" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>75438215.080000013</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="30" customHeight="1">
+        <v>75438288.080000013</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1">
+      <c r="A9" t="s">
+        <v>114</v>
+      </c>
       <c r="B9" s="28" t="s">
         <v>205</v>
       </c>
@@ -13604,14 +13628,17 @@
       </c>
       <c r="F9" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>21559430.200000003</v>
+        <v>21567776.200000003</v>
       </c>
       <c r="G9" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>86201145.799999997</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
+        <v>86192799.799999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>114</v>
+      </c>
       <c r="B10" s="28" t="s">
         <v>206</v>
       </c>
@@ -13626,14 +13653,17 @@
       </c>
       <c r="F10" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>24237554.680000003</v>
+        <v>24225509.680000003</v>
       </c>
       <c r="G10" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>96844883.719999999</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="30" customHeight="1">
+        <v>96856928.719999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1">
+      <c r="A11" t="s">
+        <v>114</v>
+      </c>
       <c r="B11" s="28" t="s">
         <v>207</v>
       </c>
@@ -13648,14 +13678,17 @@
       </c>
       <c r="F11" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>26629565.16</v>
+        <v>26626073.16</v>
       </c>
       <c r="G11" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>106444175.64</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7">
+        <v>106447667.64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>114</v>
+      </c>
       <c r="B12" s="28" t="s">
         <v>208</v>
       </c>
@@ -13670,14 +13703,17 @@
       </c>
       <c r="F12" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>29325892.640000001</v>
+        <v>29317991.640000001</v>
       </c>
       <c r="G12" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>117217550.55999999</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7">
+        <v>117225451.55999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>114</v>
+      </c>
       <c r="B13" s="28" t="s">
         <v>209</v>
       </c>
@@ -13692,14 +13728,17 @@
       </c>
       <c r="F13" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>3326379.12</v>
+        <v>3326392.12</v>
       </c>
       <c r="G13" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>13281966.48</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7">
+        <v>13281953.48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>114</v>
+      </c>
       <c r="B14" s="28" t="s">
         <v>210</v>
       </c>
@@ -13714,14 +13753,17 @@
       </c>
       <c r="F14" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>6628213.6000000006</v>
+        <v>6621689.6000000006</v>
       </c>
       <c r="G14" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>26406634.399999999</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="30" customHeight="1">
+        <v>26413158.399999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" customHeight="1">
+      <c r="A15" t="s">
+        <v>114</v>
+      </c>
       <c r="B15" s="28" t="s">
         <v>211</v>
       </c>
@@ -13736,14 +13778,17 @@
       </c>
       <c r="F15" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>9914026.0800000001</v>
+        <v>9916383.0800000001</v>
       </c>
       <c r="G15" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>39547324.32</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7">
+        <v>39544967.32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>114</v>
+      </c>
       <c r="B16" s="28" t="s">
         <v>212</v>
       </c>
@@ -13758,14 +13803,17 @@
       </c>
       <c r="F16" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>13194535.560000001</v>
+        <v>13196746.560000001</v>
       </c>
       <c r="G16" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>52693317.239999995</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
+        <v>52691106.239999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>114</v>
+      </c>
       <c r="B17" s="28" t="s">
         <v>213</v>
       </c>
@@ -13780,14 +13828,17 @@
       </c>
       <c r="F17" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>16485566.039999999</v>
+        <v>16481891.039999999</v>
       </c>
       <c r="G17" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>65828789.159999989</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7">
+        <v>65832464.159999989</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>114</v>
+      </c>
       <c r="B18" s="28" t="s">
         <v>214</v>
       </c>
@@ -13802,14 +13853,17 @@
       </c>
       <c r="F18" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>19763152.520000003</v>
+        <v>19752089.520000003</v>
       </c>
       <c r="G18" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>78977705.080000013</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="30" customHeight="1">
+        <v>78988768.080000013</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" customHeight="1">
+      <c r="A19" t="s">
+        <v>114</v>
+      </c>
       <c r="B19" s="28" t="s">
         <v>216</v>
       </c>
@@ -13824,14 +13878,17 @@
       </c>
       <c r="F19" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>23050906.200000003</v>
+        <v>23030734.200000003</v>
       </c>
       <c r="G19" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>92101669.799999997</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7">
+        <v>92121841.799999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>114</v>
+      </c>
       <c r="B20" s="28" t="s">
         <v>217</v>
       </c>
@@ -13846,14 +13903,17 @@
       </c>
       <c r="F20" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>26289403.680000003</v>
+        <v>26289543.680000003</v>
       </c>
       <c r="G20" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>105141834.72</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="30" customHeight="1">
+        <v>105141694.72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" customHeight="1">
+      <c r="A21" t="s">
+        <v>114</v>
+      </c>
       <c r="B21" s="28" t="s">
         <v>218</v>
       </c>
@@ -13868,14 +13928,17 @@
       </c>
       <c r="F21" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>29290290.160000004</v>
+        <v>29275934.160000004</v>
       </c>
       <c r="G21" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>117089050.64000002</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7">
+        <v>117103406.64000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>114</v>
+      </c>
       <c r="B22" s="28" t="s">
         <v>219</v>
       </c>
@@ -13890,14 +13953,17 @@
       </c>
       <c r="F22" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>2999546.64</v>
+        <v>3009245.64</v>
       </c>
       <c r="G22" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>11966296.559999999</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7">
+        <v>11956597.559999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>114</v>
+      </c>
       <c r="B23" s="28" t="s">
         <v>220</v>
       </c>
@@ -13912,14 +13978,17 @@
       </c>
       <c r="F23" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>6285342.120000001</v>
+        <v>6285531.120000001</v>
       </c>
       <c r="G23" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>25107003.48</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7">
+        <v>25106814.48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>114</v>
+      </c>
       <c r="B24" s="28" t="s">
         <v>221</v>
       </c>
@@ -13934,14 +14003,17 @@
       </c>
       <c r="F24" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>9580107.5999999996</v>
+        <v>9577146.5999999996</v>
       </c>
       <c r="G24" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>38238740.399999999</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="30" customHeight="1">
+        <v>38241701.399999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="30" customHeight="1">
+      <c r="A25" t="s">
+        <v>114</v>
+      </c>
       <c r="B25" s="28" t="s">
         <v>222</v>
       </c>
@@ -13956,14 +14028,17 @@
       </c>
       <c r="F25" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>12873095.08</v>
+        <v>12851321.08</v>
       </c>
       <c r="G25" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>51372255.32</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7">
+        <v>51394029.32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>114</v>
+      </c>
       <c r="B26" s="28" t="s">
         <v>223</v>
       </c>
@@ -13978,14 +14053,17 @@
       </c>
       <c r="F26" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>16150608.560000001</v>
+        <v>16158891.560000001</v>
       </c>
       <c r="G26" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>64521244.239999995</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="30" customHeight="1">
+        <v>64512961.239999995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30" customHeight="1">
+      <c r="A27" t="s">
+        <v>114</v>
+      </c>
       <c r="B27" s="28" t="s">
         <v>224</v>
       </c>
@@ -14000,14 +14078,17 @@
       </c>
       <c r="F27" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>19442762.039999999</v>
+        <v>19435072.039999999</v>
       </c>
       <c r="G27" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>77655593.159999996</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7">
+        <v>77663283.159999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>114</v>
+      </c>
       <c r="B28" s="28" t="s">
         <v>225</v>
       </c>
@@ -14022,14 +14103,17 @@
       </c>
       <c r="F28" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>22725261.52</v>
+        <v>22713684.52</v>
       </c>
       <c r="G28" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>90799596.079999998</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7">
+        <v>90811173.079999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>114</v>
+      </c>
       <c r="B29" s="28" t="s">
         <v>226</v>
       </c>
@@ -14044,14 +14128,17 @@
       </c>
       <c r="F29" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>25987964.200000003</v>
+        <v>26012110.200000003</v>
       </c>
       <c r="G29" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>103948611.8</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="30" customHeight="1">
+        <v>103924465.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" customHeight="1">
+      <c r="A30" t="s">
+        <v>114</v>
+      </c>
       <c r="B30" s="28" t="s">
         <v>227</v>
       </c>
@@ -14066,14 +14153,17 @@
       </c>
       <c r="F30" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>29252628.680000003</v>
+        <v>29261666.680000003</v>
       </c>
       <c r="G30" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>116962609.72</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7">
+        <v>116953571.72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>114</v>
+      </c>
       <c r="B31" s="28" t="s">
         <v>228</v>
       </c>
@@ -14088,14 +14178,17 @@
       </c>
       <c r="F31" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>5643197.1600000001</v>
+        <v>5632809.1600000001</v>
       </c>
       <c r="G31" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>22464143.640000001</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7">
+        <v>22474531.640000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>114</v>
+      </c>
       <c r="B32" s="28" t="s">
         <v>229</v>
       </c>
@@ -14110,14 +14203,17 @@
       </c>
       <c r="F32" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>8915597.6400000006</v>
+        <v>8927052.6400000006</v>
       </c>
       <c r="G32" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>35618245.560000002</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" ht="30" customHeight="1">
+        <v>35606790.560000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30" customHeight="1">
+      <c r="A33" t="s">
+        <v>114</v>
+      </c>
       <c r="B33" s="28" t="s">
         <v>230</v>
       </c>
@@ -14132,14 +14228,17 @@
       </c>
       <c r="F33" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>12216261.119999997</v>
+        <v>12195817.119999997</v>
       </c>
       <c r="G33" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>48744084.479999989</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7">
+        <v>48764528.479999989</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>114</v>
+      </c>
       <c r="B34" s="28" t="s">
         <v>231</v>
       </c>
@@ -14154,14 +14253,17 @@
       </c>
       <c r="F34" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>15491432.600000001</v>
+        <v>15500115.600000001</v>
       </c>
       <c r="G34" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>61895415.399999999</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7">
+        <v>61886732.399999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>114</v>
+      </c>
       <c r="B35" s="28" t="s">
         <v>232</v>
       </c>
@@ -14176,14 +14278,17 @@
       </c>
       <c r="F35" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>18776520.079999998</v>
+        <v>18777424.079999998</v>
       </c>
       <c r="G35" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>75036830.319999993</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" ht="30" customHeight="1">
+        <v>75035926.319999993</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="30" customHeight="1">
+      <c r="A36" t="s">
+        <v>114</v>
+      </c>
       <c r="B36" s="28" t="s">
         <v>233</v>
       </c>
@@ -14198,14 +14303,17 @@
       </c>
       <c r="F36" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>22066103.560000002</v>
+        <v>22062634.560000002</v>
       </c>
       <c r="G36" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>88173749.239999995</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7">
+        <v>88177218.239999995</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>114</v>
+      </c>
       <c r="B37" s="28" t="s">
         <v>234</v>
       </c>
@@ -14220,14 +14328,17 @@
       </c>
       <c r="F37" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>25354069.040000003</v>
+        <v>25354122.040000003</v>
       </c>
       <c r="G37" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>101312286.16</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7">
+        <v>101312233.16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>114</v>
+      </c>
       <c r="B38" s="28" t="s">
         <v>235</v>
       </c>
@@ -14242,14 +14353,17 @@
       </c>
       <c r="F38" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>28625650.52</v>
+        <v>28639177.52</v>
       </c>
       <c r="G38" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>114467207.08</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" ht="30" customHeight="1">
+        <v>114453680.08</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="30" customHeight="1">
+      <c r="A39" t="s">
+        <v>114</v>
+      </c>
       <c r="B39" s="28" t="s">
         <v>236</v>
       </c>
@@ -14264,14 +14378,17 @@
       </c>
       <c r="F39" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>5297750.2</v>
+        <v>5307180.2</v>
       </c>
       <c r="G39" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>21150825.800000001</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7">
+        <v>21141395.800000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>114</v>
+      </c>
       <c r="B40" s="28" t="s">
         <v>237</v>
       </c>
@@ -14286,14 +14403,17 @@
       </c>
       <c r="F40" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>8560994.6799999997</v>
+        <v>8549353.6799999997</v>
       </c>
       <c r="G40" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>34166243.719999999</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7">
+        <v>34177884.719999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>114</v>
+      </c>
       <c r="B41" s="28" t="s">
         <v>238</v>
       </c>
@@ -14308,14 +14428,17 @@
       </c>
       <c r="F41" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>11548357.16</v>
+        <v>11547559.16</v>
       </c>
       <c r="G41" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>46126983.640000001</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7">
+        <v>46127781.640000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>114</v>
+      </c>
       <c r="B42" s="28" t="s">
         <v>239</v>
       </c>
@@ -14330,11 +14453,11 @@
       </c>
       <c r="F42" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>14830998.640000001</v>
+        <v>14836907.640000001</v>
       </c>
       <c r="G42" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>59270844.560000002</v>
+        <v>59264935.560000002</v>
       </c>
     </row>
   </sheetData>
@@ -14344,10 +14467,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="B2:F42"/>
+  <dimension ref="A2:F42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14359,7 +14482,10 @@
     <col min="6" max="6" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
       <c r="B2" s="31" t="s">
         <v>25</v>
       </c>
@@ -14376,7 +14502,10 @@
         <v>241</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>114</v>
+      </c>
       <c r="B3" s="31" t="s">
         <v>47</v>
       </c>
@@ -14392,7 +14521,10 @@
         <v>46160</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
       <c r="B4" s="31" t="s">
         <v>48</v>
       </c>
@@ -14408,7 +14540,10 @@
         <v>44665</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
       <c r="B5" s="31" t="s">
         <v>51</v>
       </c>
@@ -14426,7 +14561,10 @@
         <v>45123</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>114</v>
+      </c>
       <c r="B6" s="31" t="s">
         <v>52</v>
       </c>

--- a/Sample_Bank_Data/MAR 2024.xlsx
+++ b/Sample_Bank_Data/MAR 2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91636\Downloads\data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{935129A4-0610-448D-A2D1-F9D6BF2E1EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{898F0793-188D-4F66-97F8-7D67E1BAC682}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{935129A4-0610-448D-A2D1-F9D6BF2E1EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67CD4E80-88AF-40BE-B85D-33D9F9D3D26F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="6" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collateral Types" sheetId="1" r:id="rId1"/>
@@ -376,13 +376,13 @@
     <t>Total Collateral</t>
   </si>
   <si>
-    <t>HC Collateral Building</t>
-  </si>
-  <si>
-    <t>HC Collateral Cash</t>
-  </si>
-  <si>
-    <t>HC Collateral Shares</t>
+    <t>HC Collateral Land &amp; Building</t>
+  </si>
+  <si>
+    <t>HC Collateral Cash, Gold &amp; Other Riskfree Assests</t>
+  </si>
+  <si>
+    <t>HC Collateral Shares &amp; Other Paper Assests</t>
   </si>
   <si>
     <t>HC Collateral Hawalat Haq</t>
@@ -3472,8 +3472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AD52"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection sqref="A1:A39"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13478,11 +13478,11 @@
       </c>
       <c r="F3" s="30">
         <f t="shared" ref="F3:F42" ca="1" si="0">(C3*0.2) + RANDBETWEEN(0, 25000)</f>
-        <v>5415788.120000001</v>
+        <v>5392364.120000001</v>
       </c>
       <c r="G3" s="29">
         <f t="shared" ref="G3:G42" ca="1" si="1">C3-F3</f>
-        <v>21541357.48</v>
+        <v>21564781.48</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -13503,11 +13503,11 @@
       </c>
       <c r="F4" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>8090959.6000000006</v>
+        <v>8109078.6000000006</v>
       </c>
       <c r="G4" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>32335888.399999999</v>
+        <v>32317769.399999999</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -13528,11 +13528,11 @@
       </c>
       <c r="F5" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>10802193.08</v>
+        <v>10801113.08</v>
       </c>
       <c r="G5" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>43094357.32</v>
+        <v>43095437.32</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1">
@@ -13553,11 +13553,11 @@
       </c>
       <c r="F6" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>13489122.560000001</v>
+        <v>13496582.560000001</v>
       </c>
       <c r="G6" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>53877130.239999995</v>
+        <v>53869670.239999995</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1">
@@ -13578,11 +13578,11 @@
       </c>
       <c r="F7" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>16177873.039999999</v>
+        <v>16168448.039999999</v>
       </c>
       <c r="G7" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>64658082.159999989</v>
+        <v>64667507.159999989</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13603,11 +13603,11 @@
       </c>
       <c r="F8" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>18867369.520000003</v>
+        <v>18866098.520000003</v>
       </c>
       <c r="G8" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>75438288.080000013</v>
+        <v>75439559.080000013</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1">
@@ -13628,11 +13628,11 @@
       </c>
       <c r="F9" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>21567776.200000003</v>
+        <v>21567789.200000003</v>
       </c>
       <c r="G9" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>86192799.799999997</v>
+        <v>86192786.799999997</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -13653,11 +13653,11 @@
       </c>
       <c r="F10" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>24225509.680000003</v>
+        <v>24229766.680000003</v>
       </c>
       <c r="G10" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>96856928.719999999</v>
+        <v>96852671.719999999</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1">
@@ -13678,11 +13678,11 @@
       </c>
       <c r="F11" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>26626073.16</v>
+        <v>26625418.16</v>
       </c>
       <c r="G11" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>106447667.64</v>
+        <v>106448322.64</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -13703,11 +13703,11 @@
       </c>
       <c r="F12" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>29317991.640000001</v>
+        <v>29322528.640000001</v>
       </c>
       <c r="G12" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>117225451.55999999</v>
+        <v>117220914.55999999</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -13728,11 +13728,11 @@
       </c>
       <c r="F13" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>3326392.12</v>
+        <v>3321870.12</v>
       </c>
       <c r="G13" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>13281953.48</v>
+        <v>13286475.48</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -13753,11 +13753,11 @@
       </c>
       <c r="F14" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>6621689.6000000006</v>
+        <v>6611754.6000000006</v>
       </c>
       <c r="G14" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>26413158.399999999</v>
+        <v>26423093.399999999</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1">
@@ -13778,11 +13778,11 @@
       </c>
       <c r="F15" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>9916383.0800000001</v>
+        <v>9893928.0800000001</v>
       </c>
       <c r="G15" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>39544967.32</v>
+        <v>39567422.32</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -13803,11 +13803,11 @@
       </c>
       <c r="F16" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>13196746.560000001</v>
+        <v>13197465.560000001</v>
       </c>
       <c r="G16" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>52691106.239999995</v>
+        <v>52690387.239999995</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -13828,11 +13828,11 @@
       </c>
       <c r="F17" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>16481891.039999999</v>
+        <v>16462922.039999999</v>
       </c>
       <c r="G17" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>65832464.159999989</v>
+        <v>65851433.159999989</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -13853,11 +13853,11 @@
       </c>
       <c r="F18" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>19752089.520000003</v>
+        <v>19763040.520000003</v>
       </c>
       <c r="G18" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>78988768.080000013</v>
+        <v>78977817.080000013</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30" customHeight="1">
@@ -13878,11 +13878,11 @@
       </c>
       <c r="F19" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>23030734.200000003</v>
+        <v>23049030.200000003</v>
       </c>
       <c r="G19" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>92121841.799999997</v>
+        <v>92103545.799999997</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -13903,11 +13903,11 @@
       </c>
       <c r="F20" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>26289543.680000003</v>
+        <v>26306045.680000003</v>
       </c>
       <c r="G20" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>105141694.72</v>
+        <v>105125192.72</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="30" customHeight="1">
@@ -13928,11 +13928,11 @@
       </c>
       <c r="F21" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>29275934.160000004</v>
+        <v>29296666.160000004</v>
       </c>
       <c r="G21" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>117103406.64000002</v>
+        <v>117082674.64000002</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -13953,11 +13953,11 @@
       </c>
       <c r="F22" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>3009245.64</v>
+        <v>3016564.64</v>
       </c>
       <c r="G22" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>11956597.559999999</v>
+        <v>11949278.559999999</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -13978,11 +13978,11 @@
       </c>
       <c r="F23" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>6285531.120000001</v>
+        <v>6281747.120000001</v>
       </c>
       <c r="G23" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>25106814.48</v>
+        <v>25110598.48</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -14003,11 +14003,11 @@
       </c>
       <c r="F24" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>9577146.5999999996</v>
+        <v>9578205.5999999996</v>
       </c>
       <c r="G24" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>38241701.399999999</v>
+        <v>38240642.399999999</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="30" customHeight="1">
@@ -14028,11 +14028,11 @@
       </c>
       <c r="F25" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>12851321.08</v>
+        <v>12866885.08</v>
       </c>
       <c r="G25" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>51394029.32</v>
+        <v>51378465.32</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -14053,11 +14053,11 @@
       </c>
       <c r="F26" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>16158891.560000001</v>
+        <v>16136426.560000001</v>
       </c>
       <c r="G26" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>64512961.239999995</v>
+        <v>64535426.239999995</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="30" customHeight="1">
@@ -14078,11 +14078,11 @@
       </c>
       <c r="F27" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>19435072.039999999</v>
+        <v>19430643.039999999</v>
       </c>
       <c r="G27" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>77663283.159999996</v>
+        <v>77667712.159999996</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -14103,11 +14103,11 @@
       </c>
       <c r="F28" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>22713684.52</v>
+        <v>22714932.52</v>
       </c>
       <c r="G28" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>90811173.079999998</v>
+        <v>90809925.079999998</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -14128,11 +14128,11 @@
       </c>
       <c r="F29" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>26012110.200000003</v>
+        <v>26004727.200000003</v>
       </c>
       <c r="G29" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>103924465.8</v>
+        <v>103931848.8</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="30" customHeight="1">
@@ -14153,11 +14153,11 @@
       </c>
       <c r="F30" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>29261666.680000003</v>
+        <v>29262314.680000003</v>
       </c>
       <c r="G30" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>116953571.72</v>
+        <v>116952923.72</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -14178,11 +14178,11 @@
       </c>
       <c r="F31" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>5632809.1600000001</v>
+        <v>5643215.1600000001</v>
       </c>
       <c r="G31" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>22474531.640000001</v>
+        <v>22464125.640000001</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -14203,11 +14203,11 @@
       </c>
       <c r="F32" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>8927052.6400000006</v>
+        <v>8916235.6400000006</v>
       </c>
       <c r="G32" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>35606790.560000002</v>
+        <v>35617607.560000002</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="30" customHeight="1">
@@ -14228,11 +14228,11 @@
       </c>
       <c r="F33" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>12195817.119999997</v>
+        <v>12207710.119999997</v>
       </c>
       <c r="G33" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>48764528.479999989</v>
+        <v>48752635.479999989</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -14253,11 +14253,11 @@
       </c>
       <c r="F34" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>15500115.600000001</v>
+        <v>15477649.600000001</v>
       </c>
       <c r="G34" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>61886732.399999999</v>
+        <v>61909198.399999999</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -14278,11 +14278,11 @@
       </c>
       <c r="F35" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>18777424.079999998</v>
+        <v>18776046.079999998</v>
       </c>
       <c r="G35" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>75035926.319999993</v>
+        <v>75037304.319999993</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="30" customHeight="1">
@@ -14303,11 +14303,11 @@
       </c>
       <c r="F36" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>22062634.560000002</v>
+        <v>22053427.560000002</v>
       </c>
       <c r="G36" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>88177218.239999995</v>
+        <v>88186425.239999995</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -14328,11 +14328,11 @@
       </c>
       <c r="F37" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>25354122.040000003</v>
+        <v>25334002.040000003</v>
       </c>
       <c r="G37" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>101312233.16</v>
+        <v>101332353.16</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -14353,11 +14353,11 @@
       </c>
       <c r="F38" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>28639177.52</v>
+        <v>28622265.52</v>
       </c>
       <c r="G38" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>114453680.08</v>
+        <v>114470592.08</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="30" customHeight="1">
@@ -14378,11 +14378,11 @@
       </c>
       <c r="F39" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>5307180.2</v>
+        <v>5306880.2</v>
       </c>
       <c r="G39" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>21141395.800000001</v>
+        <v>21141695.800000001</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -14403,11 +14403,11 @@
       </c>
       <c r="F40" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>8549353.6799999997</v>
+        <v>8562857.6799999997</v>
       </c>
       <c r="G40" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>34177884.719999999</v>
+        <v>34164380.719999999</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -14428,11 +14428,11 @@
       </c>
       <c r="F41" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>11547559.16</v>
+        <v>11555849.16</v>
       </c>
       <c r="G41" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>46127781.640000001</v>
+        <v>46119491.640000001</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -14453,11 +14453,11 @@
       </c>
       <c r="F42" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>14836907.640000001</v>
+        <v>14834738.640000001</v>
       </c>
       <c r="G42" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>59264935.560000002</v>
+        <v>59267104.560000002</v>
       </c>
     </row>
   </sheetData>
@@ -14469,7 +14469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A2:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:A8"/>
     </sheetView>
   </sheetViews>

--- a/Sample_Bank_Data/MAR 2024.xlsx
+++ b/Sample_Bank_Data/MAR 2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28922"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91636\Downloads\data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{935129A4-0610-448D-A2D1-F9D6BF2E1EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F58DBB71-A203-4E7C-834B-CDA6FA46BE78}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{935129A4-0610-448D-A2D1-F9D6BF2E1EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67CD4E80-88AF-40BE-B85D-33D9F9D3D26F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="6" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collateral Types" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1825" uniqueCount="306">
   <si>
     <t>Collateral Types</t>
   </si>
@@ -376,13 +376,13 @@
     <t>Total Collateral</t>
   </si>
   <si>
-    <t>HC Collateral Building</t>
-  </si>
-  <si>
-    <t>HC Collateral Cash</t>
-  </si>
-  <si>
-    <t>HC Collateral Shares</t>
+    <t>HC Collateral Land &amp; Building</t>
+  </si>
+  <si>
+    <t>HC Collateral Cash, Gold &amp; Other Riskfree Assests</t>
+  </si>
+  <si>
+    <t>HC Collateral Shares &amp; Other Paper Assests</t>
   </si>
   <si>
     <t>HC Collateral Hawalat Haq</t>
@@ -424,9 +424,6 @@
     <t>Collateral Grade</t>
   </si>
   <si>
-    <t>Collatral Land &amp; Building</t>
-  </si>
-  <si>
     <t>50%</t>
   </si>
   <si>
@@ -448,9 +445,6 @@
     <t>Building2</t>
   </si>
   <si>
-    <t>Collatral Cash, Gold &amp; Other Riskfree Assests</t>
-  </si>
-  <si>
     <t>0%</t>
   </si>
   <si>
@@ -469,9 +463,6 @@
     <t>Building4</t>
   </si>
   <si>
-    <t>Collatral Shares &amp; Other Paper Assests</t>
-  </si>
-  <si>
     <t>75%</t>
   </si>
   <si>
@@ -520,370 +511,115 @@
     <t>Shares6</t>
   </si>
   <si>
+    <t>Land6</t>
+  </si>
+  <si>
+    <t>Risk Free Assest2</t>
+  </si>
+  <si>
+    <t>Gold4</t>
+  </si>
+  <si>
+    <t>Others4</t>
+  </si>
+  <si>
+    <t>Land7</t>
+  </si>
+  <si>
+    <t>Land8</t>
+  </si>
+  <si>
+    <t>Shares7</t>
+  </si>
+  <si>
+    <t>Shares9</t>
+  </si>
+  <si>
+    <t>Others5</t>
+  </si>
+  <si>
+    <t>Others6</t>
+  </si>
+  <si>
+    <t>Building7</t>
+  </si>
+  <si>
+    <t>Land9</t>
+  </si>
+  <si>
+    <t>Cash3</t>
+  </si>
+  <si>
+    <t>Risk Free Assest3</t>
+  </si>
+  <si>
+    <t>Others7</t>
+  </si>
+  <si>
+    <t>Cash4</t>
+  </si>
+  <si>
+    <t>Risk Free Assest4</t>
+  </si>
+  <si>
+    <t>Others8</t>
+  </si>
+  <si>
+    <t>Others9</t>
+  </si>
+  <si>
+    <t>Building8</t>
+  </si>
+  <si>
+    <t>Building9</t>
+  </si>
+  <si>
+    <t>Cash5</t>
+  </si>
+  <si>
+    <t>Gold5</t>
+  </si>
+  <si>
+    <t>Gold6</t>
+  </si>
+  <si>
+    <t>Risk Free Assest5</t>
+  </si>
+  <si>
+    <t>Shares8</t>
+  </si>
+  <si>
+    <t>Cash6</t>
+  </si>
+  <si>
+    <t>Gold7</t>
+  </si>
+  <si>
+    <t>Risk Free Assest6</t>
+  </si>
+  <si>
+    <t>Risk Free Assest7</t>
+  </si>
+  <si>
+    <t>Risk Free Assest8</t>
+  </si>
+  <si>
+    <t>Risk Free Assest9</t>
+  </si>
+  <si>
+    <t>Cash7</t>
+  </si>
+  <si>
+    <t>Shares10</t>
+  </si>
+  <si>
+    <t>Shares11</t>
+  </si>
+  <si>
+    <t>Shares12</t>
+  </si>
+  <si>
     <t>Building6</t>
-  </si>
-  <si>
-    <t>Land6</t>
-  </si>
-  <si>
-    <t>Risk Free Assest2</t>
-  </si>
-  <si>
-    <t>Gold4</t>
-  </si>
-  <si>
-    <t>Others4</t>
-  </si>
-  <si>
-    <t>Land7</t>
-  </si>
-  <si>
-    <t>Land8</t>
-  </si>
-  <si>
-    <t>Shares7</t>
-  </si>
-  <si>
-    <t>Shares8</t>
-  </si>
-  <si>
-    <t>Others5</t>
-  </si>
-  <si>
-    <t>Shares9</t>
-  </si>
-  <si>
-    <t>Shares10</t>
-  </si>
-  <si>
-    <t>Others6</t>
-  </si>
-  <si>
-    <t>Building7</t>
-  </si>
-  <si>
-    <t>Land9</t>
-  </si>
-  <si>
-    <t>Cash3</t>
-  </si>
-  <si>
-    <t>Risk Free Assest3</t>
-  </si>
-  <si>
-    <t>Others7</t>
-  </si>
-  <si>
-    <t>Cash4</t>
-  </si>
-  <si>
-    <t>Risk Free Assest4</t>
-  </si>
-  <si>
-    <t>Others8</t>
-  </si>
-  <si>
-    <t>Land10</t>
-  </si>
-  <si>
-    <t>Land11</t>
-  </si>
-  <si>
-    <t>Others9</t>
-  </si>
-  <si>
-    <t>Shares11</t>
-  </si>
-  <si>
-    <t>Shares12</t>
-  </si>
-  <si>
-    <t>Others10</t>
-  </si>
-  <si>
-    <t>Land12</t>
-  </si>
-  <si>
-    <t>Building8</t>
-  </si>
-  <si>
-    <t>Others11</t>
-  </si>
-  <si>
-    <t>Shares13</t>
-  </si>
-  <si>
-    <t>Shares14</t>
-  </si>
-  <si>
-    <t>Others12</t>
-  </si>
-  <si>
-    <t>Building9</t>
-  </si>
-  <si>
-    <t>Building10</t>
-  </si>
-  <si>
-    <t>Others13</t>
-  </si>
-  <si>
-    <t>Cash5</t>
-  </si>
-  <si>
-    <t>Gold5</t>
-  </si>
-  <si>
-    <t>Others14</t>
-  </si>
-  <si>
-    <t>Shares15</t>
-  </si>
-  <si>
-    <t>Shares16</t>
-  </si>
-  <si>
-    <t>Others15</t>
-  </si>
-  <si>
-    <t>Building11</t>
-  </si>
-  <si>
-    <t>Building12</t>
-  </si>
-  <si>
-    <t>Shares17</t>
-  </si>
-  <si>
-    <t>Shares18</t>
-  </si>
-  <si>
-    <t>Others16</t>
-  </si>
-  <si>
-    <t>Others17</t>
-  </si>
-  <si>
-    <t>Others18</t>
-  </si>
-  <si>
-    <t>Land13</t>
-  </si>
-  <si>
-    <t>Building13</t>
-  </si>
-  <si>
-    <t>Gold6</t>
-  </si>
-  <si>
-    <t>Risk Free Assest5</t>
-  </si>
-  <si>
-    <t>Others19</t>
-  </si>
-  <si>
-    <t>Building14</t>
-  </si>
-  <si>
-    <t>Land14</t>
-  </si>
-  <si>
-    <t>Shares19</t>
-  </si>
-  <si>
-    <t>Shares20</t>
-  </si>
-  <si>
-    <t>Others20</t>
-  </si>
-  <si>
-    <t>Others21</t>
-  </si>
-  <si>
-    <t>Cash6</t>
-  </si>
-  <si>
-    <t>Gold7</t>
-  </si>
-  <si>
-    <t>Shares21</t>
-  </si>
-  <si>
-    <t>Shares22</t>
-  </si>
-  <si>
-    <t>Others22</t>
-  </si>
-  <si>
-    <t>Land15</t>
-  </si>
-  <si>
-    <t>Building15</t>
-  </si>
-  <si>
-    <t>Risk Free Assest6</t>
-  </si>
-  <si>
-    <t>Risk Free Assest7</t>
-  </si>
-  <si>
-    <t>Others23</t>
-  </si>
-  <si>
-    <t>Shares23</t>
-  </si>
-  <si>
-    <t>Shares24</t>
-  </si>
-  <si>
-    <t>Others24</t>
-  </si>
-  <si>
-    <t>Gold8</t>
-  </si>
-  <si>
-    <t>Risk Free Assest8</t>
-  </si>
-  <si>
-    <t>Others25</t>
-  </si>
-  <si>
-    <t>Risk Free Assest9</t>
-  </si>
-  <si>
-    <t>Risk Free Assest10</t>
-  </si>
-  <si>
-    <t>Shares25</t>
-  </si>
-  <si>
-    <t>Shares26</t>
-  </si>
-  <si>
-    <t>Others26</t>
-  </si>
-  <si>
-    <t>Land16</t>
-  </si>
-  <si>
-    <t>Building16</t>
-  </si>
-  <si>
-    <t>Land17</t>
-  </si>
-  <si>
-    <t>Building17</t>
-  </si>
-  <si>
-    <t>Shares27</t>
-  </si>
-  <si>
-    <t>Shares28</t>
-  </si>
-  <si>
-    <t>Others27</t>
-  </si>
-  <si>
-    <t>Building18</t>
-  </si>
-  <si>
-    <t>Building19</t>
-  </si>
-  <si>
-    <t>Cash7</t>
-  </si>
-  <si>
-    <t>Risk Free Assest11</t>
-  </si>
-  <si>
-    <t>Building20</t>
-  </si>
-  <si>
-    <t>Building21</t>
-  </si>
-  <si>
-    <t>Cash8</t>
-  </si>
-  <si>
-    <t>Risk Free Assest12</t>
-  </si>
-  <si>
-    <t>Shares29</t>
-  </si>
-  <si>
-    <t>Shares30</t>
-  </si>
-  <si>
-    <t>Building22</t>
-  </si>
-  <si>
-    <t>Building23</t>
-  </si>
-  <si>
-    <t>Others28</t>
-  </si>
-  <si>
-    <t>Building24</t>
-  </si>
-  <si>
-    <t>Land18</t>
-  </si>
-  <si>
-    <t>Cash9</t>
-  </si>
-  <si>
-    <t>Gold9</t>
-  </si>
-  <si>
-    <t>Shares31</t>
-  </si>
-  <si>
-    <t>Shares32</t>
-  </si>
-  <si>
-    <t>Others29</t>
-  </si>
-  <si>
-    <t>Cash10</t>
-  </si>
-  <si>
-    <t>Risk Free Assest13</t>
-  </si>
-  <si>
-    <t>Others30</t>
-  </si>
-  <si>
-    <t>Building25</t>
-  </si>
-  <si>
-    <t>Land19</t>
-  </si>
-  <si>
-    <t>Shares33</t>
-  </si>
-  <si>
-    <t>Shares34</t>
-  </si>
-  <si>
-    <t>Shares35</t>
-  </si>
-  <si>
-    <t>Shares36</t>
-  </si>
-  <si>
-    <t>Others31</t>
-  </si>
-  <si>
-    <t>Building26</t>
-  </si>
-  <si>
-    <t>Land20</t>
-  </si>
-  <si>
-    <t>Gold10</t>
-  </si>
-  <si>
-    <t>Risk Free Assest14</t>
   </si>
   <si>
     <t>Provision Stages</t>
@@ -1942,21 +1678,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30.75" customHeight="1">
       <c r="A1" s="34" t="s">
-        <v>351</v>
+        <v>263</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>354</v>
+        <v>266</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>387</v>
+        <v>299</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>388</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>356</v>
+        <v>268</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1970,7 +1706,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>358</v>
+        <v>270</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1984,7 +1720,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>359</v>
+        <v>271</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -1998,7 +1734,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>339</v>
+        <v>251</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -2012,7 +1748,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>340</v>
+        <v>252</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -2026,7 +1762,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>337</v>
+        <v>249</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -2040,7 +1776,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>342</v>
+        <v>254</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -2054,7 +1790,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>360</v>
+        <v>272</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -2068,7 +1804,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>361</v>
+        <v>273</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -2082,7 +1818,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>363</v>
+        <v>275</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -2096,7 +1832,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>364</v>
+        <v>276</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -2110,7 +1846,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>366</v>
+        <v>278</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -2124,7 +1860,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>368</v>
+        <v>280</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -2138,7 +1874,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>369</v>
+        <v>281</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -2152,7 +1888,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>371</v>
+        <v>283</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -2166,7 +1902,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>373</v>
+        <v>285</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -2180,7 +1916,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>375</v>
+        <v>287</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -2194,7 +1930,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>377</v>
+        <v>289</v>
       </c>
       <c r="B19">
         <v>17</v>
@@ -2208,7 +1944,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>379</v>
+        <v>291</v>
       </c>
       <c r="B20">
         <v>17</v>
@@ -2222,7 +1958,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>381</v>
+        <v>293</v>
       </c>
       <c r="B21">
         <v>17</v>
@@ -2236,7 +1972,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>382</v>
+        <v>294</v>
       </c>
       <c r="C22">
         <v>100</v>
@@ -2272,22 +2008,22 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="17" t="s">
-        <v>389</v>
+        <v>301</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>390</v>
+        <v>302</v>
       </c>
       <c r="E1" s="18" t="s">
         <v>28</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>391</v>
+        <v>303</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>392</v>
+        <v>304</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>393</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -3736,8 +3472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AD52"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8883,8 +8619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:J148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A148"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8935,7 +8671,7 @@
         <v>6343426</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
@@ -8944,10 +8680,10 @@
         <v>7</v>
       </c>
       <c r="H2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I2" t="s">
         <v>125</v>
-      </c>
-      <c r="I2" t="s">
-        <v>126</v>
       </c>
       <c r="J2">
         <v>4</v>
@@ -8967,7 +8703,7 @@
         <v>6343426</v>
       </c>
       <c r="E3" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -8976,10 +8712,10 @@
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -9008,10 +8744,10 @@
         <v>24</v>
       </c>
       <c r="H4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I4" t="s">
         <v>128</v>
-      </c>
-      <c r="I4" t="s">
-        <v>129</v>
       </c>
       <c r="J4">
         <v>5</v>
@@ -9031,7 +8767,7 @@
         <v>12473602</v>
       </c>
       <c r="E5" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -9040,10 +8776,10 @@
         <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J5">
         <v>4</v>
@@ -9063,7 +8799,7 @@
         <v>12473602</v>
       </c>
       <c r="E6" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
         <v>5</v>
@@ -9072,10 +8808,10 @@
         <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -9095,7 +8831,7 @@
         <v>49388166.5</v>
       </c>
       <c r="E7" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
@@ -9104,10 +8840,10 @@
         <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J7">
         <v>5</v>
@@ -9127,7 +8863,7 @@
         <v>49388166.5</v>
       </c>
       <c r="E8" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
@@ -9136,10 +8872,10 @@
         <v>14</v>
       </c>
       <c r="H8" t="s">
+        <v>131</v>
+      </c>
+      <c r="I8" t="s">
         <v>133</v>
-      </c>
-      <c r="I8" t="s">
-        <v>135</v>
       </c>
       <c r="J8">
         <v>2</v>
@@ -9168,10 +8904,10 @@
         <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J9">
         <v>2</v>
@@ -9191,7 +8927,7 @@
         <v>49401122</v>
       </c>
       <c r="E10" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F10" t="s">
         <v>5</v>
@@ -9200,10 +8936,10 @@
         <v>7</v>
       </c>
       <c r="H10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J10">
         <v>4</v>
@@ -9223,7 +8959,7 @@
         <v>49401122</v>
       </c>
       <c r="E11" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
         <v>5</v>
@@ -9232,10 +8968,10 @@
         <v>6</v>
       </c>
       <c r="H11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -9255,7 +8991,7 @@
         <v>11739850.5</v>
       </c>
       <c r="E12" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
         <v>20</v>
@@ -9264,10 +9000,10 @@
         <v>22</v>
       </c>
       <c r="H12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J12">
         <v>2</v>
@@ -9287,7 +9023,7 @@
         <v>11739850.5</v>
       </c>
       <c r="E13" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
@@ -9296,10 +9032,10 @@
         <v>21</v>
       </c>
       <c r="H13" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I13" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J13">
         <v>5</v>
@@ -9319,7 +9055,7 @@
         <v>38285949.5</v>
       </c>
       <c r="E14" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F14" t="s">
         <v>20</v>
@@ -9328,10 +9064,10 @@
         <v>21</v>
       </c>
       <c r="H14" t="s">
+        <v>137</v>
+      </c>
+      <c r="I14" t="s">
         <v>140</v>
-      </c>
-      <c r="I14" t="s">
-        <v>143</v>
       </c>
       <c r="J14">
         <v>2</v>
@@ -9351,7 +9087,7 @@
         <v>38285949.5</v>
       </c>
       <c r="E15" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F15" t="s">
         <v>20</v>
@@ -9360,10 +9096,10 @@
         <v>22</v>
       </c>
       <c r="H15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -9392,10 +9128,10 @@
         <v>24</v>
       </c>
       <c r="H16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J16">
         <v>5</v>
@@ -9415,7 +9151,7 @@
         <v>28397761</v>
       </c>
       <c r="E17" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
         <v>5</v>
@@ -9424,10 +9160,10 @@
         <v>6</v>
       </c>
       <c r="H17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I17" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J17">
         <v>3</v>
@@ -9447,7 +9183,7 @@
         <v>28397761</v>
       </c>
       <c r="E18" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
@@ -9456,10 +9192,10 @@
         <v>11</v>
       </c>
       <c r="H18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I18" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J18">
         <v>3</v>
@@ -9479,7 +9215,7 @@
         <v>43835560</v>
       </c>
       <c r="E19" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F19" t="s">
         <v>14</v>
@@ -9488,10 +9224,10 @@
         <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I19" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J19">
         <v>3</v>
@@ -9511,7 +9247,7 @@
         <v>43835560</v>
       </c>
       <c r="E20" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F20" t="s">
         <v>15</v>
@@ -9520,10 +9256,10 @@
         <v>15</v>
       </c>
       <c r="H20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I20" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -9543,7 +9279,7 @@
         <v>27160918.5</v>
       </c>
       <c r="E21" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -9552,10 +9288,10 @@
         <v>10</v>
       </c>
       <c r="H21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I21" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -9575,7 +9311,7 @@
         <v>27160918.5</v>
       </c>
       <c r="E22" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
@@ -9584,10 +9320,10 @@
         <v>12</v>
       </c>
       <c r="H22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I22" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J22">
         <v>5</v>
@@ -9607,7 +9343,7 @@
         <v>11725085</v>
       </c>
       <c r="E23" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F23" t="s">
         <v>16</v>
@@ -9616,10 +9352,10 @@
         <v>18</v>
       </c>
       <c r="H23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I23" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J23">
         <v>3</v>
@@ -9639,7 +9375,7 @@
         <v>11725085</v>
       </c>
       <c r="E24" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F24" t="s">
         <v>14</v>
@@ -9648,10 +9384,10 @@
         <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I24" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J24">
         <v>2</v>
@@ -9671,7 +9407,7 @@
         <v>33948595.5</v>
       </c>
       <c r="E25" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F25" t="s">
         <v>20</v>
@@ -9680,10 +9416,10 @@
         <v>21</v>
       </c>
       <c r="H25" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I25" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J25">
         <v>2</v>
@@ -9703,7 +9439,7 @@
         <v>33948595.5</v>
       </c>
       <c r="E26" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F26" t="s">
         <v>20</v>
@@ -9712,10 +9448,10 @@
         <v>22</v>
       </c>
       <c r="H26" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I26" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J26">
         <v>2</v>
@@ -9735,7 +9471,7 @@
         <v>16060913.5</v>
       </c>
       <c r="E27" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F27" t="s">
         <v>5</v>
@@ -9744,10 +9480,10 @@
         <v>6</v>
       </c>
       <c r="H27" t="s">
+        <v>124</v>
+      </c>
+      <c r="I27" t="s">
         <v>125</v>
-      </c>
-      <c r="I27" t="s">
-        <v>156</v>
       </c>
       <c r="J27">
         <v>2</v>
@@ -9767,7 +9503,7 @@
         <v>16060913.5</v>
       </c>
       <c r="E28" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
@@ -9776,10 +9512,10 @@
         <v>10</v>
       </c>
       <c r="H28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I28" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="J28">
         <v>5</v>
@@ -9799,7 +9535,7 @@
         <v>38276113</v>
       </c>
       <c r="E29" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F29" t="s">
         <v>16</v>
@@ -9808,10 +9544,10 @@
         <v>18</v>
       </c>
       <c r="H29" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I29" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="J29">
         <v>5</v>
@@ -9831,7 +9567,7 @@
         <v>38276113</v>
       </c>
       <c r="E30" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F30" t="s">
         <v>14</v>
@@ -9840,10 +9576,10 @@
         <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I30" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="J30">
         <v>2</v>
@@ -9872,10 +9608,10 @@
         <v>24</v>
       </c>
       <c r="H31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I31" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="J31">
         <v>3</v>
@@ -9895,7 +9631,7 @@
         <v>10550509.5</v>
       </c>
       <c r="E32" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F32" t="s">
         <v>9</v>
@@ -9904,10 +9640,10 @@
         <v>11</v>
       </c>
       <c r="H32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I32" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="J32">
         <v>5</v>
@@ -9927,7 +9663,7 @@
         <v>10550509.5</v>
       </c>
       <c r="E33" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F33" t="s">
         <v>9</v>
@@ -9936,10 +9672,10 @@
         <v>12</v>
       </c>
       <c r="H33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I33" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="J33">
         <v>2</v>
@@ -9959,7 +9695,7 @@
         <v>45071687</v>
       </c>
       <c r="E34" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F34" t="s">
         <v>20</v>
@@ -9968,10 +9704,10 @@
         <v>21</v>
       </c>
       <c r="H34" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I34" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J34">
         <v>2</v>
@@ -9991,7 +9727,7 @@
         <v>45071687</v>
       </c>
       <c r="E35" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F35" t="s">
         <v>20</v>
@@ -10000,10 +9736,10 @@
         <v>22</v>
       </c>
       <c r="H35" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I35" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="J35">
         <v>2</v>
@@ -10032,10 +9768,10 @@
         <v>24</v>
       </c>
       <c r="H36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I36" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="J36">
         <v>4</v>
@@ -10055,7 +9791,7 @@
         <v>49380038</v>
       </c>
       <c r="E37" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F37" t="s">
         <v>20</v>
@@ -10064,10 +9800,10 @@
         <v>21</v>
       </c>
       <c r="H37" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I37" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="J37">
         <v>2</v>
@@ -10087,7 +9823,7 @@
         <v>49380038</v>
       </c>
       <c r="E38" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F38" t="s">
         <v>20</v>
@@ -10096,10 +9832,10 @@
         <v>22</v>
       </c>
       <c r="H38" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I38" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="J38">
         <v>2</v>
@@ -10128,10 +9864,10 @@
         <v>24</v>
       </c>
       <c r="H39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I39" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="J39">
         <v>5</v>
@@ -10151,7 +9887,7 @@
         <v>11737273</v>
       </c>
       <c r="E40" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F40" t="s">
         <v>5</v>
@@ -10160,10 +9896,10 @@
         <v>8</v>
       </c>
       <c r="H40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I40" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="J40">
         <v>4</v>
@@ -10183,7 +9919,7 @@
         <v>11737273</v>
       </c>
       <c r="E41" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F41" t="s">
         <v>9</v>
@@ -10192,10 +9928,10 @@
         <v>10</v>
       </c>
       <c r="H41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I41" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="J41">
         <v>4</v>
@@ -10215,7 +9951,7 @@
         <v>32716710</v>
       </c>
       <c r="E42" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F42" t="s">
         <v>15</v>
@@ -10224,10 +9960,10 @@
         <v>15</v>
       </c>
       <c r="H42" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I42" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="J42">
         <v>5</v>
@@ -10247,7 +9983,7 @@
         <v>32716710</v>
       </c>
       <c r="E43" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F43" t="s">
         <v>16</v>
@@ -10256,10 +9992,10 @@
         <v>17</v>
       </c>
       <c r="H43" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I43" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="J43">
         <v>3</v>
@@ -10288,10 +10024,10 @@
         <v>24</v>
       </c>
       <c r="H44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I44" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="J44">
         <v>5</v>
@@ -10311,7 +10047,7 @@
         <v>39447333.5</v>
       </c>
       <c r="E45" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F45" t="s">
         <v>15</v>
@@ -10320,10 +10056,10 @@
         <v>15</v>
       </c>
       <c r="H45" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I45" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="J45">
         <v>2</v>
@@ -10343,7 +10079,7 @@
         <v>39447333.5</v>
       </c>
       <c r="E46" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F46" t="s">
         <v>16</v>
@@ -10352,10 +10088,10 @@
         <v>18</v>
       </c>
       <c r="H46" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I46" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="J46">
         <v>4</v>
@@ -10384,10 +10120,10 @@
         <v>24</v>
       </c>
       <c r="H47" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I47" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="J47">
         <v>3</v>
@@ -10407,7 +10143,7 @@
         <v>22843750.5</v>
       </c>
       <c r="E48" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F48" t="s">
         <v>9</v>
@@ -10416,10 +10152,10 @@
         <v>11</v>
       </c>
       <c r="H48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I48" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="J48">
         <v>4</v>
@@ -10439,7 +10175,7 @@
         <v>22843750.5</v>
       </c>
       <c r="E49" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F49" t="s">
         <v>9</v>
@@ -10448,10 +10184,10 @@
         <v>10</v>
       </c>
       <c r="H49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I49" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="J49">
         <v>4</v>
@@ -10480,10 +10216,10 @@
         <v>24</v>
       </c>
       <c r="H50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I50" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="J50">
         <v>2</v>
@@ -10503,7 +10239,7 @@
         <v>6187207</v>
       </c>
       <c r="E51" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F51" t="s">
         <v>20</v>
@@ -10512,10 +10248,10 @@
         <v>22</v>
       </c>
       <c r="H51" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I51" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="J51">
         <v>2</v>
@@ -10535,7 +10271,7 @@
         <v>6187207</v>
       </c>
       <c r="E52" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F52" t="s">
         <v>20</v>
@@ -10544,10 +10280,10 @@
         <v>21</v>
       </c>
       <c r="H52" t="s">
+        <v>137</v>
+      </c>
+      <c r="I52" t="s">
         <v>140</v>
-      </c>
-      <c r="I52" t="s">
-        <v>181</v>
       </c>
       <c r="J52">
         <v>3</v>
@@ -10576,10 +10312,10 @@
         <v>24</v>
       </c>
       <c r="H53" t="s">
+        <v>127</v>
+      </c>
+      <c r="I53" t="s">
         <v>128</v>
-      </c>
-      <c r="I53" t="s">
-        <v>182</v>
       </c>
       <c r="J53">
         <v>2</v>
@@ -10599,7 +10335,7 @@
         <v>6189652</v>
       </c>
       <c r="E54" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F54" t="s">
         <v>9</v>
@@ -10608,10 +10344,10 @@
         <v>12</v>
       </c>
       <c r="H54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I54" t="s">
-        <v>183</v>
+        <v>129</v>
       </c>
       <c r="J54">
         <v>2</v>
@@ -10631,7 +10367,7 @@
         <v>6189652</v>
       </c>
       <c r="E55" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F55" t="s">
         <v>5</v>
@@ -10640,10 +10376,10 @@
         <v>8</v>
       </c>
       <c r="H55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I55" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="J55">
         <v>5</v>
@@ -10672,10 +10408,10 @@
         <v>24</v>
       </c>
       <c r="H56" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I56" t="s">
-        <v>185</v>
+        <v>134</v>
       </c>
       <c r="J56">
         <v>3</v>
@@ -10695,7 +10431,7 @@
         <v>17279724.5</v>
       </c>
       <c r="E57" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F57" t="s">
         <v>20</v>
@@ -10704,10 +10440,10 @@
         <v>22</v>
       </c>
       <c r="H57" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I57" t="s">
-        <v>186</v>
+        <v>141</v>
       </c>
       <c r="J57">
         <v>3</v>
@@ -10727,7 +10463,7 @@
         <v>17279724.5</v>
       </c>
       <c r="E58" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F58" t="s">
         <v>20</v>
@@ -10736,10 +10472,10 @@
         <v>21</v>
       </c>
       <c r="H58" t="s">
+        <v>137</v>
+      </c>
+      <c r="I58" t="s">
         <v>140</v>
-      </c>
-      <c r="I58" t="s">
-        <v>187</v>
       </c>
       <c r="J58">
         <v>2</v>
@@ -10768,10 +10504,10 @@
         <v>24</v>
       </c>
       <c r="H59" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I59" t="s">
-        <v>188</v>
+        <v>142</v>
       </c>
       <c r="J59">
         <v>4</v>
@@ -10791,7 +10527,7 @@
         <v>38279841</v>
       </c>
       <c r="E60" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F60" t="s">
         <v>5</v>
@@ -10800,10 +10536,10 @@
         <v>8</v>
       </c>
       <c r="H60" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I60" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="J60">
         <v>5</v>
@@ -10823,7 +10559,7 @@
         <v>38279841</v>
       </c>
       <c r="E61" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F61" t="s">
         <v>5</v>
@@ -10832,10 +10568,10 @@
         <v>7</v>
       </c>
       <c r="H61" t="s">
+        <v>124</v>
+      </c>
+      <c r="I61" t="s">
         <v>125</v>
-      </c>
-      <c r="I61" t="s">
-        <v>190</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -10864,10 +10600,10 @@
         <v>24</v>
       </c>
       <c r="H62" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I62" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -10887,7 +10623,7 @@
         <v>6184409.5</v>
       </c>
       <c r="E63" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F63" t="s">
         <v>15</v>
@@ -10896,10 +10632,10 @@
         <v>15</v>
       </c>
       <c r="H63" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I63" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="J63">
         <v>2</v>
@@ -10919,7 +10655,7 @@
         <v>6184409.5</v>
       </c>
       <c r="E64" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F64" t="s">
         <v>14</v>
@@ -10928,10 +10664,10 @@
         <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I64" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="J64">
         <v>2</v>
@@ -10960,10 +10696,10 @@
         <v>24</v>
       </c>
       <c r="H65" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I65" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
       <c r="J65">
         <v>2</v>
@@ -10983,7 +10719,7 @@
         <v>32716233.5</v>
       </c>
       <c r="E66" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F66" t="s">
         <v>20</v>
@@ -10992,10 +10728,10 @@
         <v>22</v>
       </c>
       <c r="H66" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I66" t="s">
-        <v>195</v>
+        <v>152</v>
       </c>
       <c r="J66">
         <v>5</v>
@@ -11015,7 +10751,7 @@
         <v>32716233.5</v>
       </c>
       <c r="E67" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F67" t="s">
         <v>20</v>
@@ -11024,10 +10760,10 @@
         <v>21</v>
       </c>
       <c r="H67" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I67" t="s">
-        <v>196</v>
+        <v>138</v>
       </c>
       <c r="J67">
         <v>4</v>
@@ -11056,10 +10792,10 @@
         <v>24</v>
       </c>
       <c r="H68" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I68" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="J68">
         <v>2</v>
@@ -11079,7 +10815,7 @@
         <v>28403028</v>
       </c>
       <c r="E69" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F69" t="s">
         <v>5</v>
@@ -11088,10 +10824,10 @@
         <v>6</v>
       </c>
       <c r="H69" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I69" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="J69">
         <v>4</v>
@@ -11111,7 +10847,7 @@
         <v>28403028</v>
       </c>
       <c r="E70" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F70" t="s">
         <v>5</v>
@@ -11120,10 +10856,10 @@
         <v>7</v>
       </c>
       <c r="H70" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I70" t="s">
-        <v>199</v>
+        <v>135</v>
       </c>
       <c r="J70">
         <v>2</v>
@@ -11143,7 +10879,7 @@
         <v>39464778.5</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F71" t="s">
         <v>20</v>
@@ -11152,10 +10888,10 @@
         <v>22</v>
       </c>
       <c r="H71" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I71" t="s">
-        <v>200</v>
+        <v>139</v>
       </c>
       <c r="J71">
         <v>2</v>
@@ -11175,7 +10911,7 @@
         <v>39464778.5</v>
       </c>
       <c r="E72" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F72" t="s">
         <v>20</v>
@@ -11184,10 +10920,10 @@
         <v>21</v>
       </c>
       <c r="H72" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I72" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="J72">
         <v>2</v>
@@ -11216,10 +10952,10 @@
         <v>24</v>
       </c>
       <c r="H73" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I73" t="s">
-        <v>202</v>
+        <v>167</v>
       </c>
       <c r="J73">
         <v>4</v>
@@ -11248,10 +10984,10 @@
         <v>24</v>
       </c>
       <c r="H74" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I74" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="J74">
         <v>5</v>
@@ -11280,10 +11016,10 @@
         <v>24</v>
       </c>
       <c r="H75" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I75" t="s">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="J75">
         <v>5</v>
@@ -11303,7 +11039,7 @@
         <v>38278452</v>
       </c>
       <c r="E76" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F76" t="s">
         <v>9</v>
@@ -11312,10 +11048,10 @@
         <v>10</v>
       </c>
       <c r="H76" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I76" t="s">
-        <v>205</v>
+        <v>126</v>
       </c>
       <c r="J76">
         <v>3</v>
@@ -11335,7 +11071,7 @@
         <v>38278452</v>
       </c>
       <c r="E77" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F77" t="s">
         <v>5</v>
@@ -11344,10 +11080,10 @@
         <v>6</v>
       </c>
       <c r="H77" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I77" t="s">
-        <v>206</v>
+        <v>136</v>
       </c>
       <c r="J77">
         <v>1</v>
@@ -11367,7 +11103,7 @@
         <v>43840295</v>
       </c>
       <c r="E78" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F78" t="s">
         <v>14</v>
@@ -11376,10 +11112,10 @@
         <v>14</v>
       </c>
       <c r="H78" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I78" t="s">
-        <v>207</v>
+        <v>176</v>
       </c>
       <c r="J78">
         <v>1</v>
@@ -11399,7 +11135,7 @@
         <v>43840295</v>
       </c>
       <c r="E79" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F79" t="s">
         <v>16</v>
@@ -11408,10 +11144,10 @@
         <v>18</v>
       </c>
       <c r="H79" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I79" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="J79">
         <v>5</v>
@@ -11440,10 +11176,10 @@
         <v>24</v>
       </c>
       <c r="H80" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I80" t="s">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="J80">
         <v>1</v>
@@ -11463,7 +11199,7 @@
         <v>22840979.5</v>
       </c>
       <c r="E81" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F81" t="s">
         <v>5</v>
@@ -11472,10 +11208,10 @@
         <v>8</v>
       </c>
       <c r="H81" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I81" t="s">
-        <v>210</v>
+        <v>135</v>
       </c>
       <c r="J81">
         <v>2</v>
@@ -11495,7 +11231,7 @@
         <v>22840979.5</v>
       </c>
       <c r="E82" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F82" t="s">
         <v>9</v>
@@ -11504,10 +11240,10 @@
         <v>10</v>
       </c>
       <c r="H82" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I82" t="s">
-        <v>211</v>
+        <v>153</v>
       </c>
       <c r="J82">
         <v>3</v>
@@ -11527,7 +11263,7 @@
         <v>11741196</v>
       </c>
       <c r="E83" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F83" t="s">
         <v>20</v>
@@ -11536,10 +11272,10 @@
         <v>21</v>
       </c>
       <c r="H83" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I83" t="s">
-        <v>212</v>
+        <v>178</v>
       </c>
       <c r="J83">
         <v>1</v>
@@ -11559,7 +11295,7 @@
         <v>11741196</v>
       </c>
       <c r="E84" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F84" t="s">
         <v>20</v>
@@ -11568,10 +11304,10 @@
         <v>22</v>
       </c>
       <c r="H84" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I84" t="s">
-        <v>213</v>
+        <v>141</v>
       </c>
       <c r="J84">
         <v>5</v>
@@ -11600,10 +11336,10 @@
         <v>24</v>
       </c>
       <c r="H85" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I85" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="J85">
         <v>4</v>
@@ -11632,10 +11368,10 @@
         <v>24</v>
       </c>
       <c r="H86" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I86" t="s">
-        <v>215</v>
+        <v>142</v>
       </c>
       <c r="J86">
         <v>3</v>
@@ -11655,7 +11391,7 @@
         <v>28393599.5</v>
       </c>
       <c r="E87" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F87" t="s">
         <v>15</v>
@@ -11664,10 +11400,10 @@
         <v>15</v>
       </c>
       <c r="H87" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I87" t="s">
-        <v>216</v>
+        <v>179</v>
       </c>
       <c r="J87">
         <v>4</v>
@@ -11687,7 +11423,7 @@
         <v>28393599.5</v>
       </c>
       <c r="E88" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F88" t="s">
         <v>14</v>
@@ -11696,10 +11432,10 @@
         <v>14</v>
       </c>
       <c r="H88" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I88" t="s">
-        <v>217</v>
+        <v>180</v>
       </c>
       <c r="J88">
         <v>3</v>
@@ -11719,7 +11455,7 @@
         <v>33943605.5</v>
       </c>
       <c r="E89" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F89" t="s">
         <v>20</v>
@@ -11728,10 +11464,10 @@
         <v>21</v>
       </c>
       <c r="H89" t="s">
+        <v>137</v>
+      </c>
+      <c r="I89" t="s">
         <v>140</v>
-      </c>
-      <c r="I89" t="s">
-        <v>218</v>
       </c>
       <c r="J89">
         <v>2</v>
@@ -11751,7 +11487,7 @@
         <v>33943605.5</v>
       </c>
       <c r="E90" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F90" t="s">
         <v>20</v>
@@ -11760,10 +11496,10 @@
         <v>22</v>
       </c>
       <c r="H90" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I90" t="s">
-        <v>219</v>
+        <v>160</v>
       </c>
       <c r="J90">
         <v>5</v>
@@ -11792,10 +11528,10 @@
         <v>24</v>
       </c>
       <c r="H91" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I91" t="s">
-        <v>220</v>
+        <v>171</v>
       </c>
       <c r="J91">
         <v>2</v>
@@ -11815,7 +11551,7 @@
         <v>5484293</v>
       </c>
       <c r="E92" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F92" t="s">
         <v>9</v>
@@ -11824,10 +11560,10 @@
         <v>12</v>
       </c>
       <c r="H92" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I92" t="s">
-        <v>221</v>
+        <v>153</v>
       </c>
       <c r="J92">
         <v>3</v>
@@ -11847,7 +11583,7 @@
         <v>5484293</v>
       </c>
       <c r="E93" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F93" t="s">
         <v>5</v>
@@ -11856,10 +11592,10 @@
         <v>6</v>
       </c>
       <c r="H93" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I93" t="s">
-        <v>222</v>
+        <v>172</v>
       </c>
       <c r="J93">
         <v>4</v>
@@ -11879,7 +11615,7 @@
         <v>5500157.5</v>
       </c>
       <c r="E94" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F94" t="s">
         <v>16</v>
@@ -11888,10 +11624,10 @@
         <v>18</v>
       </c>
       <c r="H94" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I94" t="s">
-        <v>223</v>
+        <v>181</v>
       </c>
       <c r="J94">
         <v>5</v>
@@ -11911,7 +11647,7 @@
         <v>5500157.5</v>
       </c>
       <c r="E95" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F95" t="s">
         <v>16</v>
@@ -11920,10 +11656,10 @@
         <v>17</v>
       </c>
       <c r="H95" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I95" t="s">
-        <v>224</v>
+        <v>182</v>
       </c>
       <c r="J95">
         <v>1</v>
@@ -11952,10 +11688,10 @@
         <v>24</v>
       </c>
       <c r="H96" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I96" t="s">
-        <v>225</v>
+        <v>161</v>
       </c>
       <c r="J96">
         <v>5</v>
@@ -11975,7 +11711,7 @@
         <v>43833306</v>
       </c>
       <c r="E97" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F97" t="s">
         <v>20</v>
@@ -11984,10 +11720,10 @@
         <v>22</v>
       </c>
       <c r="H97" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I97" t="s">
-        <v>226</v>
+        <v>139</v>
       </c>
       <c r="J97">
         <v>2</v>
@@ -12007,7 +11743,7 @@
         <v>43833306</v>
       </c>
       <c r="E98" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F98" t="s">
         <v>20</v>
@@ -12016,10 +11752,10 @@
         <v>21</v>
       </c>
       <c r="H98" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I98" t="s">
-        <v>227</v>
+        <v>152</v>
       </c>
       <c r="J98">
         <v>2</v>
@@ -12048,10 +11784,10 @@
         <v>24</v>
       </c>
       <c r="H99" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I99" t="s">
-        <v>228</v>
+        <v>161</v>
       </c>
       <c r="J99">
         <v>3</v>
@@ -12071,7 +11807,7 @@
         <v>11728045</v>
       </c>
       <c r="E100" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F100" t="s">
         <v>14</v>
@@ -12080,10 +11816,10 @@
         <v>14</v>
       </c>
       <c r="H100" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I100" t="s">
-        <v>229</v>
+        <v>145</v>
       </c>
       <c r="J100">
         <v>2</v>
@@ -12103,7 +11839,7 @@
         <v>11728045</v>
       </c>
       <c r="E101" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F101" t="s">
         <v>16</v>
@@ -12112,10 +11848,10 @@
         <v>17</v>
       </c>
       <c r="H101" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I101" t="s">
-        <v>230</v>
+        <v>183</v>
       </c>
       <c r="J101">
         <v>3</v>
@@ -12144,10 +11880,10 @@
         <v>24</v>
       </c>
       <c r="H102" t="s">
+        <v>127</v>
+      </c>
+      <c r="I102" t="s">
         <v>128</v>
-      </c>
-      <c r="I102" t="s">
-        <v>231</v>
       </c>
       <c r="J102">
         <v>4</v>
@@ -12167,7 +11903,7 @@
         <v>49386151</v>
       </c>
       <c r="E103" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F103" t="s">
         <v>16</v>
@@ -12176,10 +11912,10 @@
         <v>17</v>
       </c>
       <c r="H103" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I103" t="s">
-        <v>232</v>
+        <v>184</v>
       </c>
       <c r="J103">
         <v>3</v>
@@ -12199,7 +11935,7 @@
         <v>49386151</v>
       </c>
       <c r="E104" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F104" t="s">
         <v>16</v>
@@ -12208,10 +11944,10 @@
         <v>18</v>
       </c>
       <c r="H104" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I104" t="s">
-        <v>233</v>
+        <v>149</v>
       </c>
       <c r="J104">
         <v>3</v>
@@ -12231,7 +11967,7 @@
         <v>11744841.5</v>
       </c>
       <c r="E105" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F105" t="s">
         <v>20</v>
@@ -12240,10 +11976,10 @@
         <v>21</v>
       </c>
       <c r="H105" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I105" t="s">
-        <v>234</v>
+        <v>151</v>
       </c>
       <c r="J105">
         <v>1</v>
@@ -12263,7 +11999,7 @@
         <v>11744841.5</v>
       </c>
       <c r="E106" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F106" t="s">
         <v>20</v>
@@ -12272,10 +12008,10 @@
         <v>22</v>
       </c>
       <c r="H106" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I106" t="s">
-        <v>235</v>
+        <v>159</v>
       </c>
       <c r="J106">
         <v>4</v>
@@ -12304,10 +12040,10 @@
         <v>24</v>
       </c>
       <c r="H107" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I107" t="s">
-        <v>236</v>
+        <v>161</v>
       </c>
       <c r="J107">
         <v>5</v>
@@ -12327,7 +12063,7 @@
         <v>6176702.5</v>
       </c>
       <c r="E108" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F108" t="s">
         <v>9</v>
@@ -12336,10 +12072,10 @@
         <v>12</v>
       </c>
       <c r="H108" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I108" t="s">
-        <v>237</v>
+        <v>147</v>
       </c>
       <c r="J108">
         <v>1</v>
@@ -12359,7 +12095,7 @@
         <v>6176702.5</v>
       </c>
       <c r="E109" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F109" t="s">
         <v>5</v>
@@ -12368,10 +12104,10 @@
         <v>8</v>
       </c>
       <c r="H109" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I109" t="s">
-        <v>238</v>
+        <v>143</v>
       </c>
       <c r="J109">
         <v>5</v>
@@ -12391,7 +12127,7 @@
         <v>17282878.5</v>
       </c>
       <c r="E110" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F110" t="s">
         <v>9</v>
@@ -12400,10 +12136,10 @@
         <v>12</v>
       </c>
       <c r="H110" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I110" t="s">
-        <v>239</v>
+        <v>144</v>
       </c>
       <c r="J110">
         <v>3</v>
@@ -12423,7 +12159,7 @@
         <v>17282878.5</v>
       </c>
       <c r="E111" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F111" t="s">
         <v>5</v>
@@ -12432,10 +12168,10 @@
         <v>7</v>
       </c>
       <c r="H111" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I111" t="s">
-        <v>240</v>
+        <v>135</v>
       </c>
       <c r="J111">
         <v>1</v>
@@ -12455,7 +12191,7 @@
         <v>32715435</v>
       </c>
       <c r="E112" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F112" t="s">
         <v>20</v>
@@ -12464,10 +12200,10 @@
         <v>22</v>
       </c>
       <c r="H112" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I112" t="s">
-        <v>241</v>
+        <v>141</v>
       </c>
       <c r="J112">
         <v>4</v>
@@ -12487,7 +12223,7 @@
         <v>32715435</v>
       </c>
       <c r="E113" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F113" t="s">
         <v>20</v>
@@ -12496,10 +12232,10 @@
         <v>21</v>
       </c>
       <c r="H113" t="s">
+        <v>137</v>
+      </c>
+      <c r="I113" t="s">
         <v>140</v>
-      </c>
-      <c r="I113" t="s">
-        <v>242</v>
       </c>
       <c r="J113">
         <v>3</v>
@@ -12528,10 +12264,10 @@
         <v>24</v>
       </c>
       <c r="H114" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I114" t="s">
-        <v>243</v>
+        <v>156</v>
       </c>
       <c r="J114">
         <v>2</v>
@@ -12551,7 +12287,7 @@
         <v>38279760.5</v>
       </c>
       <c r="E115" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F115" t="s">
         <v>5</v>
@@ -12560,10 +12296,10 @@
         <v>6</v>
       </c>
       <c r="H115" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I115" t="s">
-        <v>244</v>
+        <v>136</v>
       </c>
       <c r="J115">
         <v>1</v>
@@ -12583,7 +12319,7 @@
         <v>38279760.5</v>
       </c>
       <c r="E116" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F116" t="s">
         <v>5</v>
@@ -12592,10 +12328,10 @@
         <v>7</v>
       </c>
       <c r="H116" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I116" t="s">
-        <v>245</v>
+        <v>130</v>
       </c>
       <c r="J116">
         <v>4</v>
@@ -12615,7 +12351,7 @@
         <v>49390983</v>
       </c>
       <c r="E117" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F117" t="s">
         <v>15</v>
@@ -12624,10 +12360,10 @@
         <v>15</v>
       </c>
       <c r="H117" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I117" t="s">
-        <v>246</v>
+        <v>185</v>
       </c>
       <c r="J117">
         <v>1</v>
@@ -12647,7 +12383,7 @@
         <v>49390983</v>
       </c>
       <c r="E118" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F118" t="s">
         <v>16</v>
@@ -12656,10 +12392,10 @@
         <v>17</v>
       </c>
       <c r="H118" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I118" t="s">
-        <v>247</v>
+        <v>154</v>
       </c>
       <c r="J118">
         <v>4</v>
@@ -12679,7 +12415,7 @@
         <v>22843619.5</v>
       </c>
       <c r="E119" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F119" t="s">
         <v>5</v>
@@ -12688,10 +12424,10 @@
         <v>6</v>
       </c>
       <c r="H119" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I119" t="s">
-        <v>248</v>
+        <v>143</v>
       </c>
       <c r="J119">
         <v>1</v>
@@ -12711,7 +12447,7 @@
         <v>22843619.5</v>
       </c>
       <c r="E120" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F120" t="s">
         <v>5</v>
@@ -12720,10 +12456,10 @@
         <v>7</v>
       </c>
       <c r="H120" t="s">
+        <v>124</v>
+      </c>
+      <c r="I120" t="s">
         <v>125</v>
-      </c>
-      <c r="I120" t="s">
-        <v>249</v>
       </c>
       <c r="J120">
         <v>5</v>
@@ -12743,7 +12479,7 @@
         <v>22844365</v>
       </c>
       <c r="E121" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F121" t="s">
         <v>15</v>
@@ -12752,10 +12488,10 @@
         <v>15</v>
       </c>
       <c r="H121" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I121" t="s">
-        <v>250</v>
+        <v>174</v>
       </c>
       <c r="J121">
         <v>3</v>
@@ -12775,7 +12511,7 @@
         <v>22844365</v>
       </c>
       <c r="E122" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F122" t="s">
         <v>16</v>
@@ -12784,10 +12520,10 @@
         <v>18</v>
       </c>
       <c r="H122" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I122" t="s">
-        <v>251</v>
+        <v>154</v>
       </c>
       <c r="J122">
         <v>3</v>
@@ -12807,7 +12543,7 @@
         <v>11727990</v>
       </c>
       <c r="E123" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F123" t="s">
         <v>20</v>
@@ -12816,10 +12552,10 @@
         <v>22</v>
       </c>
       <c r="H123" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I123" t="s">
-        <v>252</v>
+        <v>139</v>
       </c>
       <c r="J123">
         <v>3</v>
@@ -12839,7 +12575,7 @@
         <v>11727990</v>
       </c>
       <c r="E124" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F124" t="s">
         <v>20</v>
@@ -12848,10 +12584,10 @@
         <v>21</v>
       </c>
       <c r="H124" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I124" t="s">
-        <v>253</v>
+        <v>186</v>
       </c>
       <c r="J124">
         <v>5</v>
@@ -12871,7 +12607,7 @@
         <v>32712688.5</v>
       </c>
       <c r="E125" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F125" t="s">
         <v>5</v>
@@ -12880,10 +12616,10 @@
         <v>7</v>
       </c>
       <c r="H125" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I125" t="s">
-        <v>254</v>
+        <v>173</v>
       </c>
       <c r="J125">
         <v>4</v>
@@ -12903,7 +12639,7 @@
         <v>32712688.5</v>
       </c>
       <c r="E126" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F126" t="s">
         <v>5</v>
@@ -12912,10 +12648,10 @@
         <v>8</v>
       </c>
       <c r="H126" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I126" t="s">
-        <v>255</v>
+        <v>163</v>
       </c>
       <c r="J126">
         <v>4</v>
@@ -12944,10 +12680,10 @@
         <v>24</v>
       </c>
       <c r="H127" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I127" t="s">
-        <v>256</v>
+        <v>171</v>
       </c>
       <c r="J127">
         <v>1</v>
@@ -12967,7 +12703,7 @@
         <v>28386089.5</v>
       </c>
       <c r="E128" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F128" t="s">
         <v>5</v>
@@ -12976,10 +12712,10 @@
         <v>7</v>
       </c>
       <c r="H128" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I128" t="s">
-        <v>257</v>
+        <v>172</v>
       </c>
       <c r="J128">
         <v>2</v>
@@ -12999,7 +12735,7 @@
         <v>28386089.5</v>
       </c>
       <c r="E129" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F129" t="s">
         <v>9</v>
@@ -13008,10 +12744,10 @@
         <v>11</v>
       </c>
       <c r="H129" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I129" t="s">
-        <v>258</v>
+        <v>148</v>
       </c>
       <c r="J129">
         <v>3</v>
@@ -13031,7 +12767,7 @@
         <v>17280004</v>
       </c>
       <c r="E130" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F130" t="s">
         <v>15</v>
@@ -13040,10 +12776,10 @@
         <v>15</v>
       </c>
       <c r="H130" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I130" t="s">
-        <v>259</v>
+        <v>132</v>
       </c>
       <c r="J130">
         <v>5</v>
@@ -13063,7 +12799,7 @@
         <v>17280004</v>
       </c>
       <c r="E131" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F131" t="s">
         <v>14</v>
@@ -13072,10 +12808,10 @@
         <v>14</v>
       </c>
       <c r="H131" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I131" t="s">
-        <v>260</v>
+        <v>150</v>
       </c>
       <c r="J131">
         <v>4</v>
@@ -13095,7 +12831,7 @@
         <v>27152549.5</v>
       </c>
       <c r="E132" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F132" t="s">
         <v>20</v>
@@ -13104,10 +12840,10 @@
         <v>22</v>
       </c>
       <c r="H132" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I132" t="s">
-        <v>261</v>
+        <v>138</v>
       </c>
       <c r="J132">
         <v>3</v>
@@ -13127,7 +12863,7 @@
         <v>27152549.5</v>
       </c>
       <c r="E133" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F133" t="s">
         <v>20</v>
@@ -13136,10 +12872,10 @@
         <v>21</v>
       </c>
       <c r="H133" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I133" t="s">
-        <v>262</v>
+        <v>187</v>
       </c>
       <c r="J133">
         <v>3</v>
@@ -13168,10 +12904,10 @@
         <v>24</v>
       </c>
       <c r="H134" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I134" t="s">
-        <v>263</v>
+        <v>167</v>
       </c>
       <c r="J134">
         <v>2</v>
@@ -13191,7 +12927,7 @@
         <v>33947779</v>
       </c>
       <c r="E135" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F135" t="s">
         <v>15</v>
@@ -13200,10 +12936,10 @@
         <v>15</v>
       </c>
       <c r="H135" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I135" t="s">
-        <v>264</v>
+        <v>146</v>
       </c>
       <c r="J135">
         <v>2</v>
@@ -13223,7 +12959,7 @@
         <v>33947779</v>
       </c>
       <c r="E136" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F136" t="s">
         <v>16</v>
@@ -13232,10 +12968,10 @@
         <v>17</v>
       </c>
       <c r="H136" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I136" t="s">
-        <v>265</v>
+        <v>169</v>
       </c>
       <c r="J136">
         <v>3</v>
@@ -13264,10 +13000,10 @@
         <v>24</v>
       </c>
       <c r="H137" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I137" t="s">
-        <v>266</v>
+        <v>142</v>
       </c>
       <c r="J137">
         <v>2</v>
@@ -13287,7 +13023,7 @@
         <v>21605431.5</v>
       </c>
       <c r="E138" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F138" t="s">
         <v>5</v>
@@ -13296,10 +13032,10 @@
         <v>6</v>
       </c>
       <c r="H138" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I138" t="s">
-        <v>267</v>
+        <v>135</v>
       </c>
       <c r="J138">
         <v>1</v>
@@ -13319,7 +13055,7 @@
         <v>21605431.5</v>
       </c>
       <c r="E139" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F139" t="s">
         <v>9</v>
@@ -13328,10 +13064,10 @@
         <v>11</v>
       </c>
       <c r="H139" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I139" t="s">
-        <v>268</v>
+        <v>129</v>
       </c>
       <c r="J139">
         <v>1</v>
@@ -13351,7 +13087,7 @@
         <v>32711530.5</v>
       </c>
       <c r="E140" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F140" t="s">
         <v>20</v>
@@ -13360,10 +13096,10 @@
         <v>21</v>
       </c>
       <c r="H140" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I140" t="s">
-        <v>269</v>
+        <v>152</v>
       </c>
       <c r="J140">
         <v>2</v>
@@ -13383,7 +13119,7 @@
         <v>32711530.5</v>
       </c>
       <c r="E141" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F141" t="s">
         <v>20</v>
@@ -13392,10 +13128,10 @@
         <v>22</v>
       </c>
       <c r="H141" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I141" t="s">
-        <v>270</v>
+        <v>138</v>
       </c>
       <c r="J141">
         <v>1</v>
@@ -13415,7 +13151,7 @@
         <v>39465208</v>
       </c>
       <c r="E142" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F142" t="s">
         <v>20</v>
@@ -13424,10 +13160,10 @@
         <v>21</v>
       </c>
       <c r="H142" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I142" t="s">
-        <v>271</v>
+        <v>178</v>
       </c>
       <c r="J142">
         <v>3</v>
@@ -13447,7 +13183,7 @@
         <v>39465208</v>
       </c>
       <c r="E143" t="s">
-        <v>139</v>
+        <v>19</v>
       </c>
       <c r="F143" t="s">
         <v>20</v>
@@ -13456,10 +13192,10 @@
         <v>22</v>
       </c>
       <c r="H143" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I143" t="s">
-        <v>272</v>
+        <v>188</v>
       </c>
       <c r="J143">
         <v>5</v>
@@ -13488,10 +13224,10 @@
         <v>24</v>
       </c>
       <c r="H144" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I144" t="s">
-        <v>273</v>
+        <v>170</v>
       </c>
       <c r="J144">
         <v>2</v>
@@ -13511,7 +13247,7 @@
         <v>16059885</v>
       </c>
       <c r="E145" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F145" t="s">
         <v>5</v>
@@ -13520,10 +13256,10 @@
         <v>8</v>
       </c>
       <c r="H145" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I145" t="s">
-        <v>274</v>
+        <v>189</v>
       </c>
       <c r="J145">
         <v>2</v>
@@ -13543,7 +13279,7 @@
         <v>16059885</v>
       </c>
       <c r="E146" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="F146" t="s">
         <v>9</v>
@@ -13552,10 +13288,10 @@
         <v>10</v>
       </c>
       <c r="H146" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I146" t="s">
-        <v>275</v>
+        <v>148</v>
       </c>
       <c r="J146">
         <v>2</v>
@@ -13575,7 +13311,7 @@
         <v>27157858.5</v>
       </c>
       <c r="E147" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F147" t="s">
         <v>14</v>
@@ -13584,10 +13320,10 @@
         <v>14</v>
       </c>
       <c r="H147" t="s">
+        <v>131</v>
+      </c>
+      <c r="I147" t="s">
         <v>133</v>
-      </c>
-      <c r="I147" t="s">
-        <v>276</v>
       </c>
       <c r="J147">
         <v>4</v>
@@ -13607,7 +13343,7 @@
         <v>27157858.5</v>
       </c>
       <c r="E148" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F148" t="s">
         <v>16</v>
@@ -13616,10 +13352,10 @@
         <v>17</v>
       </c>
       <c r="H148" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I148" t="s">
-        <v>277</v>
+        <v>166</v>
       </c>
       <c r="J148">
         <v>2</v>
@@ -13645,7 +13381,7 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>278</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -13675,7 +13411,7 @@
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>279</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -13685,10 +13421,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B2:G42"/>
+  <dimension ref="A2:G42"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13701,29 +13437,35 @@
     <col min="7" max="7" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
       <c r="B2" s="25" t="s">
-        <v>280</v>
+        <v>192</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>281</v>
+        <v>193</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>282</v>
+        <v>194</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>283</v>
+        <v>195</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>284</v>
+        <v>196</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" ht="41.25" customHeight="1">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="41.25" customHeight="1">
+      <c r="A3" t="s">
+        <v>114</v>
+      </c>
       <c r="B3" s="28" t="s">
-        <v>286</v>
+        <v>198</v>
       </c>
       <c r="C3" s="29">
         <v>26957145.600000001</v>
@@ -13732,20 +13474,23 @@
         <v>2024</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F3" s="30">
         <f t="shared" ref="F3:F42" ca="1" si="0">(C3*0.2) + RANDBETWEEN(0, 25000)</f>
-        <v>5398455.120000001</v>
+        <v>5392364.120000001</v>
       </c>
       <c r="G3" s="29">
         <f t="shared" ref="G3:G42" ca="1" si="1">C3-F3</f>
-        <v>21558690.48</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7">
+        <v>21564781.48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
       <c r="B4" s="28" t="s">
-        <v>288</v>
+        <v>200</v>
       </c>
       <c r="C4" s="29">
         <v>40426848</v>
@@ -13754,20 +13499,23 @@
         <v>2023</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F4" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>8097104.6000000006</v>
+        <v>8109078.6000000006</v>
       </c>
       <c r="G4" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>32329743.399999999</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7">
+        <v>32317769.399999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
       <c r="B5" s="28" t="s">
-        <v>289</v>
+        <v>201</v>
       </c>
       <c r="C5" s="29">
         <v>53896550.399999999</v>
@@ -13776,20 +13524,23 @@
         <v>2022</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F5" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>10795989.08</v>
+        <v>10801113.08</v>
       </c>
       <c r="G5" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>43100561.32</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="30" customHeight="1">
+        <v>43095437.32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" customHeight="1">
+      <c r="A6" t="s">
+        <v>114</v>
+      </c>
       <c r="B6" s="28" t="s">
-        <v>290</v>
+        <v>202</v>
       </c>
       <c r="C6" s="29">
         <v>67366252.799999997</v>
@@ -13798,20 +13549,23 @@
         <v>2019</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F6" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>13484311.560000001</v>
+        <v>13496582.560000001</v>
       </c>
       <c r="G6" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>53881941.239999995</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="30" customHeight="1">
+        <v>53869670.239999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" customHeight="1">
+      <c r="A7" t="s">
+        <v>114</v>
+      </c>
       <c r="B7" s="28" t="s">
-        <v>291</v>
+        <v>203</v>
       </c>
       <c r="C7" s="29">
         <v>80835955.199999988</v>
@@ -13820,20 +13574,23 @@
         <v>2024</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F7" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>16180292.039999999</v>
+        <v>16168448.039999999</v>
       </c>
       <c r="G7" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>64655663.159999989</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
+        <v>64667507.159999989</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>114</v>
+      </c>
       <c r="B8" s="28" t="s">
-        <v>292</v>
+        <v>204</v>
       </c>
       <c r="C8" s="29">
         <v>94305657.600000009</v>
@@ -13842,20 +13599,23 @@
         <v>2023</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F8" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>18870447.520000003</v>
+        <v>18866098.520000003</v>
       </c>
       <c r="G8" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>75435210.080000013</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="30" customHeight="1">
+        <v>75439559.080000013</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1">
+      <c r="A9" t="s">
+        <v>114</v>
+      </c>
       <c r="B9" s="28" t="s">
-        <v>293</v>
+        <v>205</v>
       </c>
       <c r="C9" s="29">
         <v>107760576</v>
@@ -13864,20 +13624,23 @@
         <v>2022</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F9" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>21555395.200000003</v>
+        <v>21567789.200000003</v>
       </c>
       <c r="G9" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>86205180.799999997</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
+        <v>86192786.799999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>114</v>
+      </c>
       <c r="B10" s="28" t="s">
-        <v>294</v>
+        <v>206</v>
       </c>
       <c r="C10" s="29">
         <v>121082438.40000001</v>
@@ -13886,20 +13649,23 @@
         <v>2019</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F10" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>24219201.680000003</v>
+        <v>24229766.680000003</v>
       </c>
       <c r="G10" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>96863236.719999999</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="30" customHeight="1">
+        <v>96852671.719999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1">
+      <c r="A11" t="s">
+        <v>114</v>
+      </c>
       <c r="B11" s="28" t="s">
-        <v>295</v>
+        <v>207</v>
       </c>
       <c r="C11" s="29">
         <v>133073740.8</v>
@@ -13908,20 +13674,23 @@
         <v>2024</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F11" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>26627995.16</v>
+        <v>26625418.16</v>
       </c>
       <c r="G11" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>106445745.64</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7">
+        <v>106448322.64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>114</v>
+      </c>
       <c r="B12" s="28" t="s">
-        <v>296</v>
+        <v>208</v>
       </c>
       <c r="C12" s="29">
         <v>146543443.19999999</v>
@@ -13930,20 +13699,23 @@
         <v>2023</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F12" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>29312177.640000001</v>
+        <v>29322528.640000001</v>
       </c>
       <c r="G12" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>117231265.55999999</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7">
+        <v>117220914.55999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>114</v>
+      </c>
       <c r="B13" s="28" t="s">
-        <v>297</v>
+        <v>209</v>
       </c>
       <c r="C13" s="29">
         <v>16608345.6</v>
@@ -13952,20 +13724,23 @@
         <v>2022</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F13" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>3323762.12</v>
+        <v>3321870.12</v>
       </c>
       <c r="G13" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>13284583.48</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7">
+        <v>13286475.48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>114</v>
+      </c>
       <c r="B14" s="28" t="s">
-        <v>298</v>
+        <v>210</v>
       </c>
       <c r="C14" s="29">
         <v>33034848</v>
@@ -13974,20 +13749,23 @@
         <v>2019</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F14" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>6627407.6000000006</v>
+        <v>6611754.6000000006</v>
       </c>
       <c r="G14" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>26407440.399999999</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="30" customHeight="1">
+        <v>26423093.399999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" customHeight="1">
+      <c r="A15" t="s">
+        <v>114</v>
+      </c>
       <c r="B15" s="28" t="s">
-        <v>299</v>
+        <v>211</v>
       </c>
       <c r="C15" s="29">
         <v>49461350.399999999</v>
@@ -13996,20 +13774,23 @@
         <v>2020</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F15" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>9911685.0800000001</v>
+        <v>9893928.0800000001</v>
       </c>
       <c r="G15" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>39549665.32</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7">
+        <v>39567422.32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>114</v>
+      </c>
       <c r="B16" s="28" t="s">
-        <v>300</v>
+        <v>212</v>
       </c>
       <c r="C16" s="29">
         <v>65887852.799999997</v>
@@ -14018,20 +13799,23 @@
         <v>2020</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F16" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>13189122.560000001</v>
+        <v>13197465.560000001</v>
       </c>
       <c r="G16" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>52698730.239999995</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
+        <v>52690387.239999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>114</v>
+      </c>
       <c r="B17" s="28" t="s">
-        <v>301</v>
+        <v>213</v>
       </c>
       <c r="C17" s="29">
         <v>82314355.199999988</v>
@@ -14040,20 +13824,23 @@
         <v>2020</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F17" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>16472355.039999999</v>
+        <v>16462922.039999999</v>
       </c>
       <c r="G17" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>65842000.159999989</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7">
+        <v>65851433.159999989</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>114</v>
+      </c>
       <c r="B18" s="28" t="s">
-        <v>302</v>
+        <v>214</v>
       </c>
       <c r="C18" s="29">
         <v>98740857.600000009</v>
@@ -14062,20 +13849,23 @@
         <v>2020</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>303</v>
+        <v>215</v>
       </c>
       <c r="F18" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>19762759.520000003</v>
+        <v>19763040.520000003</v>
       </c>
       <c r="G18" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>78978098.080000013</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="30" customHeight="1">
+        <v>78977817.080000013</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" customHeight="1">
+      <c r="A19" t="s">
+        <v>114</v>
+      </c>
       <c r="B19" s="28" t="s">
-        <v>304</v>
+        <v>216</v>
       </c>
       <c r="C19" s="29">
         <v>115152576</v>
@@ -14084,20 +13874,23 @@
         <v>2020</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F19" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>23031178.200000003</v>
+        <v>23049030.200000003</v>
       </c>
       <c r="G19" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>92121397.799999997</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7">
+        <v>92103545.799999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>114</v>
+      </c>
       <c r="B20" s="28" t="s">
-        <v>305</v>
+        <v>217</v>
       </c>
       <c r="C20" s="29">
         <v>131431238.40000001</v>
@@ -14106,20 +13899,23 @@
         <v>2020</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F20" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>26297739.680000003</v>
+        <v>26306045.680000003</v>
       </c>
       <c r="G20" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>105133498.72</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="30" customHeight="1">
+        <v>105125192.72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" customHeight="1">
+      <c r="A21" t="s">
+        <v>114</v>
+      </c>
       <c r="B21" s="28" t="s">
-        <v>306</v>
+        <v>218</v>
       </c>
       <c r="C21" s="29">
         <v>146379340.80000001</v>
@@ -14128,20 +13924,23 @@
         <v>2017</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>303</v>
+        <v>215</v>
       </c>
       <c r="F21" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>29285458.160000004</v>
+        <v>29296666.160000004</v>
       </c>
       <c r="G21" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>117093882.64000002</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7">
+        <v>117082674.64000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>114</v>
+      </c>
       <c r="B22" s="28" t="s">
-        <v>307</v>
+        <v>219</v>
       </c>
       <c r="C22" s="29">
         <v>14965843.199999999</v>
@@ -14150,20 +13949,23 @@
         <v>2017</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F22" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>3014648.64</v>
+        <v>3016564.64</v>
       </c>
       <c r="G22" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>11951194.559999999</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7">
+        <v>11949278.559999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>114</v>
+      </c>
       <c r="B23" s="28" t="s">
-        <v>308</v>
+        <v>220</v>
       </c>
       <c r="C23" s="29">
         <v>31392345.600000001</v>
@@ -14172,20 +13974,23 @@
         <v>2017</v>
       </c>
       <c r="E23" s="26" t="s">
-        <v>303</v>
+        <v>215</v>
       </c>
       <c r="F23" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>6299002.120000001</v>
+        <v>6281747.120000001</v>
       </c>
       <c r="G23" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>25093343.48</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7">
+        <v>25110598.48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>114</v>
+      </c>
       <c r="B24" s="28" t="s">
-        <v>309</v>
+        <v>221</v>
       </c>
       <c r="C24" s="29">
         <v>47818848</v>
@@ -14194,20 +13999,23 @@
         <v>2017</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F24" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>9582668.5999999996</v>
+        <v>9578205.5999999996</v>
       </c>
       <c r="G24" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>38236179.399999999</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="30" customHeight="1">
+        <v>38240642.399999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="30" customHeight="1">
+      <c r="A25" t="s">
+        <v>114</v>
+      </c>
       <c r="B25" s="28" t="s">
-        <v>310</v>
+        <v>222</v>
       </c>
       <c r="C25" s="29">
         <v>64245350.399999999</v>
@@ -14216,20 +14024,23 @@
         <v>2017</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F25" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>12855253.08</v>
+        <v>12866885.08</v>
       </c>
       <c r="G25" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>51390097.32</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7">
+        <v>51378465.32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>114</v>
+      </c>
       <c r="B26" s="28" t="s">
-        <v>311</v>
+        <v>223</v>
       </c>
       <c r="C26" s="29">
         <v>80671852.799999997</v>
@@ -14238,20 +14049,23 @@
         <v>2017</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F26" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>16141098.560000001</v>
+        <v>16136426.560000001</v>
       </c>
       <c r="G26" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>64530754.239999995</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="30" customHeight="1">
+        <v>64535426.239999995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30" customHeight="1">
+      <c r="A27" t="s">
+        <v>114</v>
+      </c>
       <c r="B27" s="28" t="s">
-        <v>312</v>
+        <v>224</v>
       </c>
       <c r="C27" s="29">
         <v>97098355.199999988</v>
@@ -14260,20 +14074,23 @@
         <v>2017</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F27" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>19444374.039999999</v>
+        <v>19430643.039999999</v>
       </c>
       <c r="G27" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>77653981.159999996</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7">
+        <v>77667712.159999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>114</v>
+      </c>
       <c r="B28" s="28" t="s">
-        <v>313</v>
+        <v>225</v>
       </c>
       <c r="C28" s="29">
         <v>113524857.59999999</v>
@@ -14282,20 +14099,23 @@
         <v>2015</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F28" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>22728421.52</v>
+        <v>22714932.52</v>
       </c>
       <c r="G28" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>90796436.079999998</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7">
+        <v>90809925.079999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>114</v>
+      </c>
       <c r="B29" s="28" t="s">
-        <v>314</v>
+        <v>226</v>
       </c>
       <c r="C29" s="29">
         <v>129936576</v>
@@ -14304,20 +14124,23 @@
         <v>2015</v>
       </c>
       <c r="E29" s="26" t="s">
-        <v>303</v>
+        <v>215</v>
       </c>
       <c r="F29" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>25995424.200000003</v>
+        <v>26004727.200000003</v>
       </c>
       <c r="G29" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>103941151.8</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="30" customHeight="1">
+        <v>103931848.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" customHeight="1">
+      <c r="A30" t="s">
+        <v>114</v>
+      </c>
       <c r="B30" s="28" t="s">
-        <v>315</v>
+        <v>227</v>
       </c>
       <c r="C30" s="29">
         <v>146215238.40000001</v>
@@ -14326,20 +14149,23 @@
         <v>2015</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>303</v>
+        <v>215</v>
       </c>
       <c r="F30" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>29250650.680000003</v>
+        <v>29262314.680000003</v>
       </c>
       <c r="G30" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>116964587.72</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7">
+        <v>116952923.72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>114</v>
+      </c>
       <c r="B31" s="28" t="s">
-        <v>316</v>
+        <v>228</v>
       </c>
       <c r="C31" s="29">
         <v>28107340.800000001</v>
@@ -14348,20 +14174,23 @@
         <v>2015</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>303</v>
+        <v>215</v>
       </c>
       <c r="F31" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>5640811.1600000001</v>
+        <v>5643215.1600000001</v>
       </c>
       <c r="G31" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>22466529.640000001</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7">
+        <v>22464125.640000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>114</v>
+      </c>
       <c r="B32" s="28" t="s">
-        <v>317</v>
+        <v>229</v>
       </c>
       <c r="C32" s="29">
         <v>44533843.200000003</v>
@@ -14370,20 +14199,23 @@
         <v>2015</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>303</v>
+        <v>215</v>
       </c>
       <c r="F32" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>8911394.6400000006</v>
+        <v>8916235.6400000006</v>
       </c>
       <c r="G32" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>35622448.560000002</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" ht="30" customHeight="1">
+        <v>35617607.560000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30" customHeight="1">
+      <c r="A33" t="s">
+        <v>114</v>
+      </c>
       <c r="B33" s="28" t="s">
-        <v>318</v>
+        <v>230</v>
       </c>
       <c r="C33" s="29">
         <v>60960345.599999987</v>
@@ -14392,20 +14224,23 @@
         <v>2015</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F33" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>12216651.119999997</v>
+        <v>12207710.119999997</v>
       </c>
       <c r="G33" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>48743694.479999989</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7">
+        <v>48752635.479999989</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>114</v>
+      </c>
       <c r="B34" s="28" t="s">
-        <v>319</v>
+        <v>231</v>
       </c>
       <c r="C34" s="29">
         <v>77386848</v>
@@ -14414,20 +14249,23 @@
         <v>2015</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F34" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>15484399.600000001</v>
+        <v>15477649.600000001</v>
       </c>
       <c r="G34" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>61902448.399999999</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7">
+        <v>61909198.399999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>114</v>
+      </c>
       <c r="B35" s="28" t="s">
-        <v>320</v>
+        <v>232</v>
       </c>
       <c r="C35" s="29">
         <v>93813350.399999991</v>
@@ -14436,20 +14274,23 @@
         <v>2015</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F35" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>18780430.079999998</v>
+        <v>18776046.079999998</v>
       </c>
       <c r="G35" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>75032920.319999993</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" ht="30" customHeight="1">
+        <v>75037304.319999993</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="30" customHeight="1">
+      <c r="A36" t="s">
+        <v>114</v>
+      </c>
       <c r="B36" s="28" t="s">
-        <v>321</v>
+        <v>233</v>
       </c>
       <c r="C36" s="29">
         <v>110239852.8</v>
@@ -14458,20 +14299,23 @@
         <v>2015</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F36" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>22055351.560000002</v>
+        <v>22053427.560000002</v>
       </c>
       <c r="G36" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>88184501.239999995</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7">
+        <v>88186425.239999995</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>114</v>
+      </c>
       <c r="B37" s="28" t="s">
-        <v>322</v>
+        <v>234</v>
       </c>
       <c r="C37" s="29">
         <v>126666355.2</v>
@@ -14480,20 +14324,23 @@
         <v>2015</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="F37" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>25344786.040000003</v>
+        <v>25334002.040000003</v>
       </c>
       <c r="G37" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>101321569.16</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7">
+        <v>101332353.16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>114</v>
+      </c>
       <c r="B38" s="28" t="s">
-        <v>323</v>
+        <v>235</v>
       </c>
       <c r="C38" s="29">
         <v>143092857.59999999</v>
@@ -14502,20 +14349,23 @@
         <v>2015</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>303</v>
+        <v>215</v>
       </c>
       <c r="F38" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>28635793.52</v>
+        <v>28622265.52</v>
       </c>
       <c r="G38" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>114457064.08</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" ht="30" customHeight="1">
+        <v>114470592.08</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="30" customHeight="1">
+      <c r="A39" t="s">
+        <v>114</v>
+      </c>
       <c r="B39" s="28" t="s">
-        <v>324</v>
+        <v>236</v>
       </c>
       <c r="C39" s="29">
         <v>26448576</v>
@@ -14524,20 +14374,23 @@
         <v>2015</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>303</v>
+        <v>215</v>
       </c>
       <c r="F39" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>5307998.2</v>
+        <v>5306880.2</v>
       </c>
       <c r="G39" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>21140577.800000001</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7">
+        <v>21141695.800000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>114</v>
+      </c>
       <c r="B40" s="28" t="s">
-        <v>325</v>
+        <v>237</v>
       </c>
       <c r="C40" s="29">
         <v>42727238.399999999</v>
@@ -14546,20 +14399,23 @@
         <v>2015</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>303</v>
+        <v>215</v>
       </c>
       <c r="F40" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>8547906.6799999997</v>
+        <v>8562857.6799999997</v>
       </c>
       <c r="G40" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>34179331.719999999</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7">
+        <v>34164380.719999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>114</v>
+      </c>
       <c r="B41" s="28" t="s">
-        <v>326</v>
+        <v>238</v>
       </c>
       <c r="C41" s="29">
         <v>57675340.799999997</v>
@@ -14568,20 +14424,23 @@
         <v>2015</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>303</v>
+        <v>215</v>
       </c>
       <c r="F41" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>11557134.16</v>
+        <v>11555849.16</v>
       </c>
       <c r="G41" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>46118206.640000001</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7">
+        <v>46119491.640000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>114</v>
+      </c>
       <c r="B42" s="28" t="s">
-        <v>327</v>
+        <v>239</v>
       </c>
       <c r="C42" s="29">
         <v>74101843.200000003</v>
@@ -14590,15 +14449,15 @@
         <v>2015</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>303</v>
+        <v>215</v>
       </c>
       <c r="F42" s="30">
         <f t="shared" ca="1" si="0"/>
-        <v>14823501.640000001</v>
+        <v>14834738.640000001</v>
       </c>
       <c r="G42" s="29">
         <f t="shared" ca="1" si="1"/>
-        <v>59278341.560000002</v>
+        <v>59267104.560000002</v>
       </c>
     </row>
   </sheetData>
@@ -14608,10 +14467,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="B2:F42"/>
+  <dimension ref="A2:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A7" sqref="A7:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14623,7 +14482,10 @@
     <col min="6" max="6" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
       <c r="B2" s="31" t="s">
         <v>25</v>
       </c>
@@ -14634,13 +14496,16 @@
         <v>94</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>328</v>
+        <v>240</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>114</v>
+      </c>
       <c r="B3" s="31" t="s">
         <v>47</v>
       </c>
@@ -14656,7 +14521,10 @@
         <v>46160</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
       <c r="B4" s="31" t="s">
         <v>48</v>
       </c>
@@ -14672,7 +14540,10 @@
         <v>44665</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
       <c r="B5" s="31" t="s">
         <v>51</v>
       </c>
@@ -14690,7 +14561,10 @@
         <v>45123</v>
       </c>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>114</v>
+      </c>
       <c r="B6" s="31" t="s">
         <v>52</v>
       </c>
@@ -14708,7 +14582,7 @@
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="31" t="s">
-        <v>330</v>
+        <v>242</v>
       </c>
       <c r="C41" s="31">
         <v>6</v>
@@ -14726,7 +14600,7 @@
     </row>
     <row r="42" spans="2:6">
       <c r="B42" s="31" t="s">
-        <v>331</v>
+        <v>243</v>
       </c>
       <c r="C42" s="31">
         <v>7</v>
@@ -14783,13 +14657,13 @@
         <v>99</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>332</v>
+        <v>244</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>333</v>
+        <v>245</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>334</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -14797,7 +14671,7 @@
         <v>114</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
       <c r="C2" s="8">
         <v>1</v>
@@ -14809,10 +14683,10 @@
         <v>2</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
       <c r="H2" t="s">
-        <v>337</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -14834,10 +14708,10 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
       <c r="H3" t="s">
-        <v>337</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -14858,10 +14732,10 @@
         <v>11</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>338</v>
+        <v>250</v>
       </c>
       <c r="H4" t="s">
-        <v>339</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -14882,10 +14756,10 @@
         <v>11</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
       <c r="H5" t="s">
-        <v>340</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -14906,10 +14780,10 @@
         <v>14</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>338</v>
+        <v>250</v>
       </c>
       <c r="H6" t="s">
-        <v>339</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -14931,10 +14805,10 @@
         <v>6</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>341</v>
+        <v>253</v>
       </c>
       <c r="H7" t="s">
-        <v>340</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -14956,10 +14830,10 @@
         <v>10</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
       <c r="H8" t="s">
-        <v>342</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -14981,10 +14855,10 @@
         <v>13</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
       <c r="H9" t="s">
-        <v>340</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -15006,10 +14880,10 @@
         <v>12</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
       <c r="H10" t="s">
-        <v>340</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -15031,10 +14905,10 @@
         <v>13</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>341</v>
+        <v>253</v>
       </c>
       <c r="H11" t="s">
-        <v>340</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -15056,7 +14930,7 @@
         <v>8</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>343</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -15078,10 +14952,10 @@
         <v>6</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
       <c r="H13" t="s">
-        <v>337</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -15103,7 +14977,7 @@
         <v>12</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>344</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -15126,7 +15000,7 @@
       </c>
       <c r="F15" s="3"/>
       <c r="G15" t="s">
-        <v>344</v>
+        <v>256</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -15148,7 +15022,7 @@
         <v>12</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>343</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -15170,10 +15044,10 @@
         <v>8</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
       <c r="H17" t="s">
-        <v>337</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -15195,7 +15069,7 @@
         <v>7</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>343</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -15217,7 +15091,7 @@
         <v>9</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>345</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -15239,7 +15113,7 @@
         <v>12</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>346</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -15262,7 +15136,7 @@
       </c>
       <c r="F21" s="3"/>
       <c r="G21" t="s">
-        <v>347</v>
+        <v>259</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -15284,7 +15158,7 @@
         <v>3</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>343</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -15306,7 +15180,7 @@
         <v>6</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -15328,7 +15202,7 @@
         <v>12</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>343</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -15350,7 +15224,7 @@
         <v>11</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>348</v>
+        <v>260</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -15372,7 +15246,7 @@
         <v>12</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>344</v>
+        <v>256</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -15394,7 +15268,7 @@
         <v>6</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>343</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -15416,10 +15290,10 @@
         <v>5</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
       <c r="H28" t="s">
-        <v>340</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -15441,10 +15315,10 @@
         <v>9</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
       <c r="H29" t="s">
-        <v>340</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -15466,7 +15340,7 @@
         <v>12</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>344</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -15488,7 +15362,7 @@
         <v>12</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -15511,7 +15385,7 @@
       </c>
       <c r="F32" s="3"/>
       <c r="G32" t="s">
-        <v>344</v>
+        <v>256</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -15533,10 +15407,10 @@
         <v>7</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
       <c r="H33" t="s">
-        <v>337</v>
+        <v>249</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -15558,10 +15432,10 @@
         <v>13</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
       <c r="H34" t="s">
-        <v>337</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -15583,10 +15457,10 @@
         <v>14</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
       <c r="H35" t="s">
-        <v>337</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -15608,10 +15482,10 @@
         <v>14</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
       <c r="H36" t="s">
-        <v>340</v>
+        <v>252</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -15633,7 +15507,7 @@
         <v>8</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -15655,7 +15529,7 @@
         <v>8</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>343</v>
+        <v>255</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -15677,7 +15551,7 @@
         <v>9</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -15699,10 +15573,10 @@
         <v>13</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
       <c r="H40" t="s">
-        <v>340</v>
+        <v>252</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -15724,10 +15598,10 @@
         <v>13</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
       <c r="H41" t="s">
-        <v>340</v>
+        <v>252</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -15749,7 +15623,7 @@
         <v>3</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>344</v>
+        <v>256</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -15771,7 +15645,7 @@
         <v>8</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>343</v>
+        <v>255</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -15793,7 +15667,7 @@
         <v>11</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>346</v>
+        <v>258</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -15815,7 +15689,7 @@
         <v>12</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -15837,7 +15711,7 @@
         <v>15</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>343</v>
+        <v>255</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -15859,7 +15733,7 @@
         <v>4</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>346</v>
+        <v>258</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -15881,7 +15755,7 @@
         <v>7</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>349</v>
+        <v>261</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -15903,7 +15777,7 @@
         <v>11</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>343</v>
+        <v>255</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -15925,7 +15799,7 @@
         <v>11</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>345</v>
+        <v>257</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -15947,7 +15821,7 @@
         <v>10</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>344</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -15967,30 +15841,30 @@
   <sheetData>
     <row r="1" spans="1:5" ht="30.75" customHeight="1">
       <c r="A1" s="34" t="s">
-        <v>350</v>
+        <v>262</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>351</v>
+        <v>263</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>352</v>
+        <v>264</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>353</v>
+        <v>265</v>
       </c>
       <c r="E1" s="35" t="s">
-        <v>354</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>355</v>
+        <v>267</v>
       </c>
       <c r="B2" t="s">
-        <v>356</v>
+        <v>268</v>
       </c>
       <c r="C2" t="s">
-        <v>355</v>
+        <v>267</v>
       </c>
       <c r="D2">
         <v>21</v>
@@ -16001,13 +15875,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>357</v>
+        <v>269</v>
       </c>
       <c r="B3" t="s">
-        <v>358</v>
+        <v>270</v>
       </c>
       <c r="C3" t="s">
-        <v>357</v>
+        <v>269</v>
       </c>
       <c r="D3">
         <v>20</v>
@@ -16018,13 +15892,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>348</v>
+        <v>260</v>
       </c>
       <c r="B4" t="s">
-        <v>359</v>
+        <v>271</v>
       </c>
       <c r="C4" t="s">
-        <v>348</v>
+        <v>260</v>
       </c>
       <c r="D4">
         <v>19</v>
@@ -16035,13 +15909,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>338</v>
+        <v>250</v>
       </c>
       <c r="B5" t="s">
-        <v>339</v>
+        <v>251</v>
       </c>
       <c r="C5" t="s">
-        <v>338</v>
+        <v>250</v>
       </c>
       <c r="D5">
         <v>18</v>
@@ -16052,13 +15926,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>341</v>
+        <v>253</v>
       </c>
       <c r="B6" t="s">
-        <v>340</v>
+        <v>252</v>
       </c>
       <c r="C6" t="s">
-        <v>341</v>
+        <v>253</v>
       </c>
       <c r="D6">
         <v>17</v>
@@ -16069,13 +15943,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
       <c r="B7" t="s">
-        <v>337</v>
+        <v>249</v>
       </c>
       <c r="C7" t="s">
-        <v>336</v>
+        <v>248</v>
       </c>
       <c r="D7">
         <v>16</v>
@@ -16086,13 +15960,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>345</v>
+        <v>257</v>
       </c>
       <c r="B8" t="s">
-        <v>342</v>
+        <v>254</v>
       </c>
       <c r="C8" t="s">
-        <v>345</v>
+        <v>257</v>
       </c>
       <c r="D8">
         <v>15</v>
@@ -16103,13 +15977,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>344</v>
+        <v>256</v>
       </c>
       <c r="B9" t="s">
-        <v>360</v>
+        <v>272</v>
       </c>
       <c r="C9" t="s">
-        <v>344</v>
+        <v>256</v>
       </c>
       <c r="D9">
         <v>14</v>
@@ -16120,13 +15994,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>343</v>
+        <v>255</v>
       </c>
       <c r="B10" t="s">
-        <v>361</v>
+        <v>273</v>
       </c>
       <c r="C10" t="s">
-        <v>343</v>
+        <v>255</v>
       </c>
       <c r="D10">
         <v>13</v>
@@ -16137,13 +16011,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>362</v>
+        <v>274</v>
       </c>
       <c r="B11" t="s">
-        <v>363</v>
+        <v>275</v>
       </c>
       <c r="C11" t="s">
-        <v>362</v>
+        <v>274</v>
       </c>
       <c r="D11">
         <v>12</v>
@@ -16154,13 +16028,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>349</v>
+        <v>261</v>
       </c>
       <c r="B12" t="s">
-        <v>364</v>
+        <v>276</v>
       </c>
       <c r="C12" t="s">
-        <v>349</v>
+        <v>261</v>
       </c>
       <c r="D12">
         <v>11</v>
@@ -16171,13 +16045,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>365</v>
+        <v>277</v>
       </c>
       <c r="B13" t="s">
-        <v>366</v>
+        <v>278</v>
       </c>
       <c r="C13" t="s">
-        <v>365</v>
+        <v>277</v>
       </c>
       <c r="D13">
         <v>10</v>
@@ -16188,13 +16062,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>367</v>
+        <v>279</v>
       </c>
       <c r="B14" t="s">
-        <v>368</v>
+        <v>280</v>
       </c>
       <c r="C14" t="s">
-        <v>367</v>
+        <v>279</v>
       </c>
       <c r="D14">
         <v>9</v>
@@ -16205,13 +16079,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>347</v>
+        <v>259</v>
       </c>
       <c r="B15" t="s">
-        <v>369</v>
+        <v>281</v>
       </c>
       <c r="C15" t="s">
-        <v>347</v>
+        <v>259</v>
       </c>
       <c r="D15">
         <v>8</v>
@@ -16222,13 +16096,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>370</v>
+        <v>282</v>
       </c>
       <c r="B16" t="s">
-        <v>371</v>
+        <v>283</v>
       </c>
       <c r="C16" t="s">
-        <v>370</v>
+        <v>282</v>
       </c>
       <c r="D16">
         <v>7</v>
@@ -16239,13 +16113,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>372</v>
+        <v>284</v>
       </c>
       <c r="B17" t="s">
-        <v>373</v>
+        <v>285</v>
       </c>
       <c r="C17" t="s">
-        <v>372</v>
+        <v>284</v>
       </c>
       <c r="D17">
         <v>6</v>
@@ -16256,13 +16130,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>374</v>
+        <v>286</v>
       </c>
       <c r="B18" t="s">
-        <v>375</v>
+        <v>287</v>
       </c>
       <c r="C18" t="s">
-        <v>374</v>
+        <v>286</v>
       </c>
       <c r="D18">
         <v>5</v>
@@ -16273,13 +16147,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>376</v>
+        <v>288</v>
       </c>
       <c r="B19" t="s">
-        <v>377</v>
+        <v>289</v>
       </c>
       <c r="C19" t="s">
-        <v>376</v>
+        <v>288</v>
       </c>
       <c r="D19">
         <v>4</v>
@@ -16290,13 +16164,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>378</v>
+        <v>290</v>
       </c>
       <c r="B20" t="s">
-        <v>379</v>
+        <v>291</v>
       </c>
       <c r="C20" t="s">
-        <v>378</v>
+        <v>290</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -16307,13 +16181,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>380</v>
+        <v>292</v>
       </c>
       <c r="B21" t="s">
-        <v>381</v>
+        <v>293</v>
       </c>
       <c r="C21" t="s">
-        <v>380</v>
+        <v>292</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -16324,7 +16198,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="C22" t="s">
-        <v>382</v>
+        <v>294</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -16335,13 +16209,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>383</v>
+        <v>295</v>
       </c>
       <c r="B23" t="s">
-        <v>382</v>
+        <v>294</v>
       </c>
       <c r="C23" t="s">
-        <v>384</v>
+        <v>296</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -16349,10 +16223,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>385</v>
+        <v>297</v>
       </c>
       <c r="C24" t="s">
-        <v>386</v>
+        <v>298</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -16360,7 +16234,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="C25" t="s">
-        <v>385</v>
+        <v>297</v>
       </c>
       <c r="D25">
         <v>1</v>
